--- a/data_d3.xlsx
+++ b/data_d3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\04_D3 dan Alih Jenjang\21umm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA97C350-7509-4F2C-AE5A-CCE752C8D472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E35685-9E53-4BA5-B405-5A4CE7673DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11948,1811 +11948,13 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="J2">
-            <v>21211031</v>
-          </cell>
-          <cell r="K2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="J3">
-            <v>21211223</v>
-          </cell>
-          <cell r="K3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>21210785</v>
-          </cell>
-          <cell r="K4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>21210406</v>
-          </cell>
-          <cell r="K5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>21211264</v>
-          </cell>
-          <cell r="K6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7">
-            <v>21210242</v>
-          </cell>
-          <cell r="K7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="J8">
-            <v>21211292</v>
-          </cell>
-          <cell r="K8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="J9">
-            <v>21219556</v>
-          </cell>
-          <cell r="K9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="J10">
-            <v>21219784</v>
-          </cell>
-          <cell r="K10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="J11">
-            <v>21211256</v>
-          </cell>
-          <cell r="K11">
-            <v>8801210075</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="J12">
-            <v>21211269</v>
-          </cell>
-          <cell r="K12">
-            <v>8801210074</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="J13">
-            <v>21219908</v>
-          </cell>
-          <cell r="K13">
-            <v>8801210073</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="J14">
-            <v>21210891</v>
-          </cell>
-          <cell r="K14">
-            <v>8801210072</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="J15">
-            <v>21211242</v>
-          </cell>
-          <cell r="K15">
-            <v>8801210071</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="J16">
-            <v>21211174</v>
-          </cell>
-          <cell r="K16">
-            <v>8801210070</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="J17">
-            <v>21211104</v>
-          </cell>
-          <cell r="K17">
-            <v>8801210069</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="J18">
-            <v>21211135</v>
-          </cell>
-          <cell r="K18">
-            <v>8801210068</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="J19">
-            <v>21219808</v>
-          </cell>
-          <cell r="K19">
-            <v>8801210067</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="J20">
-            <v>21211216</v>
-          </cell>
-          <cell r="K20">
-            <v>8801210066</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="J21">
-            <v>21210964</v>
-          </cell>
-          <cell r="K21">
-            <v>8801210065</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="J22">
-            <v>21210918</v>
-          </cell>
-          <cell r="K22">
-            <v>8801210064</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="J23">
-            <v>21211286</v>
-          </cell>
-          <cell r="K23">
-            <v>8801210063</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="J24">
-            <v>21211046</v>
-          </cell>
-          <cell r="K24">
-            <v>8801210062</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="J25">
-            <v>21211002</v>
-          </cell>
-          <cell r="K25">
-            <v>8801210061</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="J26">
-            <v>21210835</v>
-          </cell>
-          <cell r="K26">
-            <v>8801210060</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="J27">
-            <v>21211049</v>
-          </cell>
-          <cell r="K27">
-            <v>8801210059</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="J28">
-            <v>21211244</v>
-          </cell>
-          <cell r="K28">
-            <v>8801210058</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="J29">
-            <v>21211118</v>
-          </cell>
-          <cell r="K29">
-            <v>8801210057</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="J30">
-            <v>21211062</v>
-          </cell>
-          <cell r="K30">
-            <v>8801210056</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="J31">
-            <v>21211023</v>
-          </cell>
-          <cell r="K31">
-            <v>8801210055</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="J32">
-            <v>21211297</v>
-          </cell>
-          <cell r="K32">
-            <v>8801210054</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="J33">
-            <v>21211096</v>
-          </cell>
-          <cell r="K33">
-            <v>8801210053</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="J34">
-            <v>21211054</v>
-          </cell>
-          <cell r="K34">
-            <v>8801210052</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="J35">
-            <v>21211274</v>
-          </cell>
-          <cell r="K35">
-            <v>8801210051</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="J36">
-            <v>21211186</v>
-          </cell>
-          <cell r="K36">
-            <v>8801210050</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="J37">
-            <v>21211220</v>
-          </cell>
-          <cell r="K37">
-            <v>8801210049</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="J38">
-            <v>21211098</v>
-          </cell>
-          <cell r="K38">
-            <v>8801210048</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="J39">
-            <v>21211075</v>
-          </cell>
-          <cell r="K39">
-            <v>8801210047</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="J40">
-            <v>21211247</v>
-          </cell>
-          <cell r="K40">
-            <v>8801210046</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="J41">
-            <v>21211287</v>
-          </cell>
-          <cell r="K41">
-            <v>8801210045</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="J42">
-            <v>21210900</v>
-          </cell>
-          <cell r="K42">
-            <v>8801210044</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="J43">
-            <v>21219759</v>
-          </cell>
-          <cell r="K43">
-            <v>8801210043</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="J44">
-            <v>21211294</v>
-          </cell>
-          <cell r="K44">
-            <v>8801210042</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="J45">
-            <v>21211290</v>
-          </cell>
-          <cell r="K45">
-            <v>8801210041</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="J46">
-            <v>21211136</v>
-          </cell>
-          <cell r="K46">
-            <v>8801210040</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="J47">
-            <v>21211134</v>
-          </cell>
-          <cell r="K47">
-            <v>8801210039</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="J48">
-            <v>21211036</v>
-          </cell>
-          <cell r="K48">
-            <v>8801210038</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="J49">
-            <v>21211034</v>
-          </cell>
-          <cell r="K49">
-            <v>8801210037</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="J50">
-            <v>21211032</v>
-          </cell>
-          <cell r="K50">
-            <v>8801210036</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="J51">
-            <v>21211011</v>
-          </cell>
-          <cell r="K51">
-            <v>8801210035</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="J52">
-            <v>21210794</v>
-          </cell>
-          <cell r="K52">
-            <v>8801210034</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="J53">
-            <v>21211288</v>
-          </cell>
-          <cell r="K53">
-            <v>8801210033</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="J54">
-            <v>21211189</v>
-          </cell>
-          <cell r="K54">
-            <v>8801210032</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="J55">
-            <v>21211103</v>
-          </cell>
-          <cell r="K55">
-            <v>8801210031</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="J56">
-            <v>21211237</v>
-          </cell>
-          <cell r="K56">
-            <v>8801210030</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="J57">
-            <v>21210837</v>
-          </cell>
-          <cell r="K57">
-            <v>8801210029</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="J58">
-            <v>21211021</v>
-          </cell>
-          <cell r="K58">
-            <v>8801210028</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="J59">
-            <v>21210986</v>
-          </cell>
-          <cell r="K59">
-            <v>8801210027</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="J60">
-            <v>21210905</v>
-          </cell>
-          <cell r="K60">
-            <v>8801210026</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="J61">
-            <v>21211272</v>
-          </cell>
-          <cell r="K61">
-            <v>8801210025</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="J62">
-            <v>21211044</v>
-          </cell>
-          <cell r="K62">
-            <v>8801210024</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="J63">
-            <v>21211212</v>
-          </cell>
-          <cell r="K63">
-            <v>8801210023</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="J64">
-            <v>21211158</v>
-          </cell>
-          <cell r="K64">
-            <v>8801210022</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="J65">
-            <v>21210970</v>
-          </cell>
-          <cell r="K65">
-            <v>8801210021</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="J66">
-            <v>21210843</v>
-          </cell>
-          <cell r="K66">
-            <v>8801210020</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="J67">
-            <v>21211159</v>
-          </cell>
-          <cell r="K67">
-            <v>8801210019</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="J68">
-            <v>21210996</v>
-          </cell>
-          <cell r="K68">
-            <v>8801210018</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="J69">
-            <v>21210877</v>
-          </cell>
-          <cell r="K69">
-            <v>8801210017</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="J70">
-            <v>21219935</v>
-          </cell>
-          <cell r="K70">
-            <v>8801210016</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="J71">
-            <v>21210811</v>
-          </cell>
-          <cell r="K71">
-            <v>8801210015</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="J72">
-            <v>21211124</v>
-          </cell>
-          <cell r="K72">
-            <v>8801210014</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="J73">
-            <v>21211079</v>
-          </cell>
-          <cell r="K73">
-            <v>8801210013</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="J74">
-            <v>21210959</v>
-          </cell>
-          <cell r="K74">
-            <v>8801210012</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="J75">
-            <v>21210948</v>
-          </cell>
-          <cell r="K75">
-            <v>8801210011</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="J76">
-            <v>21211001</v>
-          </cell>
-          <cell r="K76">
-            <v>8801210010</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="J77">
-            <v>21210850</v>
-          </cell>
-          <cell r="K77">
-            <v>8801210009</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="J78">
-            <v>21211210</v>
-          </cell>
-          <cell r="K78">
-            <v>8801210008</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="J79">
-            <v>21210989</v>
-          </cell>
-          <cell r="K79">
-            <v>8801210007</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="J80">
-            <v>21211251</v>
-          </cell>
-          <cell r="K80">
-            <v>8801210006</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="J81">
-            <v>21211165</v>
-          </cell>
-          <cell r="K81">
-            <v>8801210005</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="J82">
-            <v>21211162</v>
-          </cell>
-          <cell r="K82">
-            <v>8801210004</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="J83">
-            <v>21210956</v>
-          </cell>
-          <cell r="K83">
-            <v>8801210003</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="J84">
-            <v>21219945</v>
-          </cell>
-          <cell r="K84">
-            <v>8801210002</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="J85">
-            <v>21211167</v>
-          </cell>
-          <cell r="K85">
-            <v>8801210001</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="J86">
-            <v>21310363</v>
-          </cell>
-          <cell r="K86">
-            <v>5552210166</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="J87">
-            <v>21317857</v>
-          </cell>
-          <cell r="K87">
-            <v>5552210165</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="J88">
-            <v>21317632</v>
-          </cell>
-          <cell r="K88">
-            <v>5552210164</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="J89">
-            <v>21310163</v>
-          </cell>
-          <cell r="K89">
-            <v>5552210163</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="J90">
-            <v>21318037</v>
-          </cell>
-          <cell r="K90">
-            <v>5552210162</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="J91">
-            <v>21310593</v>
-          </cell>
-          <cell r="K91">
-            <v>5552210161</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="J92">
-            <v>21310562</v>
-          </cell>
-          <cell r="K92">
-            <v>5551210194</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="J93">
-            <v>21318123</v>
-          </cell>
-          <cell r="K93">
-            <v>5551210193</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="J94">
-            <v>21310511</v>
-          </cell>
-          <cell r="K94">
-            <v>5551210192</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="J95">
-            <v>21310332</v>
-          </cell>
-          <cell r="K95">
-            <v>5551210191</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="J96">
-            <v>21310563</v>
-          </cell>
-          <cell r="K96">
-            <v>5551210190</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="J97">
-            <v>21310458</v>
-          </cell>
-          <cell r="K97">
-            <v>5551210189</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="J98">
-            <v>21317730</v>
-          </cell>
-          <cell r="K98">
-            <v>5551210188</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="J99">
-            <v>21310496</v>
-          </cell>
-          <cell r="K99">
-            <v>5551210187</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="J100">
-            <v>21317789</v>
-          </cell>
-          <cell r="K100">
-            <v>5551210186</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="J101">
-            <v>21318099</v>
-          </cell>
-          <cell r="K101">
-            <v>5551210185</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="J102">
-            <v>21318245</v>
-          </cell>
-          <cell r="K102">
-            <v>5551210184</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="J103">
-            <v>21317981</v>
-          </cell>
-          <cell r="K103">
-            <v>5551210183</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="J104">
-            <v>21219746</v>
-          </cell>
-          <cell r="K104">
-            <v>5504210019</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="J105">
-            <v>21211467</v>
-          </cell>
-          <cell r="K105">
-            <v>5504210018</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="J106">
-            <v>21210301</v>
-          </cell>
-          <cell r="K106">
-            <v>5504210017</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="J107">
-            <v>21219641</v>
-          </cell>
-          <cell r="K107">
-            <v>5504210016</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="J108">
-            <v>21219696</v>
-          </cell>
-          <cell r="K108">
-            <v>5504210015</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="J109">
-            <v>21210318</v>
-          </cell>
-          <cell r="K109">
-            <v>5504210014</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="J110">
-            <v>21210311</v>
-          </cell>
-          <cell r="K110">
-            <v>5504210013</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="J111">
-            <v>21210476</v>
-          </cell>
-          <cell r="K111">
-            <v>5504210012</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="J112">
-            <v>21210307</v>
-          </cell>
-          <cell r="K112">
-            <v>5504210011</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="J113">
-            <v>21219591</v>
-          </cell>
-          <cell r="K113">
-            <v>5504210010</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="J114">
-            <v>21211367</v>
-          </cell>
-          <cell r="K114">
-            <v>5504210009</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="J115">
-            <v>21219566</v>
-          </cell>
-          <cell r="K115">
-            <v>5504210008</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="J116">
-            <v>21210230</v>
-          </cell>
-          <cell r="K116">
-            <v>5504210007</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="J117">
-            <v>21219627</v>
-          </cell>
-          <cell r="K117">
-            <v>5504210006</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="J118">
-            <v>21210439</v>
-          </cell>
-          <cell r="K118">
-            <v>5504210005</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="J119">
-            <v>21211492</v>
-          </cell>
-          <cell r="K119">
-            <v>5504210004</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="J120">
-            <v>21210214</v>
-          </cell>
-          <cell r="K120">
-            <v>5504210003</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="J121">
-            <v>21219594</v>
-          </cell>
-          <cell r="K121">
-            <v>5504210002</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="J122">
-            <v>21210415</v>
-          </cell>
-          <cell r="K122">
-            <v>5504210001</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="J123">
-            <v>21219580</v>
-          </cell>
-          <cell r="K123">
-            <v>5503210033</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="J124">
-            <v>21219638</v>
-          </cell>
-          <cell r="K124">
-            <v>5503210032</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="J125">
-            <v>21210286</v>
-          </cell>
-          <cell r="K125">
-            <v>5503210031</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="J126">
-            <v>21211566</v>
-          </cell>
-          <cell r="K126">
-            <v>5503210030</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="J127">
-            <v>21210394</v>
-          </cell>
-          <cell r="K127">
-            <v>5503210029</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="J128">
-            <v>21219568</v>
-          </cell>
-          <cell r="K128">
-            <v>5503210028</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="J129">
-            <v>21211308</v>
-          </cell>
-          <cell r="K129">
-            <v>5503210027</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="J130">
-            <v>21210385</v>
-          </cell>
-          <cell r="K130">
-            <v>5503210026</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="J131">
-            <v>21210441</v>
-          </cell>
-          <cell r="K131">
-            <v>5503210025</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="J132">
-            <v>21219725</v>
-          </cell>
-          <cell r="K132">
-            <v>5503210024</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="J133">
-            <v>21211500</v>
-          </cell>
-          <cell r="K133">
-            <v>5503210023</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="J134">
-            <v>21210481</v>
-          </cell>
-          <cell r="K134">
-            <v>5503210022</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="J135">
-            <v>21210346</v>
-          </cell>
-          <cell r="K135">
-            <v>5503210021</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="J136">
-            <v>21210327</v>
-          </cell>
-          <cell r="K136">
-            <v>5503210020</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="J137">
-            <v>21211333</v>
-          </cell>
-          <cell r="K137">
-            <v>5503210019</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="J138">
-            <v>21210317</v>
-          </cell>
-          <cell r="K138">
-            <v>5503210018</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="J139">
-            <v>21210436</v>
-          </cell>
-          <cell r="K139">
-            <v>5503210017</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="J140">
-            <v>21211480</v>
-          </cell>
-          <cell r="K140">
-            <v>5503210016</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="J141">
-            <v>21210374</v>
-          </cell>
-          <cell r="K141">
-            <v>5503210015</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="J142">
-            <v>21210298</v>
-          </cell>
-          <cell r="K142">
-            <v>5503210014</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="J143">
-            <v>21219596</v>
-          </cell>
-          <cell r="K143">
-            <v>5503210013</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="J144">
-            <v>21210438</v>
-          </cell>
-          <cell r="K144">
-            <v>5503210012</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="J145">
-            <v>21210265</v>
-          </cell>
-          <cell r="K145">
-            <v>5503210011</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="J146">
-            <v>21210469</v>
-          </cell>
-          <cell r="K146">
-            <v>5503210010</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="J147">
-            <v>21210217</v>
-          </cell>
-          <cell r="K147">
-            <v>5503210009</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="J148">
-            <v>21210384</v>
-          </cell>
-          <cell r="K148">
-            <v>5503210008</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="J149">
-            <v>21219604</v>
-          </cell>
-          <cell r="K149">
-            <v>5503210007</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="J150">
-            <v>21210246</v>
-          </cell>
-          <cell r="K150">
-            <v>5503210006</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="J151">
-            <v>21210455</v>
-          </cell>
-          <cell r="K151">
-            <v>5503210005</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="J152">
-            <v>21211519</v>
-          </cell>
-          <cell r="K152">
-            <v>5503210004</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="J153">
-            <v>21210388</v>
-          </cell>
-          <cell r="K153">
-            <v>5503210003</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="J154">
-            <v>21210322</v>
-          </cell>
-          <cell r="K154">
-            <v>5503210002</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="J155">
-            <v>21210210</v>
-          </cell>
-          <cell r="K155">
-            <v>5503210001</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="J156">
-            <v>21210337</v>
-          </cell>
-          <cell r="K156">
-            <v>5502210034</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="J157">
-            <v>21210387</v>
-          </cell>
-          <cell r="K157">
-            <v>5502210033</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="J158">
-            <v>21211426</v>
-          </cell>
-          <cell r="K158">
-            <v>5502210032</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="J159">
-            <v>21219677</v>
-          </cell>
-          <cell r="K159">
-            <v>5502210031</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="J160">
-            <v>21211540</v>
-          </cell>
-          <cell r="K160">
-            <v>5502210030</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="J161">
-            <v>21211574</v>
-          </cell>
-          <cell r="K161">
-            <v>5502210029</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="J162">
-            <v>21210282</v>
-          </cell>
-          <cell r="K162">
-            <v>5502210028</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="J163">
-            <v>21210474</v>
-          </cell>
-          <cell r="K163">
-            <v>5502210027</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="J164">
-            <v>21211469</v>
-          </cell>
-          <cell r="K164">
-            <v>5502210026</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="J165">
-            <v>21219599</v>
-          </cell>
-          <cell r="K165">
-            <v>5502210025</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="J166">
-            <v>21219644</v>
-          </cell>
-          <cell r="K166">
-            <v>5502210024</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="J167">
-            <v>21219707</v>
-          </cell>
-          <cell r="K167">
-            <v>5502210023</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="J168">
-            <v>21219702</v>
-          </cell>
-          <cell r="K168">
-            <v>5502210022</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="J169">
-            <v>21210447</v>
-          </cell>
-          <cell r="K169">
-            <v>5502210021</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="J170">
-            <v>21211311</v>
-          </cell>
-          <cell r="K170">
-            <v>5502210020</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="J171">
-            <v>21210347</v>
-          </cell>
-          <cell r="K171">
-            <v>5502210019</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="J172">
-            <v>21219651</v>
-          </cell>
-          <cell r="K172">
-            <v>5502210018</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="J173">
-            <v>21210338</v>
-          </cell>
-          <cell r="K173">
-            <v>5502210017</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="J174">
-            <v>21210295</v>
-          </cell>
-          <cell r="K174">
-            <v>5502210016</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="J175">
-            <v>21210249</v>
-          </cell>
-          <cell r="K175">
-            <v>5502210015</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="J176">
-            <v>21211549</v>
-          </cell>
-          <cell r="K176">
-            <v>5502210014</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="J177">
-            <v>21211526</v>
-          </cell>
-          <cell r="K177">
-            <v>5502210013</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="J178">
-            <v>21211316</v>
-          </cell>
-          <cell r="K178">
-            <v>5502210012</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="J179">
-            <v>21210402</v>
-          </cell>
-          <cell r="K179">
-            <v>5502210011</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="J180">
-            <v>21210372</v>
-          </cell>
-          <cell r="K180">
-            <v>5502210010</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="J181">
-            <v>21210407</v>
-          </cell>
-          <cell r="K181">
-            <v>5502210009</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="J182">
-            <v>21210500</v>
-          </cell>
-          <cell r="K182">
-            <v>5502210008</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="J183">
-            <v>21219748</v>
-          </cell>
-          <cell r="K183">
-            <v>5502210007</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="J184">
-            <v>21210274</v>
-          </cell>
-          <cell r="K184">
-            <v>5502210006</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="J185">
-            <v>21210275</v>
-          </cell>
-          <cell r="K185">
-            <v>5502210005</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="J186">
-            <v>21210294</v>
-          </cell>
-          <cell r="K186">
-            <v>5502210004</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="J187">
-            <v>21210205</v>
-          </cell>
-          <cell r="K187">
-            <v>5502210003</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="J188">
-            <v>21210255</v>
-          </cell>
-          <cell r="K188">
-            <v>5502210002</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="J189">
-            <v>21210309</v>
-          </cell>
-          <cell r="K189">
-            <v>5502210001</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="J190">
-            <v>21210314</v>
-          </cell>
-          <cell r="K190">
-            <v>5501210035</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="J191">
-            <v>21211514</v>
-          </cell>
-          <cell r="K191">
-            <v>5501210034</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="J192">
-            <v>21211346</v>
-          </cell>
-          <cell r="K192">
-            <v>5501210033</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="J193">
-            <v>21210345</v>
-          </cell>
-          <cell r="K193">
-            <v>5501210032</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="J194">
-            <v>21211499</v>
-          </cell>
-          <cell r="K194">
-            <v>5501210031</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="J195">
-            <v>21210283</v>
-          </cell>
-          <cell r="K195">
-            <v>5501210030</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="J196">
-            <v>21211427</v>
-          </cell>
-          <cell r="K196">
-            <v>5501210029</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="J197">
-            <v>21219672</v>
-          </cell>
-          <cell r="K197">
-            <v>5501210028</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="J198">
-            <v>21219660</v>
-          </cell>
-          <cell r="K198">
-            <v>5501210027</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="J199">
-            <v>21210431</v>
-          </cell>
-          <cell r="K199">
-            <v>5501210026</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="J200">
-            <v>21210459</v>
-          </cell>
-          <cell r="K200">
-            <v>5501210025</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="J201">
-            <v>21210292</v>
-          </cell>
-          <cell r="K201">
-            <v>5501210024</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="J202">
-            <v>21210401</v>
-          </cell>
-          <cell r="K202">
-            <v>5501210023</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="J203">
-            <v>21211522</v>
-          </cell>
-          <cell r="K203">
-            <v>5501210022</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="J204">
-            <v>21210467</v>
-          </cell>
-          <cell r="K204">
-            <v>5501210021</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="J205">
-            <v>21219665</v>
-          </cell>
-          <cell r="K205">
-            <v>5501210020</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="J206">
-            <v>21210213</v>
-          </cell>
-          <cell r="K206">
-            <v>5501210019</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="J207">
-            <v>21219565</v>
-          </cell>
-          <cell r="K207">
-            <v>5501210018</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="J208">
-            <v>21211460</v>
-          </cell>
-          <cell r="K208">
-            <v>5501210017</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="J209">
-            <v>21210466</v>
-          </cell>
-          <cell r="K209">
-            <v>5501210016</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="J210">
-            <v>21210371</v>
-          </cell>
-          <cell r="K210">
-            <v>5501210015</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="J211">
-            <v>21219617</v>
-          </cell>
-          <cell r="K211">
-            <v>5501210014</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="J212">
-            <v>21210304</v>
-          </cell>
-          <cell r="K212">
-            <v>5501210013</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="J213">
-            <v>21210293</v>
-          </cell>
-          <cell r="K213">
-            <v>5501210012</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="J214">
-            <v>21211315</v>
-          </cell>
-          <cell r="K214">
-            <v>5501210011</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="J215">
-            <v>21210395</v>
-          </cell>
-          <cell r="K215">
-            <v>5501210010</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="J216">
-            <v>21210223</v>
-          </cell>
-          <cell r="K216">
-            <v>5501210009</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="J217">
-            <v>21210498</v>
-          </cell>
-          <cell r="K217">
-            <v>5501210008</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="J218">
-            <v>21210237</v>
-          </cell>
-          <cell r="K218">
-            <v>5501210007</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="J219">
-            <v>21210373</v>
-          </cell>
-          <cell r="K219">
-            <v>5501210006</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="J220">
-            <v>21210269</v>
-          </cell>
-          <cell r="K220">
-            <v>5501210005</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="J221">
-            <v>21211371</v>
-          </cell>
-          <cell r="K221">
-            <v>5501210004</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="J222">
-            <v>21211535</v>
-          </cell>
-          <cell r="K222">
-            <v>5501210003</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="J223">
-            <v>21210299</v>
-          </cell>
-          <cell r="K223">
-            <v>5501210002</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="J224">
-            <v>21210339</v>
-          </cell>
-          <cell r="K224">
-            <v>5501210001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="FAK"/>
       <sheetName val="PRODI"/>
       <sheetName val="PRODI_2019"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="D2">
@@ -14312,6 +12514,1804 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2">
+            <v>21211165</v>
+          </cell>
+          <cell r="K2">
+            <v>8801210005</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="J3">
+            <v>21211287</v>
+          </cell>
+          <cell r="K3">
+            <v>8801210045</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>21211011</v>
+          </cell>
+          <cell r="K4">
+            <v>8801210035</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>21211136</v>
+          </cell>
+          <cell r="K5">
+            <v>8801210040</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>21211244</v>
+          </cell>
+          <cell r="K6">
+            <v>8801210058</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7">
+            <v>21211242</v>
+          </cell>
+          <cell r="K7">
+            <v>8801210071</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="J8">
+            <v>21211286</v>
+          </cell>
+          <cell r="K8">
+            <v>8801210063</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="J9">
+            <v>21211210</v>
+          </cell>
+          <cell r="K9">
+            <v>8801210008</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="J10">
+            <v>21211492</v>
+          </cell>
+          <cell r="K10">
+            <v>5504210004</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="J11">
+            <v>21211371</v>
+          </cell>
+          <cell r="K11">
+            <v>5501210004</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="J12">
+            <v>21211212</v>
+          </cell>
+          <cell r="K12">
+            <v>8801210023</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="J13">
+            <v>21211540</v>
+          </cell>
+          <cell r="K13">
+            <v>5502210030</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="J14">
+            <v>21211054</v>
+          </cell>
+          <cell r="K14">
+            <v>8801210052</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="J15">
+            <v>21211158</v>
+          </cell>
+          <cell r="K15">
+            <v>8801210022</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="J16">
+            <v>21211251</v>
+          </cell>
+          <cell r="K16">
+            <v>8801210006</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="J17">
+            <v>21211134</v>
+          </cell>
+          <cell r="K17">
+            <v>8801210039</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="J18">
+            <v>21211311</v>
+          </cell>
+          <cell r="K18">
+            <v>5502210020</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="J19">
+            <v>21211519</v>
+          </cell>
+          <cell r="K19">
+            <v>5503210004</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="J20">
+            <v>21211294</v>
+          </cell>
+          <cell r="K20">
+            <v>8801210042</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="J21">
+            <v>21211103</v>
+          </cell>
+          <cell r="K21">
+            <v>8801210031</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="J22">
+            <v>21211272</v>
+          </cell>
+          <cell r="K22">
+            <v>8801210025</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="J23">
+            <v>21211075</v>
+          </cell>
+          <cell r="K23">
+            <v>8801210047</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="J24">
+            <v>21211049</v>
+          </cell>
+          <cell r="K24">
+            <v>8801210059</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="J25">
+            <v>21211467</v>
+          </cell>
+          <cell r="K25">
+            <v>5504210018</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="J26">
+            <v>21211189</v>
+          </cell>
+          <cell r="K26">
+            <v>8801210032</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="J27">
+            <v>21211002</v>
+          </cell>
+          <cell r="K27">
+            <v>8801210061</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="J28">
+            <v>21211256</v>
+          </cell>
+          <cell r="K28">
+            <v>8801210075</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="J29">
+            <v>21211346</v>
+          </cell>
+          <cell r="K29">
+            <v>5501210033</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="J30">
+            <v>21211031</v>
+          </cell>
+          <cell r="K30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="J31">
+            <v>21211288</v>
+          </cell>
+          <cell r="K31">
+            <v>8801210033</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="J32">
+            <v>21211308</v>
+          </cell>
+          <cell r="K32">
+            <v>5503210027</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="J33">
+            <v>21211162</v>
+          </cell>
+          <cell r="K33">
+            <v>8801210004</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="J34">
+            <v>21211044</v>
+          </cell>
+          <cell r="K34">
+            <v>8801210024</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="J35">
+            <v>21211174</v>
+          </cell>
+          <cell r="K35">
+            <v>8801210070</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="J36">
+            <v>21211499</v>
+          </cell>
+          <cell r="K36">
+            <v>5501210031</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="J37">
+            <v>21211167</v>
+          </cell>
+          <cell r="K37">
+            <v>8801210001</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="J38">
+            <v>21211333</v>
+          </cell>
+          <cell r="K38">
+            <v>5503210019</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="J39">
+            <v>21211297</v>
+          </cell>
+          <cell r="K39">
+            <v>8801210054</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="J40">
+            <v>21211460</v>
+          </cell>
+          <cell r="K40">
+            <v>5501210017</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="J41">
+            <v>21210230</v>
+          </cell>
+          <cell r="K41">
+            <v>5504210007</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="J42">
+            <v>21211036</v>
+          </cell>
+          <cell r="K42">
+            <v>8801210038</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="J43">
+            <v>21211469</v>
+          </cell>
+          <cell r="K43">
+            <v>5502210026</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="J44">
+            <v>21210387</v>
+          </cell>
+          <cell r="K44">
+            <v>5502210033</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="J45">
+            <v>21210959</v>
+          </cell>
+          <cell r="K45">
+            <v>8801210012</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="J46">
+            <v>21210309</v>
+          </cell>
+          <cell r="K46">
+            <v>5502210001</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="J47">
+            <v>21210474</v>
+          </cell>
+          <cell r="K47">
+            <v>5502210027</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="J48">
+            <v>21210415</v>
+          </cell>
+          <cell r="K48">
+            <v>5504210001</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="J49">
+            <v>21211223</v>
+          </cell>
+          <cell r="K49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="J50">
+            <v>21211566</v>
+          </cell>
+          <cell r="K50">
+            <v>5503210030</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="J51">
+            <v>21210850</v>
+          </cell>
+          <cell r="K51">
+            <v>8801210009</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="J52">
+            <v>21211032</v>
+          </cell>
+          <cell r="K52">
+            <v>8801210036</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="J53">
+            <v>21210459</v>
+          </cell>
+          <cell r="K53">
+            <v>5501210025</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="J54">
+            <v>21210205</v>
+          </cell>
+          <cell r="K54">
+            <v>5502210003</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="J55">
+            <v>21210455</v>
+          </cell>
+          <cell r="K55">
+            <v>5503210005</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="J56">
+            <v>21211021</v>
+          </cell>
+          <cell r="K56">
+            <v>8801210028</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="J57">
+            <v>21210384</v>
+          </cell>
+          <cell r="K57">
+            <v>5503210008</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="J58">
+            <v>21210274</v>
+          </cell>
+          <cell r="K58">
+            <v>5502210006</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="J59">
+            <v>21210441</v>
+          </cell>
+          <cell r="K59">
+            <v>5503210025</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="J60">
+            <v>21210294</v>
+          </cell>
+          <cell r="K60">
+            <v>5502210004</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="J61">
+            <v>21210213</v>
+          </cell>
+          <cell r="K61">
+            <v>5501210019</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="J62">
+            <v>21210438</v>
+          </cell>
+          <cell r="K62">
+            <v>5503210012</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="J63">
+            <v>21210269</v>
+          </cell>
+          <cell r="K63">
+            <v>5501210005</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="J64">
+            <v>21211514</v>
+          </cell>
+          <cell r="K64">
+            <v>5501210034</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="J65">
+            <v>21210956</v>
+          </cell>
+          <cell r="K65">
+            <v>8801210003</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="J66">
+            <v>21210395</v>
+          </cell>
+          <cell r="K66">
+            <v>5501210010</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="J67">
+            <v>21211159</v>
+          </cell>
+          <cell r="K67">
+            <v>8801210019</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="J68">
+            <v>21211274</v>
+          </cell>
+          <cell r="K68">
+            <v>8801210051</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="J69">
+            <v>21210481</v>
+          </cell>
+          <cell r="K69">
+            <v>5503210022</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="J70">
+            <v>21210223</v>
+          </cell>
+          <cell r="K70">
+            <v>5501210009</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="J71">
+            <v>21210996</v>
+          </cell>
+          <cell r="K71">
+            <v>8801210018</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="J72">
+            <v>21210339</v>
+          </cell>
+          <cell r="K72">
+            <v>5501210001</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="J73">
+            <v>21210498</v>
+          </cell>
+          <cell r="K73">
+            <v>5501210008</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="J74">
+            <v>21210970</v>
+          </cell>
+          <cell r="K74">
+            <v>8801210021</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="J75">
+            <v>21210785</v>
+          </cell>
+          <cell r="K75">
+            <v>8801210076</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="J76">
+            <v>21211062</v>
+          </cell>
+          <cell r="K76">
+            <v>8801210056</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="J77">
+            <v>21210388</v>
+          </cell>
+          <cell r="K77">
+            <v>5503210003</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="J78">
+            <v>21210371</v>
+          </cell>
+          <cell r="K78">
+            <v>5501210015</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="J79">
+            <v>21210299</v>
+          </cell>
+          <cell r="K79">
+            <v>5501210002</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="J80">
+            <v>21211023</v>
+          </cell>
+          <cell r="K80">
+            <v>8801210055</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="J81">
+            <v>21210317</v>
+          </cell>
+          <cell r="K81">
+            <v>5503210018</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="J82">
+            <v>21210843</v>
+          </cell>
+          <cell r="K82">
+            <v>8801210020</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="J83">
+            <v>21211247</v>
+          </cell>
+          <cell r="K83">
+            <v>8801210046</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="J84">
+            <v>21210338</v>
+          </cell>
+          <cell r="K84">
+            <v>5502210017</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="J85">
+            <v>21210372</v>
+          </cell>
+          <cell r="K85">
+            <v>5502210010</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="J86">
+            <v>21210986</v>
+          </cell>
+          <cell r="K86">
+            <v>8801210027</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="J87">
+            <v>21210447</v>
+          </cell>
+          <cell r="K87">
+            <v>5502210021</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="J88">
+            <v>21210337</v>
+          </cell>
+          <cell r="K88">
+            <v>5502210034</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="J89">
+            <v>21210837</v>
+          </cell>
+          <cell r="K89">
+            <v>8801210029</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="J90">
+            <v>21210406</v>
+          </cell>
+          <cell r="K90">
+            <v>5501210036</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="J91">
+            <v>21211367</v>
+          </cell>
+          <cell r="K91">
+            <v>5504210009</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="J92">
+            <v>21211034</v>
+          </cell>
+          <cell r="K92">
+            <v>8801210037</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="J93">
+            <v>21211079</v>
+          </cell>
+          <cell r="K93">
+            <v>8801210013</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="J94">
+            <v>21210282</v>
+          </cell>
+          <cell r="K94">
+            <v>5502210028</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="J95">
+            <v>21210948</v>
+          </cell>
+          <cell r="K95">
+            <v>8801210011</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="J96">
+            <v>21210900</v>
+          </cell>
+          <cell r="K96">
+            <v>8801210044</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="J97">
+            <v>21210307</v>
+          </cell>
+          <cell r="K97">
+            <v>5504210011</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="J98">
+            <v>21210314</v>
+          </cell>
+          <cell r="K98">
+            <v>5501210035</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="J99">
+            <v>21210246</v>
+          </cell>
+          <cell r="K99">
+            <v>5503210006</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="J100">
+            <v>21210989</v>
+          </cell>
+          <cell r="K100">
+            <v>8801210007</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="J101">
+            <v>21211118</v>
+          </cell>
+          <cell r="K101">
+            <v>8801210057</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="J102">
+            <v>21211549</v>
+          </cell>
+          <cell r="K102">
+            <v>5502210014</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="J103">
+            <v>21210217</v>
+          </cell>
+          <cell r="K103">
+            <v>5503210009</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="J104">
+            <v>21210322</v>
+          </cell>
+          <cell r="K104">
+            <v>5503210002</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="J105">
+            <v>21211522</v>
+          </cell>
+          <cell r="K105">
+            <v>5501210022</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="J106">
+            <v>21210466</v>
+          </cell>
+          <cell r="K106">
+            <v>5501210016</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="J107">
+            <v>21211264</v>
+          </cell>
+          <cell r="K107">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="J108">
+            <v>21210265</v>
+          </cell>
+          <cell r="K108">
+            <v>5503210011</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="J109">
+            <v>21210385</v>
+          </cell>
+          <cell r="K109">
+            <v>5503210026</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="J110">
+            <v>21211574</v>
+          </cell>
+          <cell r="K110">
+            <v>5502210029</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="J111">
+            <v>21211220</v>
+          </cell>
+          <cell r="K111">
+            <v>8801210049</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="J112">
+            <v>21211096</v>
+          </cell>
+          <cell r="K112">
+            <v>8801210053</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="J113">
+            <v>21211426</v>
+          </cell>
+          <cell r="K113">
+            <v>5502210032</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="J114">
+            <v>21210811</v>
+          </cell>
+          <cell r="K114">
+            <v>8801210015</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="J115">
+            <v>21210301</v>
+          </cell>
+          <cell r="K115">
+            <v>5504210017</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="J116">
+            <v>21210346</v>
+          </cell>
+          <cell r="K116">
+            <v>5503210021</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="J117">
+            <v>21211290</v>
+          </cell>
+          <cell r="K117">
+            <v>8801210041</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="J118">
+            <v>21210794</v>
+          </cell>
+          <cell r="K118">
+            <v>8801210034</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="J119">
+            <v>21211427</v>
+          </cell>
+          <cell r="K119">
+            <v>5501210029</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="J120">
+            <v>21210214</v>
+          </cell>
+          <cell r="K120">
+            <v>5504210003</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="J121">
+            <v>21211216</v>
+          </cell>
+          <cell r="K121">
+            <v>8801210066</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="J122">
+            <v>21210347</v>
+          </cell>
+          <cell r="K122">
+            <v>5502210019</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="J123">
+            <v>21210295</v>
+          </cell>
+          <cell r="K123">
+            <v>5502210016</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="J124">
+            <v>21211500</v>
+          </cell>
+          <cell r="K124">
+            <v>5503210023</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="J125">
+            <v>21211001</v>
+          </cell>
+          <cell r="K125">
+            <v>8801210010</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="J126">
+            <v>21210918</v>
+          </cell>
+          <cell r="K126">
+            <v>8801210064</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="J127">
+            <v>21211526</v>
+          </cell>
+          <cell r="K127">
+            <v>5502210013</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="J128">
+            <v>21210877</v>
+          </cell>
+          <cell r="K128">
+            <v>8801210017</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="J129">
+            <v>21210835</v>
+          </cell>
+          <cell r="K129">
+            <v>8801210060</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="J130">
+            <v>21211124</v>
+          </cell>
+          <cell r="K130">
+            <v>8801210014</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="J131">
+            <v>21210298</v>
+          </cell>
+          <cell r="K131">
+            <v>5503210014</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="J132">
+            <v>21210249</v>
+          </cell>
+          <cell r="K132">
+            <v>5502210015</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="J133">
+            <v>21211269</v>
+          </cell>
+          <cell r="K133">
+            <v>8801210074</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="J134">
+            <v>21210311</v>
+          </cell>
+          <cell r="K134">
+            <v>5504210013</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="J135">
+            <v>21210345</v>
+          </cell>
+          <cell r="K135">
+            <v>5501210032</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="J136">
+            <v>21210283</v>
+          </cell>
+          <cell r="K136">
+            <v>5501210030</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="J137">
+            <v>21211480</v>
+          </cell>
+          <cell r="K137">
+            <v>5503210016</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="J138">
+            <v>21210237</v>
+          </cell>
+          <cell r="K138">
+            <v>5501210007</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="J139">
+            <v>21210255</v>
+          </cell>
+          <cell r="K139">
+            <v>5502210002</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="J140">
+            <v>21210402</v>
+          </cell>
+          <cell r="K140">
+            <v>5502210011</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="J141">
+            <v>21210467</v>
+          </cell>
+          <cell r="K141">
+            <v>5501210021</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="J142">
+            <v>21210469</v>
+          </cell>
+          <cell r="K142">
+            <v>5503210010</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="J143">
+            <v>21210407</v>
+          </cell>
+          <cell r="K143">
+            <v>5502210009</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="J144">
+            <v>21219908</v>
+          </cell>
+          <cell r="K144">
+            <v>8801210073</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="J145">
+            <v>21211098</v>
+          </cell>
+          <cell r="K145">
+            <v>8801210048</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="J146">
+            <v>21210292</v>
+          </cell>
+          <cell r="K146">
+            <v>5501210024</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="J147">
+            <v>21210210</v>
+          </cell>
+          <cell r="K147">
+            <v>5503210001</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="J148">
+            <v>21210318</v>
+          </cell>
+          <cell r="K148">
+            <v>5504210014</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="J149">
+            <v>21210394</v>
+          </cell>
+          <cell r="K149">
+            <v>5503210029</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="J150">
+            <v>21211046</v>
+          </cell>
+          <cell r="K150">
+            <v>8801210062</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="J151">
+            <v>21211104</v>
+          </cell>
+          <cell r="K151">
+            <v>8801210069</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="J152">
+            <v>21211186</v>
+          </cell>
+          <cell r="K152">
+            <v>8801210050</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="J153">
+            <v>21210286</v>
+          </cell>
+          <cell r="K153">
+            <v>5503210031</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="J154">
+            <v>21219651</v>
+          </cell>
+          <cell r="K154">
+            <v>5502210018</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="J155">
+            <v>21210373</v>
+          </cell>
+          <cell r="K155">
+            <v>5501210006</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="J156">
+            <v>21210905</v>
+          </cell>
+          <cell r="K156">
+            <v>8801210026</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="J157">
+            <v>21219644</v>
+          </cell>
+          <cell r="K157">
+            <v>5502210024</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="J158">
+            <v>21219677</v>
+          </cell>
+          <cell r="K158">
+            <v>5502210031</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="J159">
+            <v>21211316</v>
+          </cell>
+          <cell r="K159">
+            <v>5502210012</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="J160">
+            <v>21210304</v>
+          </cell>
+          <cell r="K160">
+            <v>5501210013</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="J161">
+            <v>21219665</v>
+          </cell>
+          <cell r="K161">
+            <v>5501210020</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="J162">
+            <v>21211535</v>
+          </cell>
+          <cell r="K162">
+            <v>5501210003</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="J163">
+            <v>21210401</v>
+          </cell>
+          <cell r="K163">
+            <v>5501210023</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="J164">
+            <v>21210891</v>
+          </cell>
+          <cell r="K164">
+            <v>8801210072</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="J165">
+            <v>21210436</v>
+          </cell>
+          <cell r="K165">
+            <v>5503210017</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="J166">
+            <v>21219580</v>
+          </cell>
+          <cell r="K166">
+            <v>5503210033</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="J167">
+            <v>21210964</v>
+          </cell>
+          <cell r="K167">
+            <v>8801210065</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="J168">
+            <v>21219725</v>
+          </cell>
+          <cell r="K168">
+            <v>5503210024</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="J169">
+            <v>21210476</v>
+          </cell>
+          <cell r="K169">
+            <v>5504210012</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="J170">
+            <v>21210431</v>
+          </cell>
+          <cell r="K170">
+            <v>5501210026</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="J171">
+            <v>21210293</v>
+          </cell>
+          <cell r="K171">
+            <v>5501210012</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="J172">
+            <v>21210242</v>
+          </cell>
+          <cell r="K172">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="J173">
+            <v>21210439</v>
+          </cell>
+          <cell r="K173">
+            <v>5504210005</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="J174">
+            <v>21219604</v>
+          </cell>
+          <cell r="K174">
+            <v>5503210007</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="J175">
+            <v>21211292</v>
+          </cell>
+          <cell r="K175">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="J176">
+            <v>21219641</v>
+          </cell>
+          <cell r="K176">
+            <v>5504210016</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="J177">
+            <v>21210500</v>
+          </cell>
+          <cell r="K177">
+            <v>5502210008</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="J178">
+            <v>21219599</v>
+          </cell>
+          <cell r="K178">
+            <v>5502210025</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="J179">
+            <v>21219596</v>
+          </cell>
+          <cell r="K179">
+            <v>5503210013</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="J180">
+            <v>21219660</v>
+          </cell>
+          <cell r="K180">
+            <v>5501210027</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="J181">
+            <v>21211315</v>
+          </cell>
+          <cell r="K181">
+            <v>5501210011</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="J182">
+            <v>21219945</v>
+          </cell>
+          <cell r="K182">
+            <v>8801210002</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="J183">
+            <v>21219617</v>
+          </cell>
+          <cell r="K183">
+            <v>5501210014</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="J184">
+            <v>21219935</v>
+          </cell>
+          <cell r="K184">
+            <v>8801210016</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="J185">
+            <v>21219627</v>
+          </cell>
+          <cell r="K185">
+            <v>5504210006</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="J186">
+            <v>21210374</v>
+          </cell>
+          <cell r="K186">
+            <v>5503210015</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="J187">
+            <v>21219746</v>
+          </cell>
+          <cell r="K187">
+            <v>5504210019</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="J188">
+            <v>21211237</v>
+          </cell>
+          <cell r="K188">
+            <v>8801210030</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="J189">
+            <v>21219748</v>
+          </cell>
+          <cell r="K189">
+            <v>5502210007</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="J190">
+            <v>21219638</v>
+          </cell>
+          <cell r="K190">
+            <v>5503210032</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="J191">
+            <v>21219808</v>
+          </cell>
+          <cell r="K191">
+            <v>8801210067</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="J192">
+            <v>21210327</v>
+          </cell>
+          <cell r="K192">
+            <v>5503210020</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="J193">
+            <v>21210275</v>
+          </cell>
+          <cell r="K193">
+            <v>5502210005</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="J194">
+            <v>21219594</v>
+          </cell>
+          <cell r="K194">
+            <v>5504210002</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="J195">
+            <v>21211135</v>
+          </cell>
+          <cell r="K195">
+            <v>8801210068</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="J196">
+            <v>21219672</v>
+          </cell>
+          <cell r="K196">
+            <v>5501210028</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="J197">
+            <v>21219565</v>
+          </cell>
+          <cell r="K197">
+            <v>5501210018</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="J198">
+            <v>21219556</v>
+          </cell>
+          <cell r="K198">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="J199">
+            <v>21219784</v>
+          </cell>
+          <cell r="K199">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="J200">
+            <v>21219591</v>
+          </cell>
+          <cell r="K200">
+            <v>5504210010</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="J201">
+            <v>21219568</v>
+          </cell>
+          <cell r="K201">
+            <v>5503210028</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="J202">
+            <v>21219707</v>
+          </cell>
+          <cell r="K202">
+            <v>5502210023</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="J203">
+            <v>21219696</v>
+          </cell>
+          <cell r="K203">
+            <v>5504210015</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="J204">
+            <v>21219759</v>
+          </cell>
+          <cell r="K204">
+            <v>8801210043</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="J205">
+            <v>21219566</v>
+          </cell>
+          <cell r="K205">
+            <v>5504210008</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="J206">
+            <v>21219702</v>
+          </cell>
+          <cell r="K206">
+            <v>5502210022</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="J207">
+            <v>21310363</v>
+          </cell>
+          <cell r="K207">
+            <v>5552210166</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="J208">
+            <v>21310332</v>
+          </cell>
+          <cell r="K208">
+            <v>5551210191</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="J209">
+            <v>21310593</v>
+          </cell>
+          <cell r="K209">
+            <v>5552210161</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="J210">
+            <v>21310511</v>
+          </cell>
+          <cell r="K210">
+            <v>5551210192</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="J211">
+            <v>21310562</v>
+          </cell>
+          <cell r="K211">
+            <v>5551210194</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="J212">
+            <v>21310163</v>
+          </cell>
+          <cell r="K212">
+            <v>5552210163</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="J213">
+            <v>21310458</v>
+          </cell>
+          <cell r="K213">
+            <v>5551210189</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="J214">
+            <v>21317730</v>
+          </cell>
+          <cell r="K214">
+            <v>5551210188</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="J215">
+            <v>21317789</v>
+          </cell>
+          <cell r="K215">
+            <v>5551210186</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="J216">
+            <v>21317857</v>
+          </cell>
+          <cell r="K216">
+            <v>5552210165</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="J217">
+            <v>21317632</v>
+          </cell>
+          <cell r="K217">
+            <v>5552210164</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="J218">
+            <v>21310496</v>
+          </cell>
+          <cell r="K218">
+            <v>5551210187</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="J219">
+            <v>21318037</v>
+          </cell>
+          <cell r="K219">
+            <v>5552210162</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="J220">
+            <v>21317981</v>
+          </cell>
+          <cell r="K220">
+            <v>5551210183</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="J221">
+            <v>21318245</v>
+          </cell>
+          <cell r="K221">
+            <v>5551210184</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="J222">
+            <v>21318099</v>
+          </cell>
+          <cell r="K222">
+            <v>5551210185</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="J223">
+            <v>21318123</v>
+          </cell>
+          <cell r="K223">
+            <v>5551210193</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="J224">
+            <v>21310563</v>
+          </cell>
+          <cell r="K224">
+            <v>5551210190</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14611,8 +14611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CG274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -14950,15 +14950,15 @@
         <v>3909</v>
       </c>
       <c r="J2" s="2" t="str">
-        <f>IF(AND(K2=0,L2=0)=TRUE,"",IF(AND(K2&gt;0,L2&gt;0)=TRUE,VLOOKUP(LEFT(L2,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M2))</f>
+        <f>IF(AND(K2=0,L2=0)=TRUE,"",IF(AND(K2&gt;0,L2&gt;0)=TRUE,VLOOKUP(LEFT(L2,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M2))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K2" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B2,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B2,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211308</v>
       </c>
       <c r="L2" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B2,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B2,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210027</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -15202,15 +15202,15 @@
         <v>3909</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f>IF(AND(K3=0,L3=0)=TRUE,"",IF(AND(K3&gt;0,L3&gt;0)=TRUE,VLOOKUP(LEFT(L3,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M3))</f>
+        <f>IF(AND(K3=0,L3=0)=TRUE,"",IF(AND(K3&gt;0,L3&gt;0)=TRUE,VLOOKUP(LEFT(L3,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M3))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K3" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B3,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B3,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211311</v>
       </c>
       <c r="L3" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B3,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B3,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210020</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -15460,15 +15460,15 @@
         <v>3909</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f>IF(AND(K4=0,L4=0)=TRUE,"",IF(AND(K4&gt;0,L4&gt;0)=TRUE,VLOOKUP(LEFT(L4,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M4))</f>
+        <f>IF(AND(K4=0,L4=0)=TRUE,"",IF(AND(K4&gt;0,L4&gt;0)=TRUE,VLOOKUP(LEFT(L4,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M4))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K4" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B4,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B4,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211346</v>
       </c>
       <c r="L4" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B4,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B4,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210033</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -15712,15 +15712,15 @@
         <v>3909</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f>IF(AND(K5=0,L5=0)=TRUE,"",IF(AND(K5&gt;0,L5&gt;0)=TRUE,VLOOKUP(LEFT(L5,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M5))</f>
+        <f>IF(AND(K5=0,L5=0)=TRUE,"",IF(AND(K5&gt;0,L5&gt;0)=TRUE,VLOOKUP(LEFT(L5,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M5))</f>
         <v/>
       </c>
       <c r="K5" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B5,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B5,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B5,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B5,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -15964,15 +15964,15 @@
         <v>3909</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f>IF(AND(K6=0,L6=0)=TRUE,"",IF(AND(K6&gt;0,L6&gt;0)=TRUE,VLOOKUP(LEFT(L6,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M6))</f>
+        <f>IF(AND(K6=0,L6=0)=TRUE,"",IF(AND(K6&gt;0,L6&gt;0)=TRUE,VLOOKUP(LEFT(L6,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M6))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K6" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B6,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B6,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211371</v>
       </c>
       <c r="L6" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B6,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B6,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210004</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -16222,15 +16222,15 @@
         <v>3909</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f>IF(AND(K7=0,L7=0)=TRUE,"",IF(AND(K7&gt;0,L7&gt;0)=TRUE,VLOOKUP(LEFT(L7,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M7))</f>
+        <f>IF(AND(K7=0,L7=0)=TRUE,"",IF(AND(K7&gt;0,L7&gt;0)=TRUE,VLOOKUP(LEFT(L7,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M7))</f>
         <v>PERBANKAN DAN KEUANGAN</v>
       </c>
       <c r="K7" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B7,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B7,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211467</v>
       </c>
       <c r="L7" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B7,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B7,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5504210018</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -16474,15 +16474,15 @@
         <v>3909</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f>IF(AND(K8=0,L8=0)=TRUE,"",IF(AND(K8&gt;0,L8&gt;0)=TRUE,VLOOKUP(LEFT(L8,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M8))</f>
+        <f>IF(AND(K8=0,L8=0)=TRUE,"",IF(AND(K8&gt;0,L8&gt;0)=TRUE,VLOOKUP(LEFT(L8,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M8))</f>
         <v>PERBANKAN DAN KEUANGAN</v>
       </c>
       <c r="K8" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B8,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B8,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211492</v>
       </c>
       <c r="L8" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B8,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B8,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5504210004</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -16732,15 +16732,15 @@
         <v>3909</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f>IF(AND(K9=0,L9=0)=TRUE,"",IF(AND(K9&gt;0,L9&gt;0)=TRUE,VLOOKUP(LEFT(L9,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M9))</f>
+        <f>IF(AND(K9=0,L9=0)=TRUE,"",IF(AND(K9&gt;0,L9&gt;0)=TRUE,VLOOKUP(LEFT(L9,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M9))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K9" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B9,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B9,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211499</v>
       </c>
       <c r="L9" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B9,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B9,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210031</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -16984,15 +16984,15 @@
         <v>3909</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f>IF(AND(K10=0,L10=0)=TRUE,"",IF(AND(K10&gt;0,L10&gt;0)=TRUE,VLOOKUP(LEFT(L10,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M10))</f>
+        <f>IF(AND(K10=0,L10=0)=TRUE,"",IF(AND(K10&gt;0,L10&gt;0)=TRUE,VLOOKUP(LEFT(L10,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M10))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K10" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B10,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B10,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211519</v>
       </c>
       <c r="L10" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B10,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B10,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210004</v>
       </c>
       <c r="M10" s="2" t="s">
@@ -17242,15 +17242,15 @@
         <v>3909</v>
       </c>
       <c r="J11" s="2" t="str">
-        <f>IF(AND(K11=0,L11=0)=TRUE,"",IF(AND(K11&gt;0,L11&gt;0)=TRUE,VLOOKUP(LEFT(L11,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M11))</f>
+        <f>IF(AND(K11=0,L11=0)=TRUE,"",IF(AND(K11&gt;0,L11&gt;0)=TRUE,VLOOKUP(LEFT(L11,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M11))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K11" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B11,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B11,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211540</v>
       </c>
       <c r="L11" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B11,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B11,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210030</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -17500,15 +17500,15 @@
         <v>3909</v>
       </c>
       <c r="J12" s="2" t="str">
-        <f>IF(AND(K12=0,L12=0)=TRUE,"",IF(AND(K12&gt;0,L12&gt;0)=TRUE,VLOOKUP(LEFT(L12,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M12))</f>
+        <f>IF(AND(K12=0,L12=0)=TRUE,"",IF(AND(K12&gt;0,L12&gt;0)=TRUE,VLOOKUP(LEFT(L12,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M12))</f>
         <v>PERBANKAN DAN KEUANGAN</v>
       </c>
       <c r="K12" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B12,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B12,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210214</v>
       </c>
       <c r="L12" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B12,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B12,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5504210003</v>
       </c>
       <c r="M12" s="2" t="s">
@@ -17758,15 +17758,15 @@
         <v>3909</v>
       </c>
       <c r="J13" s="2" t="str">
-        <f>IF(AND(K13=0,L13=0)=TRUE,"",IF(AND(K13&gt;0,L13&gt;0)=TRUE,VLOOKUP(LEFT(L13,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M13))</f>
+        <f>IF(AND(K13=0,L13=0)=TRUE,"",IF(AND(K13&gt;0,L13&gt;0)=TRUE,VLOOKUP(LEFT(L13,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M13))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K13" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B13,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B13,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210249</v>
       </c>
       <c r="L13" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B13,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B13,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210015</v>
       </c>
       <c r="M13" s="2" t="s">
@@ -18016,15 +18016,15 @@
         <v>3909</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f>IF(AND(K14=0,L14=0)=TRUE,"",IF(AND(K14&gt;0,L14&gt;0)=TRUE,VLOOKUP(LEFT(L14,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M14))</f>
+        <f>IF(AND(K14=0,L14=0)=TRUE,"",IF(AND(K14&gt;0,L14&gt;0)=TRUE,VLOOKUP(LEFT(L14,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M14))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K14" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B14,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B14,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210295</v>
       </c>
       <c r="L14" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B14,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B14,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210016</v>
       </c>
       <c r="M14" s="2" t="s">
@@ -18274,15 +18274,15 @@
         <v>3909</v>
       </c>
       <c r="J15" s="2" t="str">
-        <f>IF(AND(K15=0,L15=0)=TRUE,"",IF(AND(K15&gt;0,L15&gt;0)=TRUE,VLOOKUP(LEFT(L15,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M15))</f>
+        <f>IF(AND(K15=0,L15=0)=TRUE,"",IF(AND(K15&gt;0,L15&gt;0)=TRUE,VLOOKUP(LEFT(L15,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M15))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K15" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B15,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B15,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210298</v>
       </c>
       <c r="L15" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B15,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B15,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210014</v>
       </c>
       <c r="M15" s="2" t="s">
@@ -18532,15 +18532,15 @@
         <v>3909</v>
       </c>
       <c r="J16" s="2" t="str">
-        <f>IF(AND(K16=0,L16=0)=TRUE,"",IF(AND(K16&gt;0,L16&gt;0)=TRUE,VLOOKUP(LEFT(L16,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M16))</f>
+        <f>IF(AND(K16=0,L16=0)=TRUE,"",IF(AND(K16&gt;0,L16&gt;0)=TRUE,VLOOKUP(LEFT(L16,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M16))</f>
         <v>PERBANKAN DAN KEUANGAN</v>
       </c>
       <c r="K16" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B16,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B16,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210301</v>
       </c>
       <c r="L16" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B16,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B16,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5504210017</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -18790,15 +18790,15 @@
         <v>3909</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f>IF(AND(K17=0,L17=0)=TRUE,"",IF(AND(K17&gt;0,L17&gt;0)=TRUE,VLOOKUP(LEFT(L17,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M17))</f>
+        <f>IF(AND(K17=0,L17=0)=TRUE,"",IF(AND(K17&gt;0,L17&gt;0)=TRUE,VLOOKUP(LEFT(L17,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M17))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K17" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B17,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B17,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210346</v>
       </c>
       <c r="L17" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B17,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B17,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210021</v>
       </c>
       <c r="M17" s="2" t="s">
@@ -19048,15 +19048,15 @@
         <v>3909</v>
       </c>
       <c r="J18" s="2" t="str">
-        <f>IF(AND(K18=0,L18=0)=TRUE,"",IF(AND(K18&gt;0,L18&gt;0)=TRUE,VLOOKUP(LEFT(L18,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M18))</f>
+        <f>IF(AND(K18=0,L18=0)=TRUE,"",IF(AND(K18&gt;0,L18&gt;0)=TRUE,VLOOKUP(LEFT(L18,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M18))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K18" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B18,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B18,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210347</v>
       </c>
       <c r="L18" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B18,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B18,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210019</v>
       </c>
       <c r="M18" s="2" t="s">
@@ -19306,15 +19306,15 @@
         <v>3909</v>
       </c>
       <c r="J19" s="2" t="str">
-        <f>IF(AND(K19=0,L19=0)=TRUE,"",IF(AND(K19&gt;0,L19&gt;0)=TRUE,VLOOKUP(LEFT(L19,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M19))</f>
+        <f>IF(AND(K19=0,L19=0)=TRUE,"",IF(AND(K19&gt;0,L19&gt;0)=TRUE,VLOOKUP(LEFT(L19,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M19))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K19" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B19,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B19,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211427</v>
       </c>
       <c r="L19" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B19,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B19,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210029</v>
       </c>
       <c r="M19" s="2" t="s">
@@ -19558,15 +19558,15 @@
         <v>3909</v>
       </c>
       <c r="J20" s="2" t="str">
-        <f>IF(AND(K20=0,L20=0)=TRUE,"",IF(AND(K20&gt;0,L20&gt;0)=TRUE,VLOOKUP(LEFT(L20,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M20))</f>
+        <f>IF(AND(K20=0,L20=0)=TRUE,"",IF(AND(K20&gt;0,L20&gt;0)=TRUE,VLOOKUP(LEFT(L20,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M20))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K20" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B20,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B20,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211500</v>
       </c>
       <c r="L20" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B20,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B20,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210023</v>
       </c>
       <c r="M20" s="2" t="s">
@@ -19816,15 +19816,15 @@
         <v>3909</v>
       </c>
       <c r="J21" s="2" t="str">
-        <f>IF(AND(K21=0,L21=0)=TRUE,"",IF(AND(K21&gt;0,L21&gt;0)=TRUE,VLOOKUP(LEFT(L21,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M21))</f>
+        <f>IF(AND(K21=0,L21=0)=TRUE,"",IF(AND(K21&gt;0,L21&gt;0)=TRUE,VLOOKUP(LEFT(L21,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M21))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K21" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B21,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B21,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211526</v>
       </c>
       <c r="L21" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B21,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B21,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210013</v>
       </c>
       <c r="M21" s="2" t="s">
@@ -20068,15 +20068,15 @@
         <v>3909</v>
       </c>
       <c r="J22" s="2" t="str">
-        <f>IF(AND(K22=0,L22=0)=TRUE,"",IF(AND(K22&gt;0,L22&gt;0)=TRUE,VLOOKUP(LEFT(L22,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M22))</f>
+        <f>IF(AND(K22=0,L22=0)=TRUE,"",IF(AND(K22&gt;0,L22&gt;0)=TRUE,VLOOKUP(LEFT(L22,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M22))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K22" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B22,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B22,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210205</v>
       </c>
       <c r="L22" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B22,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B22,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210003</v>
       </c>
       <c r="M22" s="2" t="s">
@@ -20326,15 +20326,15 @@
         <v>3909</v>
       </c>
       <c r="J23" s="2" t="str">
-        <f>IF(AND(K23=0,L23=0)=TRUE,"",IF(AND(K23&gt;0,L23&gt;0)=TRUE,VLOOKUP(LEFT(L23,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M23))</f>
+        <f>IF(AND(K23=0,L23=0)=TRUE,"",IF(AND(K23&gt;0,L23&gt;0)=TRUE,VLOOKUP(LEFT(L23,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M23))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K23" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B23,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B23,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210213</v>
       </c>
       <c r="L23" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B23,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B23,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210019</v>
       </c>
       <c r="M23" s="2" t="s">
@@ -20584,15 +20584,15 @@
         <v>3909</v>
       </c>
       <c r="J24" s="2" t="str">
-        <f>IF(AND(K24=0,L24=0)=TRUE,"",IF(AND(K24&gt;0,L24&gt;0)=TRUE,VLOOKUP(LEFT(L24,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M24))</f>
+        <f>IF(AND(K24=0,L24=0)=TRUE,"",IF(AND(K24&gt;0,L24&gt;0)=TRUE,VLOOKUP(LEFT(L24,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M24))</f>
         <v>PERBANKAN DAN KEUANGAN</v>
       </c>
       <c r="K24" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B24,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B24,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210230</v>
       </c>
       <c r="L24" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B24,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B24,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5504210007</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -20842,15 +20842,15 @@
         <v>3909</v>
       </c>
       <c r="J25" s="2" t="str">
-        <f>IF(AND(K25=0,L25=0)=TRUE,"",IF(AND(K25&gt;0,L25&gt;0)=TRUE,VLOOKUP(LEFT(L25,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M25))</f>
+        <f>IF(AND(K25=0,L25=0)=TRUE,"",IF(AND(K25&gt;0,L25&gt;0)=TRUE,VLOOKUP(LEFT(L25,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M25))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K25" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B25,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B25,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210269</v>
       </c>
       <c r="L25" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B25,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B25,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210005</v>
       </c>
       <c r="M25" s="2" t="s">
@@ -21094,15 +21094,15 @@
         <v>3909</v>
       </c>
       <c r="J26" s="2" t="str">
-        <f>IF(AND(K26=0,L26=0)=TRUE,"",IF(AND(K26&gt;0,L26&gt;0)=TRUE,VLOOKUP(LEFT(L26,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M26))</f>
+        <f>IF(AND(K26=0,L26=0)=TRUE,"",IF(AND(K26&gt;0,L26&gt;0)=TRUE,VLOOKUP(LEFT(L26,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M26))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K26" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B26,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B26,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210274</v>
       </c>
       <c r="L26" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B26,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B26,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210006</v>
       </c>
       <c r="M26" s="2" t="s">
@@ -21352,15 +21352,15 @@
         <v>3909</v>
       </c>
       <c r="J27" s="2" t="str">
-        <f>IF(AND(K27=0,L27=0)=TRUE,"",IF(AND(K27&gt;0,L27&gt;0)=TRUE,VLOOKUP(LEFT(L27,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M27))</f>
+        <f>IF(AND(K27=0,L27=0)=TRUE,"",IF(AND(K27&gt;0,L27&gt;0)=TRUE,VLOOKUP(LEFT(L27,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M27))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K27" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B27,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B27,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210294</v>
       </c>
       <c r="L27" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B27,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B27,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210004</v>
       </c>
       <c r="M27" s="2" t="s">
@@ -21610,15 +21610,15 @@
         <v>3909</v>
       </c>
       <c r="J28" s="2" t="str">
-        <f>IF(AND(K28=0,L28=0)=TRUE,"",IF(AND(K28&gt;0,L28&gt;0)=TRUE,VLOOKUP(LEFT(L28,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M28))</f>
+        <f>IF(AND(K28=0,L28=0)=TRUE,"",IF(AND(K28&gt;0,L28&gt;0)=TRUE,VLOOKUP(LEFT(L28,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M28))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K28" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B28,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B28,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210309</v>
       </c>
       <c r="L28" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B28,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B28,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210001</v>
       </c>
       <c r="M28" s="2" t="s">
@@ -21868,15 +21868,15 @@
         <v>3909</v>
       </c>
       <c r="J29" s="2" t="str">
-        <f>IF(AND(K29=0,L29=0)=TRUE,"",IF(AND(K29&gt;0,L29&gt;0)=TRUE,VLOOKUP(LEFT(L29,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M29))</f>
+        <f>IF(AND(K29=0,L29=0)=TRUE,"",IF(AND(K29&gt;0,L29&gt;0)=TRUE,VLOOKUP(LEFT(L29,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M29))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K29" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B29,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B29,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210384</v>
       </c>
       <c r="L29" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B29,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B29,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210008</v>
       </c>
       <c r="M29" s="2" t="s">
@@ -22126,15 +22126,15 @@
         <v>3909</v>
       </c>
       <c r="J30" s="2" t="str">
-        <f>IF(AND(K30=0,L30=0)=TRUE,"",IF(AND(K30&gt;0,L30&gt;0)=TRUE,VLOOKUP(LEFT(L30,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M30))</f>
+        <f>IF(AND(K30=0,L30=0)=TRUE,"",IF(AND(K30&gt;0,L30&gt;0)=TRUE,VLOOKUP(LEFT(L30,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M30))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K30" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B30,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B30,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210387</v>
       </c>
       <c r="L30" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B30,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B30,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210033</v>
       </c>
       <c r="M30" s="2" t="s">
@@ -22378,15 +22378,15 @@
         <v>3909</v>
       </c>
       <c r="J31" s="2" t="str">
-        <f>IF(AND(K31=0,L31=0)=TRUE,"",IF(AND(K31&gt;0,L31&gt;0)=TRUE,VLOOKUP(LEFT(L31,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M31))</f>
+        <f>IF(AND(K31=0,L31=0)=TRUE,"",IF(AND(K31&gt;0,L31&gt;0)=TRUE,VLOOKUP(LEFT(L31,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M31))</f>
         <v/>
       </c>
       <c r="K31" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B31,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B31,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B31,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B31,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M31" s="2" t="s">
@@ -22630,15 +22630,15 @@
         <v>3909</v>
       </c>
       <c r="J32" s="2" t="str">
-        <f>IF(AND(K32=0,L32=0)=TRUE,"",IF(AND(K32&gt;0,L32&gt;0)=TRUE,VLOOKUP(LEFT(L32,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M32))</f>
+        <f>IF(AND(K32=0,L32=0)=TRUE,"",IF(AND(K32&gt;0,L32&gt;0)=TRUE,VLOOKUP(LEFT(L32,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M32))</f>
         <v>PERBANKAN DAN KEUANGAN</v>
       </c>
       <c r="K32" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B32,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B32,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210415</v>
       </c>
       <c r="L32" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B32,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B32,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5504210001</v>
       </c>
       <c r="M32" s="2" t="s">
@@ -22882,15 +22882,15 @@
         <v>3909</v>
       </c>
       <c r="J33" s="2" t="str">
-        <f>IF(AND(K33=0,L33=0)=TRUE,"",IF(AND(K33&gt;0,L33&gt;0)=TRUE,VLOOKUP(LEFT(L33,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M33))</f>
+        <f>IF(AND(K33=0,L33=0)=TRUE,"",IF(AND(K33&gt;0,L33&gt;0)=TRUE,VLOOKUP(LEFT(L33,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M33))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K33" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B33,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B33,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210438</v>
       </c>
       <c r="L33" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B33,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B33,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210012</v>
       </c>
       <c r="M33" s="2" t="s">
@@ -23140,15 +23140,15 @@
         <v>3909</v>
       </c>
       <c r="J34" s="2" t="str">
-        <f>IF(AND(K34=0,L34=0)=TRUE,"",IF(AND(K34&gt;0,L34&gt;0)=TRUE,VLOOKUP(LEFT(L34,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M34))</f>
+        <f>IF(AND(K34=0,L34=0)=TRUE,"",IF(AND(K34&gt;0,L34&gt;0)=TRUE,VLOOKUP(LEFT(L34,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M34))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K34" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B34,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B34,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210441</v>
       </c>
       <c r="L34" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B34,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B34,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210025</v>
       </c>
       <c r="M34" s="2" t="s">
@@ -23398,15 +23398,15 @@
         <v>3909</v>
       </c>
       <c r="J35" s="2" t="str">
-        <f>IF(AND(K35=0,L35=0)=TRUE,"",IF(AND(K35&gt;0,L35&gt;0)=TRUE,VLOOKUP(LEFT(L35,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M35))</f>
+        <f>IF(AND(K35=0,L35=0)=TRUE,"",IF(AND(K35&gt;0,L35&gt;0)=TRUE,VLOOKUP(LEFT(L35,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M35))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K35" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B35,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B35,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210455</v>
       </c>
       <c r="L35" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B35,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B35,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210005</v>
       </c>
       <c r="M35" s="2" t="s">
@@ -23656,15 +23656,15 @@
         <v>3909</v>
       </c>
       <c r="J36" s="2" t="str">
-        <f>IF(AND(K36=0,L36=0)=TRUE,"",IF(AND(K36&gt;0,L36&gt;0)=TRUE,VLOOKUP(LEFT(L36,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M36))</f>
+        <f>IF(AND(K36=0,L36=0)=TRUE,"",IF(AND(K36&gt;0,L36&gt;0)=TRUE,VLOOKUP(LEFT(L36,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M36))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K36" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B36,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B36,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210459</v>
       </c>
       <c r="L36" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B36,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B36,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210025</v>
       </c>
       <c r="M36" s="2" t="s">
@@ -23908,15 +23908,15 @@
         <v>3909</v>
       </c>
       <c r="J37" s="2" t="str">
-        <f>IF(AND(K37=0,L37=0)=TRUE,"",IF(AND(K37&gt;0,L37&gt;0)=TRUE,VLOOKUP(LEFT(L37,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M37))</f>
+        <f>IF(AND(K37=0,L37=0)=TRUE,"",IF(AND(K37&gt;0,L37&gt;0)=TRUE,VLOOKUP(LEFT(L37,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M37))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K37" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B37,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B37,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210474</v>
       </c>
       <c r="L37" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B37,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B37,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210027</v>
       </c>
       <c r="M37" s="2" t="s">
@@ -24160,15 +24160,15 @@
         <v>3909</v>
       </c>
       <c r="J38" s="2" t="str">
-        <f>IF(AND(K38=0,L38=0)=TRUE,"",IF(AND(K38&gt;0,L38&gt;0)=TRUE,VLOOKUP(LEFT(L38,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M38))</f>
+        <f>IF(AND(K38=0,L38=0)=TRUE,"",IF(AND(K38&gt;0,L38&gt;0)=TRUE,VLOOKUP(LEFT(L38,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M38))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K38" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B38,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B38,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211333</v>
       </c>
       <c r="L38" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B38,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B38,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210019</v>
       </c>
       <c r="M38" s="2" t="s">
@@ -24418,15 +24418,15 @@
         <v>3909</v>
       </c>
       <c r="J39" s="2" t="str">
-        <f>IF(AND(K39=0,L39=0)=TRUE,"",IF(AND(K39&gt;0,L39&gt;0)=TRUE,VLOOKUP(LEFT(L39,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M39))</f>
+        <f>IF(AND(K39=0,L39=0)=TRUE,"",IF(AND(K39&gt;0,L39&gt;0)=TRUE,VLOOKUP(LEFT(L39,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M39))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K39" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B39,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B39,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211460</v>
       </c>
       <c r="L39" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B39,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B39,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210017</v>
       </c>
       <c r="M39" s="2" t="s">
@@ -24676,15 +24676,15 @@
         <v>3909</v>
       </c>
       <c r="J40" s="2" t="str">
-        <f>IF(AND(K40=0,L40=0)=TRUE,"",IF(AND(K40&gt;0,L40&gt;0)=TRUE,VLOOKUP(LEFT(L40,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M40))</f>
+        <f>IF(AND(K40=0,L40=0)=TRUE,"",IF(AND(K40&gt;0,L40&gt;0)=TRUE,VLOOKUP(LEFT(L40,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M40))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K40" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B40,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B40,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211469</v>
       </c>
       <c r="L40" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B40,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B40,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210026</v>
       </c>
       <c r="M40" s="2" t="s">
@@ -24934,15 +24934,15 @@
         <v>3909</v>
       </c>
       <c r="J41" s="2" t="str">
-        <f>IF(AND(K41=0,L41=0)=TRUE,"",IF(AND(K41&gt;0,L41&gt;0)=TRUE,VLOOKUP(LEFT(L41,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M41))</f>
+        <f>IF(AND(K41=0,L41=0)=TRUE,"",IF(AND(K41&gt;0,L41&gt;0)=TRUE,VLOOKUP(LEFT(L41,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M41))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K41" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B41,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B41,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211566</v>
       </c>
       <c r="L41" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B41,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B41,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210030</v>
       </c>
       <c r="M41" s="2" t="s">
@@ -25186,15 +25186,15 @@
         <v>3909</v>
       </c>
       <c r="J42" s="2" t="str">
-        <f>IF(AND(K42=0,L42=0)=TRUE,"",IF(AND(K42&gt;0,L42&gt;0)=TRUE,VLOOKUP(LEFT(L42,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M42))</f>
+        <f>IF(AND(K42=0,L42=0)=TRUE,"",IF(AND(K42&gt;0,L42&gt;0)=TRUE,VLOOKUP(LEFT(L42,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M42))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K42" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B42,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B42,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210210</v>
       </c>
       <c r="L42" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B42,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B42,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210001</v>
       </c>
       <c r="M42" s="2" t="s">
@@ -25444,15 +25444,15 @@
         <v>3909</v>
       </c>
       <c r="J43" s="2" t="str">
-        <f>IF(AND(K43=0,L43=0)=TRUE,"",IF(AND(K43&gt;0,L43&gt;0)=TRUE,VLOOKUP(LEFT(L43,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M43))</f>
+        <f>IF(AND(K43=0,L43=0)=TRUE,"",IF(AND(K43&gt;0,L43&gt;0)=TRUE,VLOOKUP(LEFT(L43,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M43))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K43" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B43,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B43,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210237</v>
       </c>
       <c r="L43" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B43,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B43,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210007</v>
       </c>
       <c r="M43" s="2" t="s">
@@ -25696,15 +25696,15 @@
         <v>3909</v>
       </c>
       <c r="J44" s="2" t="str">
-        <f>IF(AND(K44=0,L44=0)=TRUE,"",IF(AND(K44&gt;0,L44&gt;0)=TRUE,VLOOKUP(LEFT(L44,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M44))</f>
+        <f>IF(AND(K44=0,L44=0)=TRUE,"",IF(AND(K44&gt;0,L44&gt;0)=TRUE,VLOOKUP(LEFT(L44,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M44))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K44" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B44,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B44,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210255</v>
       </c>
       <c r="L44" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B44,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B44,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210002</v>
       </c>
       <c r="M44" s="2" t="s">
@@ -25954,15 +25954,15 @@
         <v>3909</v>
       </c>
       <c r="J45" s="2" t="str">
-        <f>IF(AND(K45=0,L45=0)=TRUE,"",IF(AND(K45&gt;0,L45&gt;0)=TRUE,VLOOKUP(LEFT(L45,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M45))</f>
+        <f>IF(AND(K45=0,L45=0)=TRUE,"",IF(AND(K45&gt;0,L45&gt;0)=TRUE,VLOOKUP(LEFT(L45,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M45))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K45" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B45,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B45,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210283</v>
       </c>
       <c r="L45" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B45,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B45,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210030</v>
       </c>
       <c r="M45" s="2" t="s">
@@ -26212,15 +26212,15 @@
         <v>3909</v>
       </c>
       <c r="J46" s="2" t="str">
-        <f>IF(AND(K46=0,L46=0)=TRUE,"",IF(AND(K46&gt;0,L46&gt;0)=TRUE,VLOOKUP(LEFT(L46,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M46))</f>
+        <f>IF(AND(K46=0,L46=0)=TRUE,"",IF(AND(K46&gt;0,L46&gt;0)=TRUE,VLOOKUP(LEFT(L46,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M46))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K46" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B46,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B46,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210286</v>
       </c>
       <c r="L46" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B46,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B46,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210031</v>
       </c>
       <c r="M46" s="2" t="s">
@@ -26464,15 +26464,15 @@
         <v>3909</v>
       </c>
       <c r="J47" s="2" t="str">
-        <f>IF(AND(K47=0,L47=0)=TRUE,"",IF(AND(K47&gt;0,L47&gt;0)=TRUE,VLOOKUP(LEFT(L47,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M47))</f>
+        <f>IF(AND(K47=0,L47=0)=TRUE,"",IF(AND(K47&gt;0,L47&gt;0)=TRUE,VLOOKUP(LEFT(L47,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M47))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K47" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B47,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B47,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210292</v>
       </c>
       <c r="L47" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B47,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B47,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210024</v>
       </c>
       <c r="M47" s="2" t="s">
@@ -26722,15 +26722,15 @@
         <v>3909</v>
       </c>
       <c r="J48" s="2" t="str">
-        <f>IF(AND(K48=0,L48=0)=TRUE,"",IF(AND(K48&gt;0,L48&gt;0)=TRUE,VLOOKUP(LEFT(L48,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M48))</f>
+        <f>IF(AND(K48=0,L48=0)=TRUE,"",IF(AND(K48&gt;0,L48&gt;0)=TRUE,VLOOKUP(LEFT(L48,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M48))</f>
         <v>PERBANKAN DAN KEUANGAN</v>
       </c>
       <c r="K48" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B48,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B48,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210311</v>
       </c>
       <c r="L48" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B48,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B48,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5504210013</v>
       </c>
       <c r="M48" s="2" t="s">
@@ -26980,15 +26980,15 @@
         <v>3909</v>
       </c>
       <c r="J49" s="2" t="str">
-        <f>IF(AND(K49=0,L49=0)=TRUE,"",IF(AND(K49&gt;0,L49&gt;0)=TRUE,VLOOKUP(LEFT(L49,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M49))</f>
+        <f>IF(AND(K49=0,L49=0)=TRUE,"",IF(AND(K49&gt;0,L49&gt;0)=TRUE,VLOOKUP(LEFT(L49,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M49))</f>
         <v>PERBANKAN DAN KEUANGAN</v>
       </c>
       <c r="K49" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B49,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B49,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210318</v>
       </c>
       <c r="L49" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B49,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B49,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5504210014</v>
       </c>
       <c r="M49" s="2" t="s">
@@ -27238,15 +27238,15 @@
         <v>3909</v>
       </c>
       <c r="J50" s="2" t="str">
-        <f>IF(AND(K50=0,L50=0)=TRUE,"",IF(AND(K50&gt;0,L50&gt;0)=TRUE,VLOOKUP(LEFT(L50,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M50))</f>
+        <f>IF(AND(K50=0,L50=0)=TRUE,"",IF(AND(K50&gt;0,L50&gt;0)=TRUE,VLOOKUP(LEFT(L50,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M50))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K50" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B50,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B50,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210345</v>
       </c>
       <c r="L50" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B50,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B50,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210032</v>
       </c>
       <c r="M50" s="2" t="s">
@@ -27490,15 +27490,15 @@
         <v>3909</v>
       </c>
       <c r="J51" s="2" t="str">
-        <f>IF(AND(K51=0,L51=0)=TRUE,"",IF(AND(K51&gt;0,L51&gt;0)=TRUE,VLOOKUP(LEFT(L51,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M51))</f>
+        <f>IF(AND(K51=0,L51=0)=TRUE,"",IF(AND(K51&gt;0,L51&gt;0)=TRUE,VLOOKUP(LEFT(L51,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M51))</f>
         <v/>
       </c>
       <c r="K51" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B51,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B51,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L51" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B51,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B51,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M51" s="2" t="s">
@@ -27748,15 +27748,15 @@
         <v>3909</v>
       </c>
       <c r="J52" s="2" t="str">
-        <f>IF(AND(K52=0,L52=0)=TRUE,"",IF(AND(K52&gt;0,L52&gt;0)=TRUE,VLOOKUP(LEFT(L52,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M52))</f>
+        <f>IF(AND(K52=0,L52=0)=TRUE,"",IF(AND(K52&gt;0,L52&gt;0)=TRUE,VLOOKUP(LEFT(L52,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M52))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K52" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B52,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B52,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210373</v>
       </c>
       <c r="L52" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B52,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B52,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210006</v>
       </c>
       <c r="M52" s="2" t="s">
@@ -28006,15 +28006,15 @@
         <v>3909</v>
       </c>
       <c r="J53" s="2" t="str">
-        <f>IF(AND(K53=0,L53=0)=TRUE,"",IF(AND(K53&gt;0,L53&gt;0)=TRUE,VLOOKUP(LEFT(L53,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M53))</f>
+        <f>IF(AND(K53=0,L53=0)=TRUE,"",IF(AND(K53&gt;0,L53&gt;0)=TRUE,VLOOKUP(LEFT(L53,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M53))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K53" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B53,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B53,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210394</v>
       </c>
       <c r="L53" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B53,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B53,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210029</v>
       </c>
       <c r="M53" s="2" t="s">
@@ -28264,15 +28264,15 @@
         <v>3909</v>
       </c>
       <c r="J54" s="2" t="str">
-        <f>IF(AND(K54=0,L54=0)=TRUE,"",IF(AND(K54&gt;0,L54&gt;0)=TRUE,VLOOKUP(LEFT(L54,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M54))</f>
+        <f>IF(AND(K54=0,L54=0)=TRUE,"",IF(AND(K54&gt;0,L54&gt;0)=TRUE,VLOOKUP(LEFT(L54,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M54))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K54" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B54,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B54,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210402</v>
       </c>
       <c r="L54" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B54,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B54,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210011</v>
       </c>
       <c r="M54" s="2" t="s">
@@ -28522,15 +28522,15 @@
         <v>3909</v>
       </c>
       <c r="J55" s="2" t="str">
-        <f>IF(AND(K55=0,L55=0)=TRUE,"",IF(AND(K55&gt;0,L55&gt;0)=TRUE,VLOOKUP(LEFT(L55,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M55))</f>
+        <f>IF(AND(K55=0,L55=0)=TRUE,"",IF(AND(K55&gt;0,L55&gt;0)=TRUE,VLOOKUP(LEFT(L55,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M55))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K55" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B55,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B55,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210407</v>
       </c>
       <c r="L55" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B55,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B55,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210009</v>
       </c>
       <c r="M55" s="2" t="s">
@@ -28780,15 +28780,15 @@
         <v>3909</v>
       </c>
       <c r="J56" s="2" t="str">
-        <f>IF(AND(K56=0,L56=0)=TRUE,"",IF(AND(K56&gt;0,L56&gt;0)=TRUE,VLOOKUP(LEFT(L56,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M56))</f>
+        <f>IF(AND(K56=0,L56=0)=TRUE,"",IF(AND(K56&gt;0,L56&gt;0)=TRUE,VLOOKUP(LEFT(L56,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M56))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K56" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B56,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B56,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210467</v>
       </c>
       <c r="L56" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B56,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B56,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210021</v>
       </c>
       <c r="M56" s="2" t="s">
@@ -29032,15 +29032,15 @@
         <v>3909</v>
       </c>
       <c r="J57" s="2" t="str">
-        <f>IF(AND(K57=0,L57=0)=TRUE,"",IF(AND(K57&gt;0,L57&gt;0)=TRUE,VLOOKUP(LEFT(L57,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M57))</f>
+        <f>IF(AND(K57=0,L57=0)=TRUE,"",IF(AND(K57&gt;0,L57&gt;0)=TRUE,VLOOKUP(LEFT(L57,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M57))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K57" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B57,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B57,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210469</v>
       </c>
       <c r="L57" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B57,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B57,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210010</v>
       </c>
       <c r="M57" s="2" t="s">
@@ -29290,15 +29290,15 @@
         <v>3909</v>
       </c>
       <c r="J58" s="2" t="str">
-        <f>IF(AND(K58=0,L58=0)=TRUE,"",IF(AND(K58&gt;0,L58&gt;0)=TRUE,VLOOKUP(LEFT(L58,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M58))</f>
+        <f>IF(AND(K58=0,L58=0)=TRUE,"",IF(AND(K58&gt;0,L58&gt;0)=TRUE,VLOOKUP(LEFT(L58,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M58))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K58" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B58,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B58,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211480</v>
       </c>
       <c r="L58" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B58,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B58,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210016</v>
       </c>
       <c r="M58" s="2" t="s">
@@ -29548,15 +29548,15 @@
         <v>3909</v>
       </c>
       <c r="J59" s="2" t="str">
-        <f>IF(AND(K59=0,L59=0)=TRUE,"",IF(AND(K59&gt;0,L59&gt;0)=TRUE,VLOOKUP(LEFT(L59,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M59))</f>
+        <f>IF(AND(K59=0,L59=0)=TRUE,"",IF(AND(K59&gt;0,L59&gt;0)=TRUE,VLOOKUP(LEFT(L59,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M59))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K59" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B59,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B59,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219644</v>
       </c>
       <c r="L59" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B59,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B59,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210024</v>
       </c>
       <c r="M59" s="2" t="s">
@@ -29800,15 +29800,15 @@
         <v>3909</v>
       </c>
       <c r="J60" s="2" t="str">
-        <f>IF(AND(K60=0,L60=0)=TRUE,"",IF(AND(K60&gt;0,L60&gt;0)=TRUE,VLOOKUP(LEFT(L60,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M60))</f>
+        <f>IF(AND(K60=0,L60=0)=TRUE,"",IF(AND(K60&gt;0,L60&gt;0)=TRUE,VLOOKUP(LEFT(L60,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M60))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K60" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B60,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B60,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219651</v>
       </c>
       <c r="L60" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B60,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B60,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210018</v>
       </c>
       <c r="M60" s="2" t="s">
@@ -30052,15 +30052,15 @@
         <v>3909</v>
       </c>
       <c r="J61" s="2" t="str">
-        <f>IF(AND(K61=0,L61=0)=TRUE,"",IF(AND(K61&gt;0,L61&gt;0)=TRUE,VLOOKUP(LEFT(L61,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M61))</f>
+        <f>IF(AND(K61=0,L61=0)=TRUE,"",IF(AND(K61&gt;0,L61&gt;0)=TRUE,VLOOKUP(LEFT(L61,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M61))</f>
         <v/>
       </c>
       <c r="K61" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B61,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B61,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L61" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B61,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B61,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M61" s="2" t="s">
@@ -30310,15 +30310,15 @@
         <v>3909</v>
       </c>
       <c r="J62" s="2" t="str">
-        <f>IF(AND(K62=0,L62=0)=TRUE,"",IF(AND(K62&gt;0,L62&gt;0)=TRUE,VLOOKUP(LEFT(L62,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M62))</f>
+        <f>IF(AND(K62=0,L62=0)=TRUE,"",IF(AND(K62&gt;0,L62&gt;0)=TRUE,VLOOKUP(LEFT(L62,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M62))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K62" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B62,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B62,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210223</v>
       </c>
       <c r="L62" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B62,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B62,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210009</v>
       </c>
       <c r="M62" s="2" t="s">
@@ -30568,15 +30568,15 @@
         <v>3909</v>
       </c>
       <c r="J63" s="2" t="str">
-        <f>IF(AND(K63=0,L63=0)=TRUE,"",IF(AND(K63&gt;0,L63&gt;0)=TRUE,VLOOKUP(LEFT(L63,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M63))</f>
+        <f>IF(AND(K63=0,L63=0)=TRUE,"",IF(AND(K63&gt;0,L63&gt;0)=TRUE,VLOOKUP(LEFT(L63,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M63))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K63" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B63,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B63,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210282</v>
       </c>
       <c r="L63" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B63,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B63,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210028</v>
       </c>
       <c r="M63" s="2" t="s">
@@ -30820,15 +30820,15 @@
         <v>3909</v>
       </c>
       <c r="J64" s="2" t="str">
-        <f>IF(AND(K64=0,L64=0)=TRUE,"",IF(AND(K64&gt;0,L64&gt;0)=TRUE,VLOOKUP(LEFT(L64,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M64))</f>
+        <f>IF(AND(K64=0,L64=0)=TRUE,"",IF(AND(K64&gt;0,L64&gt;0)=TRUE,VLOOKUP(LEFT(L64,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M64))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K64" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B64,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B64,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210299</v>
       </c>
       <c r="L64" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B64,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B64,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210002</v>
       </c>
       <c r="M64" s="2" t="s">
@@ -31078,15 +31078,15 @@
         <v>3909</v>
       </c>
       <c r="J65" s="2" t="str">
-        <f>IF(AND(K65=0,L65=0)=TRUE,"",IF(AND(K65&gt;0,L65&gt;0)=TRUE,VLOOKUP(LEFT(L65,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M65))</f>
+        <f>IF(AND(K65=0,L65=0)=TRUE,"",IF(AND(K65&gt;0,L65&gt;0)=TRUE,VLOOKUP(LEFT(L65,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M65))</f>
         <v>PERBANKAN DAN KEUANGAN</v>
       </c>
       <c r="K65" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B65,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B65,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210307</v>
       </c>
       <c r="L65" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B65,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B65,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5504210011</v>
       </c>
       <c r="M65" s="2" t="s">
@@ -31336,15 +31336,15 @@
         <v>3909</v>
       </c>
       <c r="J66" s="2" t="str">
-        <f>IF(AND(K66=0,L66=0)=TRUE,"",IF(AND(K66&gt;0,L66&gt;0)=TRUE,VLOOKUP(LEFT(L66,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M66))</f>
+        <f>IF(AND(K66=0,L66=0)=TRUE,"",IF(AND(K66&gt;0,L66&gt;0)=TRUE,VLOOKUP(LEFT(L66,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M66))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K66" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B66,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B66,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210314</v>
       </c>
       <c r="L66" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B66,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B66,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210035</v>
       </c>
       <c r="M66" s="2" t="s">
@@ -31588,15 +31588,15 @@
         <v>3909</v>
       </c>
       <c r="J67" s="2" t="str">
-        <f>IF(AND(K67=0,L67=0)=TRUE,"",IF(AND(K67&gt;0,L67&gt;0)=TRUE,VLOOKUP(LEFT(L67,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M67))</f>
+        <f>IF(AND(K67=0,L67=0)=TRUE,"",IF(AND(K67&gt;0,L67&gt;0)=TRUE,VLOOKUP(LEFT(L67,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M67))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K67" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B67,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B67,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210317</v>
       </c>
       <c r="L67" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B67,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B67,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210018</v>
       </c>
       <c r="M67" s="2" t="s">
@@ -31840,15 +31840,15 @@
         <v>3909</v>
       </c>
       <c r="J68" s="2" t="str">
-        <f>IF(AND(K68=0,L68=0)=TRUE,"",IF(AND(K68&gt;0,L68&gt;0)=TRUE,VLOOKUP(LEFT(L68,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M68))</f>
+        <f>IF(AND(K68=0,L68=0)=TRUE,"",IF(AND(K68&gt;0,L68&gt;0)=TRUE,VLOOKUP(LEFT(L68,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M68))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K68" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B68,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B68,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210337</v>
       </c>
       <c r="L68" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B68,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B68,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210034</v>
       </c>
       <c r="M68" s="2" t="s">
@@ -32098,15 +32098,15 @@
         <v>3909</v>
       </c>
       <c r="J69" s="2" t="str">
-        <f>IF(AND(K69=0,L69=0)=TRUE,"",IF(AND(K69&gt;0,L69&gt;0)=TRUE,VLOOKUP(LEFT(L69,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M69))</f>
+        <f>IF(AND(K69=0,L69=0)=TRUE,"",IF(AND(K69&gt;0,L69&gt;0)=TRUE,VLOOKUP(LEFT(L69,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M69))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K69" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B69,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B69,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210338</v>
       </c>
       <c r="L69" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B69,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B69,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210017</v>
       </c>
       <c r="M69" s="2" t="s">
@@ -32356,15 +32356,15 @@
         <v>3909</v>
       </c>
       <c r="J70" s="2" t="str">
-        <f>IF(AND(K70=0,L70=0)=TRUE,"",IF(AND(K70&gt;0,L70&gt;0)=TRUE,VLOOKUP(LEFT(L70,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M70))</f>
+        <f>IF(AND(K70=0,L70=0)=TRUE,"",IF(AND(K70&gt;0,L70&gt;0)=TRUE,VLOOKUP(LEFT(L70,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M70))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K70" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B70,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B70,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210339</v>
       </c>
       <c r="L70" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B70,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B70,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210001</v>
       </c>
       <c r="M70" s="2" t="s">
@@ -32614,15 +32614,15 @@
         <v>3909</v>
       </c>
       <c r="J71" s="2" t="str">
-        <f>IF(AND(K71=0,L71=0)=TRUE,"",IF(AND(K71&gt;0,L71&gt;0)=TRUE,VLOOKUP(LEFT(L71,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M71))</f>
+        <f>IF(AND(K71=0,L71=0)=TRUE,"",IF(AND(K71&gt;0,L71&gt;0)=TRUE,VLOOKUP(LEFT(L71,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M71))</f>
         <v/>
       </c>
       <c r="K71" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B71,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B71,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L71" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B71,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B71,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M71" s="2" t="s">
@@ -32866,15 +32866,15 @@
         <v>3909</v>
       </c>
       <c r="J72" s="2" t="str">
-        <f>IF(AND(K72=0,L72=0)=TRUE,"",IF(AND(K72&gt;0,L72&gt;0)=TRUE,VLOOKUP(LEFT(L72,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M72))</f>
+        <f>IF(AND(K72=0,L72=0)=TRUE,"",IF(AND(K72&gt;0,L72&gt;0)=TRUE,VLOOKUP(LEFT(L72,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M72))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K72" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B72,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B72,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210371</v>
       </c>
       <c r="L72" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B72,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B72,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210015</v>
       </c>
       <c r="M72" s="2" t="s">
@@ -33124,15 +33124,15 @@
         <v>3909</v>
       </c>
       <c r="J73" s="2" t="str">
-        <f>IF(AND(K73=0,L73=0)=TRUE,"",IF(AND(K73&gt;0,L73&gt;0)=TRUE,VLOOKUP(LEFT(L73,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M73))</f>
+        <f>IF(AND(K73=0,L73=0)=TRUE,"",IF(AND(K73&gt;0,L73&gt;0)=TRUE,VLOOKUP(LEFT(L73,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M73))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K73" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B73,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B73,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210372</v>
       </c>
       <c r="L73" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B73,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B73,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210010</v>
       </c>
       <c r="M73" s="2" t="s">
@@ -33382,15 +33382,15 @@
         <v>3909</v>
       </c>
       <c r="J74" s="2" t="str">
-        <f>IF(AND(K74=0,L74=0)=TRUE,"",IF(AND(K74&gt;0,L74&gt;0)=TRUE,VLOOKUP(LEFT(L74,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M74))</f>
+        <f>IF(AND(K74=0,L74=0)=TRUE,"",IF(AND(K74&gt;0,L74&gt;0)=TRUE,VLOOKUP(LEFT(L74,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M74))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K74" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B74,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B74,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210388</v>
       </c>
       <c r="L74" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B74,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B74,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210003</v>
       </c>
       <c r="M74" s="2" t="s">
@@ -33640,15 +33640,15 @@
         <v>3909</v>
       </c>
       <c r="J75" s="2" t="str">
-        <f>IF(AND(K75=0,L75=0)=TRUE,"",IF(AND(K75&gt;0,L75&gt;0)=TRUE,VLOOKUP(LEFT(L75,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M75))</f>
+        <f>IF(AND(K75=0,L75=0)=TRUE,"",IF(AND(K75&gt;0,L75&gt;0)=TRUE,VLOOKUP(LEFT(L75,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M75))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K75" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B75,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B75,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210395</v>
       </c>
       <c r="L75" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B75,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B75,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210010</v>
       </c>
       <c r="M75" s="2" t="s">
@@ -33892,16 +33892,16 @@
         <v>3909</v>
       </c>
       <c r="J76" s="2" t="str">
-        <f>IF(AND(K76=0,L76=0)=TRUE,"",IF(AND(K76&gt;0,L76&gt;0)=TRUE,VLOOKUP(LEFT(L76,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M76))</f>
+        <f>IF(AND(K76=0,L76=0)=TRUE,"",IF(AND(K76&gt;0,L76&gt;0)=TRUE,VLOOKUP(LEFT(L76,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M76))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K76" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B76,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B76,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210406</v>
       </c>
       <c r="L76" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B76,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B76,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <v>5501210036</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>109</v>
@@ -34118,7 +34118,7 @@
       </c>
       <c r="CG76" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>tidak</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="77" spans="1:85" x14ac:dyDescent="0.25">
@@ -34150,15 +34150,15 @@
         <v>3909</v>
       </c>
       <c r="J77" s="2" t="str">
-        <f>IF(AND(K77=0,L77=0)=TRUE,"",IF(AND(K77&gt;0,L77&gt;0)=TRUE,VLOOKUP(LEFT(L77,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M77))</f>
+        <f>IF(AND(K77=0,L77=0)=TRUE,"",IF(AND(K77&gt;0,L77&gt;0)=TRUE,VLOOKUP(LEFT(L77,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M77))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K77" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B77,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B77,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210447</v>
       </c>
       <c r="L77" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B77,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B77,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210021</v>
       </c>
       <c r="M77" s="2" t="s">
@@ -34402,15 +34402,15 @@
         <v>3909</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f>IF(AND(K78=0,L78=0)=TRUE,"",IF(AND(K78&gt;0,L78&gt;0)=TRUE,VLOOKUP(LEFT(L78,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M78))</f>
+        <f>IF(AND(K78=0,L78=0)=TRUE,"",IF(AND(K78&gt;0,L78&gt;0)=TRUE,VLOOKUP(LEFT(L78,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M78))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K78" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B78,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B78,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210481</v>
       </c>
       <c r="L78" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B78,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B78,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210022</v>
       </c>
       <c r="M78" s="2" t="s">
@@ -34660,15 +34660,15 @@
         <v>3909</v>
       </c>
       <c r="J79" s="2" t="str">
-        <f>IF(AND(K79=0,L79=0)=TRUE,"",IF(AND(K79&gt;0,L79&gt;0)=TRUE,VLOOKUP(LEFT(L79,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M79))</f>
+        <f>IF(AND(K79=0,L79=0)=TRUE,"",IF(AND(K79&gt;0,L79&gt;0)=TRUE,VLOOKUP(LEFT(L79,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M79))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K79" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B79,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B79,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210498</v>
       </c>
       <c r="L79" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B79,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B79,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210008</v>
       </c>
       <c r="M79" s="2" t="s">
@@ -34918,15 +34918,15 @@
         <v>3909</v>
       </c>
       <c r="J80" s="2" t="str">
-        <f>IF(AND(K80=0,L80=0)=TRUE,"",IF(AND(K80&gt;0,L80&gt;0)=TRUE,VLOOKUP(LEFT(L80,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M80))</f>
+        <f>IF(AND(K80=0,L80=0)=TRUE,"",IF(AND(K80&gt;0,L80&gt;0)=TRUE,VLOOKUP(LEFT(L80,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M80))</f>
         <v>PERBANKAN DAN KEUANGAN</v>
       </c>
       <c r="K80" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B80,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B80,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211367</v>
       </c>
       <c r="L80" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B80,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B80,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5504210009</v>
       </c>
       <c r="M80" s="2" t="s">
@@ -35170,15 +35170,15 @@
         <v>3909</v>
       </c>
       <c r="J81" s="2" t="str">
-        <f>IF(AND(K81=0,L81=0)=TRUE,"",IF(AND(K81&gt;0,L81&gt;0)=TRUE,VLOOKUP(LEFT(L81,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M81))</f>
+        <f>IF(AND(K81=0,L81=0)=TRUE,"",IF(AND(K81&gt;0,L81&gt;0)=TRUE,VLOOKUP(LEFT(L81,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M81))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K81" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B81,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B81,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211514</v>
       </c>
       <c r="L81" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B81,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B81,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210034</v>
       </c>
       <c r="M81" s="2" t="s">
@@ -35428,15 +35428,15 @@
         <v>3909</v>
       </c>
       <c r="J82" s="2" t="str">
-        <f>IF(AND(K82=0,L82=0)=TRUE,"",IF(AND(K82&gt;0,L82&gt;0)=TRUE,VLOOKUP(LEFT(L82,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M82))</f>
+        <f>IF(AND(K82=0,L82=0)=TRUE,"",IF(AND(K82&gt;0,L82&gt;0)=TRUE,VLOOKUP(LEFT(L82,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M82))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K82" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B82,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B82,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210242</v>
       </c>
       <c r="L82" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B82,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B82,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M82" s="2" t="s">
@@ -35686,15 +35686,15 @@
         <v>3909</v>
       </c>
       <c r="J83" s="2" t="str">
-        <f>IF(AND(K83=0,L83=0)=TRUE,"",IF(AND(K83&gt;0,L83&gt;0)=TRUE,VLOOKUP(LEFT(L83,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M83))</f>
+        <f>IF(AND(K83=0,L83=0)=TRUE,"",IF(AND(K83&gt;0,L83&gt;0)=TRUE,VLOOKUP(LEFT(L83,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M83))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K83" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B83,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B83,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210293</v>
       </c>
       <c r="L83" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B83,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B83,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210012</v>
       </c>
       <c r="M83" s="2" t="s">
@@ -35944,15 +35944,15 @@
         <v>3909</v>
       </c>
       <c r="J84" s="2" t="str">
-        <f>IF(AND(K84=0,L84=0)=TRUE,"",IF(AND(K84&gt;0,L84&gt;0)=TRUE,VLOOKUP(LEFT(L84,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M84))</f>
+        <f>IF(AND(K84=0,L84=0)=TRUE,"",IF(AND(K84&gt;0,L84&gt;0)=TRUE,VLOOKUP(LEFT(L84,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M84))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K84" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B84,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B84,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210304</v>
       </c>
       <c r="L84" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B84,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B84,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210013</v>
       </c>
       <c r="M84" s="2" t="s">
@@ -36202,15 +36202,15 @@
         <v>3909</v>
       </c>
       <c r="J85" s="2" t="str">
-        <f>IF(AND(K85=0,L85=0)=TRUE,"",IF(AND(K85&gt;0,L85&gt;0)=TRUE,VLOOKUP(LEFT(L85,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M85))</f>
+        <f>IF(AND(K85=0,L85=0)=TRUE,"",IF(AND(K85&gt;0,L85&gt;0)=TRUE,VLOOKUP(LEFT(L85,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M85))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K85" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B85,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B85,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210401</v>
       </c>
       <c r="L85" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B85,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B85,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210023</v>
       </c>
       <c r="M85" s="2" t="s">
@@ -36460,15 +36460,15 @@
         <v>3909</v>
       </c>
       <c r="J86" s="2" t="str">
-        <f>IF(AND(K86=0,L86=0)=TRUE,"",IF(AND(K86&gt;0,L86&gt;0)=TRUE,VLOOKUP(LEFT(L86,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M86))</f>
+        <f>IF(AND(K86=0,L86=0)=TRUE,"",IF(AND(K86&gt;0,L86&gt;0)=TRUE,VLOOKUP(LEFT(L86,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M86))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K86" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B86,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B86,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210431</v>
       </c>
       <c r="L86" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B86,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B86,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210026</v>
       </c>
       <c r="M86" s="2" t="s">
@@ -36712,15 +36712,15 @@
         <v>3909</v>
       </c>
       <c r="J87" s="2" t="str">
-        <f>IF(AND(K87=0,L87=0)=TRUE,"",IF(AND(K87&gt;0,L87&gt;0)=TRUE,VLOOKUP(LEFT(L87,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M87))</f>
+        <f>IF(AND(K87=0,L87=0)=TRUE,"",IF(AND(K87&gt;0,L87&gt;0)=TRUE,VLOOKUP(LEFT(L87,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M87))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K87" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B87,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B87,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210436</v>
       </c>
       <c r="L87" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B87,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B87,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210017</v>
       </c>
       <c r="M87" s="2" t="s">
@@ -36970,15 +36970,15 @@
         <v>3909</v>
       </c>
       <c r="J88" s="2" t="str">
-        <f>IF(AND(K88=0,L88=0)=TRUE,"",IF(AND(K88&gt;0,L88&gt;0)=TRUE,VLOOKUP(LEFT(L88,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M88))</f>
+        <f>IF(AND(K88=0,L88=0)=TRUE,"",IF(AND(K88&gt;0,L88&gt;0)=TRUE,VLOOKUP(LEFT(L88,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M88))</f>
         <v>PERBANKAN DAN KEUANGAN</v>
       </c>
       <c r="K88" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B88,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B88,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210439</v>
       </c>
       <c r="L88" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B88,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B88,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5504210005</v>
       </c>
       <c r="M88" s="2" t="s">
@@ -37228,15 +37228,15 @@
         <v>3909</v>
       </c>
       <c r="J89" s="2" t="str">
-        <f>IF(AND(K89=0,L89=0)=TRUE,"",IF(AND(K89&gt;0,L89&gt;0)=TRUE,VLOOKUP(LEFT(L89,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M89))</f>
+        <f>IF(AND(K89=0,L89=0)=TRUE,"",IF(AND(K89&gt;0,L89&gt;0)=TRUE,VLOOKUP(LEFT(L89,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M89))</f>
         <v>PERBANKAN DAN KEUANGAN</v>
       </c>
       <c r="K89" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B89,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B89,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210476</v>
       </c>
       <c r="L89" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B89,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B89,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5504210012</v>
       </c>
       <c r="M89" s="2" t="s">
@@ -37480,15 +37480,15 @@
         <v>3909</v>
       </c>
       <c r="J90" s="2" t="str">
-        <f>IF(AND(K90=0,L90=0)=TRUE,"",IF(AND(K90&gt;0,L90&gt;0)=TRUE,VLOOKUP(LEFT(L90,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M90))</f>
+        <f>IF(AND(K90=0,L90=0)=TRUE,"",IF(AND(K90&gt;0,L90&gt;0)=TRUE,VLOOKUP(LEFT(L90,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M90))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K90" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B90,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B90,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210500</v>
       </c>
       <c r="L90" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B90,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B90,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210008</v>
       </c>
       <c r="M90" s="2" t="s">
@@ -37738,15 +37738,15 @@
         <v>3909</v>
       </c>
       <c r="J91" s="2" t="str">
-        <f>IF(AND(K91=0,L91=0)=TRUE,"",IF(AND(K91&gt;0,L91&gt;0)=TRUE,VLOOKUP(LEFT(L91,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M91))</f>
+        <f>IF(AND(K91=0,L91=0)=TRUE,"",IF(AND(K91&gt;0,L91&gt;0)=TRUE,VLOOKUP(LEFT(L91,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M91))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K91" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B91,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B91,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211316</v>
       </c>
       <c r="L91" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B91,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B91,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210012</v>
       </c>
       <c r="M91" s="2" t="s">
@@ -37990,15 +37990,15 @@
         <v>3909</v>
       </c>
       <c r="J92" s="2" t="str">
-        <f>IF(AND(K92=0,L92=0)=TRUE,"",IF(AND(K92&gt;0,L92&gt;0)=TRUE,VLOOKUP(LEFT(L92,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M92))</f>
+        <f>IF(AND(K92=0,L92=0)=TRUE,"",IF(AND(K92&gt;0,L92&gt;0)=TRUE,VLOOKUP(LEFT(L92,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M92))</f>
         <v/>
       </c>
       <c r="K92" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B92,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B92,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L92" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B92,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B92,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M92" s="2" t="s">
@@ -38248,15 +38248,15 @@
         <v>3909</v>
       </c>
       <c r="J93" s="2" t="str">
-        <f>IF(AND(K93=0,L93=0)=TRUE,"",IF(AND(K93&gt;0,L93&gt;0)=TRUE,VLOOKUP(LEFT(L93,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M93))</f>
+        <f>IF(AND(K93=0,L93=0)=TRUE,"",IF(AND(K93&gt;0,L93&gt;0)=TRUE,VLOOKUP(LEFT(L93,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M93))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K93" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B93,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B93,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211535</v>
       </c>
       <c r="L93" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B93,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B93,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210003</v>
       </c>
       <c r="M93" s="2" t="s">
@@ -38506,15 +38506,15 @@
         <v>3909</v>
       </c>
       <c r="J94" s="2" t="str">
-        <f>IF(AND(K94=0,L94=0)=TRUE,"",IF(AND(K94&gt;0,L94&gt;0)=TRUE,VLOOKUP(LEFT(L94,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M94))</f>
+        <f>IF(AND(K94=0,L94=0)=TRUE,"",IF(AND(K94&gt;0,L94&gt;0)=TRUE,VLOOKUP(LEFT(L94,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M94))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K94" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B94,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B94,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219580</v>
       </c>
       <c r="L94" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B94,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B94,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210033</v>
       </c>
       <c r="M94" s="2" t="s">
@@ -38758,15 +38758,15 @@
         <v>3909</v>
       </c>
       <c r="J95" s="2" t="str">
-        <f>IF(AND(K95=0,L95=0)=TRUE,"",IF(AND(K95&gt;0,L95&gt;0)=TRUE,VLOOKUP(LEFT(L95,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M95))</f>
+        <f>IF(AND(K95=0,L95=0)=TRUE,"",IF(AND(K95&gt;0,L95&gt;0)=TRUE,VLOOKUP(LEFT(L95,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M95))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K95" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B95,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B95,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219596</v>
       </c>
       <c r="L95" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B95,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B95,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210013</v>
       </c>
       <c r="M95" s="2" t="s">
@@ -39016,15 +39016,15 @@
         <v>3909</v>
       </c>
       <c r="J96" s="2" t="str">
-        <f>IF(AND(K96=0,L96=0)=TRUE,"",IF(AND(K96&gt;0,L96&gt;0)=TRUE,VLOOKUP(LEFT(L96,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M96))</f>
+        <f>IF(AND(K96=0,L96=0)=TRUE,"",IF(AND(K96&gt;0,L96&gt;0)=TRUE,VLOOKUP(LEFT(L96,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M96))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K96" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B96,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B96,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219599</v>
       </c>
       <c r="L96" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B96,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B96,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210025</v>
       </c>
       <c r="M96" s="2" t="s">
@@ -39274,15 +39274,15 @@
         <v>3909</v>
       </c>
       <c r="J97" s="2" t="str">
-        <f>IF(AND(K97=0,L97=0)=TRUE,"",IF(AND(K97&gt;0,L97&gt;0)=TRUE,VLOOKUP(LEFT(L97,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M97))</f>
+        <f>IF(AND(K97=0,L97=0)=TRUE,"",IF(AND(K97&gt;0,L97&gt;0)=TRUE,VLOOKUP(LEFT(L97,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M97))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K97" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B97,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B97,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219604</v>
       </c>
       <c r="L97" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B97,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B97,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210007</v>
       </c>
       <c r="M97" s="2" t="s">
@@ -39532,15 +39532,15 @@
         <v>3909</v>
       </c>
       <c r="J98" s="2" t="str">
-        <f>IF(AND(K98=0,L98=0)=TRUE,"",IF(AND(K98&gt;0,L98&gt;0)=TRUE,VLOOKUP(LEFT(L98,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M98))</f>
+        <f>IF(AND(K98=0,L98=0)=TRUE,"",IF(AND(K98&gt;0,L98&gt;0)=TRUE,VLOOKUP(LEFT(L98,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M98))</f>
         <v>PERBANKAN DAN KEUANGAN</v>
       </c>
       <c r="K98" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B98,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B98,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219641</v>
       </c>
       <c r="L98" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B98,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B98,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5504210016</v>
       </c>
       <c r="M98" s="2" t="s">
@@ -39790,15 +39790,15 @@
         <v>3909</v>
       </c>
       <c r="J99" s="2" t="str">
-        <f>IF(AND(K99=0,L99=0)=TRUE,"",IF(AND(K99&gt;0,L99&gt;0)=TRUE,VLOOKUP(LEFT(L99,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M99))</f>
+        <f>IF(AND(K99=0,L99=0)=TRUE,"",IF(AND(K99&gt;0,L99&gt;0)=TRUE,VLOOKUP(LEFT(L99,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M99))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K99" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B99,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B99,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219665</v>
       </c>
       <c r="L99" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B99,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B99,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210020</v>
       </c>
       <c r="M99" s="2" t="s">
@@ -40042,15 +40042,15 @@
         <v>3909</v>
       </c>
       <c r="J100" s="2" t="str">
-        <f>IF(AND(K100=0,L100=0)=TRUE,"",IF(AND(K100&gt;0,L100&gt;0)=TRUE,VLOOKUP(LEFT(L100,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M100))</f>
+        <f>IF(AND(K100=0,L100=0)=TRUE,"",IF(AND(K100&gt;0,L100&gt;0)=TRUE,VLOOKUP(LEFT(L100,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M100))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K100" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B100,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B100,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219677</v>
       </c>
       <c r="L100" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B100,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B100,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210031</v>
       </c>
       <c r="M100" s="2" t="s">
@@ -40294,15 +40294,15 @@
         <v>3909</v>
       </c>
       <c r="J101" s="2" t="str">
-        <f>IF(AND(K101=0,L101=0)=TRUE,"",IF(AND(K101&gt;0,L101&gt;0)=TRUE,VLOOKUP(LEFT(L101,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M101))</f>
+        <f>IF(AND(K101=0,L101=0)=TRUE,"",IF(AND(K101&gt;0,L101&gt;0)=TRUE,VLOOKUP(LEFT(L101,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M101))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K101" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B101,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B101,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219725</v>
       </c>
       <c r="L101" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B101,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B101,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210024</v>
       </c>
       <c r="M101" s="2" t="s">
@@ -40552,15 +40552,15 @@
         <v>3909</v>
       </c>
       <c r="J102" s="2" t="str">
-        <f>IF(AND(K102=0,L102=0)=TRUE,"",IF(AND(K102&gt;0,L102&gt;0)=TRUE,VLOOKUP(LEFT(L102,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M102))</f>
+        <f>IF(AND(K102=0,L102=0)=TRUE,"",IF(AND(K102&gt;0,L102&gt;0)=TRUE,VLOOKUP(LEFT(L102,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M102))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K102" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B102,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B102,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210217</v>
       </c>
       <c r="L102" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B102,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B102,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210009</v>
       </c>
       <c r="M102" s="2" t="s">
@@ -40810,15 +40810,15 @@
         <v>3909</v>
       </c>
       <c r="J103" s="2" t="str">
-        <f>IF(AND(K103=0,L103=0)=TRUE,"",IF(AND(K103&gt;0,L103&gt;0)=TRUE,VLOOKUP(LEFT(L103,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M103))</f>
+        <f>IF(AND(K103=0,L103=0)=TRUE,"",IF(AND(K103&gt;0,L103&gt;0)=TRUE,VLOOKUP(LEFT(L103,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M103))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K103" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B103,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B103,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210246</v>
       </c>
       <c r="L103" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B103,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B103,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210006</v>
       </c>
       <c r="M103" s="2" t="s">
@@ -41068,15 +41068,15 @@
         <v>3909</v>
       </c>
       <c r="J104" s="2" t="str">
-        <f>IF(AND(K104=0,L104=0)=TRUE,"",IF(AND(K104&gt;0,L104&gt;0)=TRUE,VLOOKUP(LEFT(L104,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M104))</f>
+        <f>IF(AND(K104=0,L104=0)=TRUE,"",IF(AND(K104&gt;0,L104&gt;0)=TRUE,VLOOKUP(LEFT(L104,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M104))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K104" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B104,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B104,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210265</v>
       </c>
       <c r="L104" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B104,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B104,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210011</v>
       </c>
       <c r="M104" s="2" t="s">
@@ -41326,15 +41326,15 @@
         <v>3909</v>
       </c>
       <c r="J105" s="2" t="str">
-        <f>IF(AND(K105=0,L105=0)=TRUE,"",IF(AND(K105&gt;0,L105&gt;0)=TRUE,VLOOKUP(LEFT(L105,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M105))</f>
+        <f>IF(AND(K105=0,L105=0)=TRUE,"",IF(AND(K105&gt;0,L105&gt;0)=TRUE,VLOOKUP(LEFT(L105,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M105))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K105" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B105,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B105,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210322</v>
       </c>
       <c r="L105" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B105,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B105,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210002</v>
       </c>
       <c r="M105" s="2" t="s">
@@ -41584,15 +41584,15 @@
         <v>3909</v>
       </c>
       <c r="J106" s="2" t="str">
-        <f>IF(AND(K106=0,L106=0)=TRUE,"",IF(AND(K106&gt;0,L106&gt;0)=TRUE,VLOOKUP(LEFT(L106,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M106))</f>
+        <f>IF(AND(K106=0,L106=0)=TRUE,"",IF(AND(K106&gt;0,L106&gt;0)=TRUE,VLOOKUP(LEFT(L106,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M106))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K106" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B106,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B106,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210385</v>
       </c>
       <c r="L106" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B106,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B106,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210026</v>
       </c>
       <c r="M106" s="2" t="s">
@@ -41836,15 +41836,15 @@
         <v>3909</v>
       </c>
       <c r="J107" s="2" t="str">
-        <f>IF(AND(K107=0,L107=0)=TRUE,"",IF(AND(K107&gt;0,L107&gt;0)=TRUE,VLOOKUP(LEFT(L107,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M107))</f>
+        <f>IF(AND(K107=0,L107=0)=TRUE,"",IF(AND(K107&gt;0,L107&gt;0)=TRUE,VLOOKUP(LEFT(L107,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M107))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K107" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B107,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B107,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210466</v>
       </c>
       <c r="L107" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B107,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B107,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210016</v>
       </c>
       <c r="M107" s="2" t="s">
@@ -42094,15 +42094,15 @@
         <v>3909</v>
       </c>
       <c r="J108" s="2" t="str">
-        <f>IF(AND(K108=0,L108=0)=TRUE,"",IF(AND(K108&gt;0,L108&gt;0)=TRUE,VLOOKUP(LEFT(L108,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M108))</f>
+        <f>IF(AND(K108=0,L108=0)=TRUE,"",IF(AND(K108&gt;0,L108&gt;0)=TRUE,VLOOKUP(LEFT(L108,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M108))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K108" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B108,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B108,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211426</v>
       </c>
       <c r="L108" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B108,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B108,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210032</v>
       </c>
       <c r="M108" s="2" t="s">
@@ -42352,15 +42352,15 @@
         <v>3909</v>
       </c>
       <c r="J109" s="2" t="str">
-        <f>IF(AND(K109=0,L109=0)=TRUE,"",IF(AND(K109&gt;0,L109&gt;0)=TRUE,VLOOKUP(LEFT(L109,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M109))</f>
+        <f>IF(AND(K109=0,L109=0)=TRUE,"",IF(AND(K109&gt;0,L109&gt;0)=TRUE,VLOOKUP(LEFT(L109,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M109))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K109" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B109,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B109,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211522</v>
       </c>
       <c r="L109" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B109,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B109,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210022</v>
       </c>
       <c r="M109" s="2" t="s">
@@ -42610,15 +42610,15 @@
         <v>3909</v>
       </c>
       <c r="J110" s="2" t="str">
-        <f>IF(AND(K110=0,L110=0)=TRUE,"",IF(AND(K110&gt;0,L110&gt;0)=TRUE,VLOOKUP(LEFT(L110,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M110))</f>
+        <f>IF(AND(K110=0,L110=0)=TRUE,"",IF(AND(K110&gt;0,L110&gt;0)=TRUE,VLOOKUP(LEFT(L110,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M110))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K110" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B110,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B110,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211549</v>
       </c>
       <c r="L110" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B110,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B110,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210014</v>
       </c>
       <c r="M110" s="2" t="s">
@@ -42868,15 +42868,15 @@
         <v>3909</v>
       </c>
       <c r="J111" s="2" t="str">
-        <f>IF(AND(K111=0,L111=0)=TRUE,"",IF(AND(K111&gt;0,L111&gt;0)=TRUE,VLOOKUP(LEFT(L111,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M111))</f>
+        <f>IF(AND(K111=0,L111=0)=TRUE,"",IF(AND(K111&gt;0,L111&gt;0)=TRUE,VLOOKUP(LEFT(L111,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M111))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K111" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B111,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B111,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211574</v>
       </c>
       <c r="L111" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B111,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B111,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210029</v>
       </c>
       <c r="M111" s="2" t="s">
@@ -43126,15 +43126,15 @@
         <v>3909</v>
       </c>
       <c r="J112" s="2" t="str">
-        <f>IF(AND(K112=0,L112=0)=TRUE,"",IF(AND(K112&gt;0,L112&gt;0)=TRUE,VLOOKUP(LEFT(L112,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M112))</f>
+        <f>IF(AND(K112=0,L112=0)=TRUE,"",IF(AND(K112&gt;0,L112&gt;0)=TRUE,VLOOKUP(LEFT(L112,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M112))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K112" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B112,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B112,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210275</v>
       </c>
       <c r="L112" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B112,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B112,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210005</v>
       </c>
       <c r="M112" s="2" t="s">
@@ -43384,15 +43384,15 @@
         <v>3909</v>
       </c>
       <c r="J113" s="2" t="str">
-        <f>IF(AND(K113=0,L113=0)=TRUE,"",IF(AND(K113&gt;0,L113&gt;0)=TRUE,VLOOKUP(LEFT(L113,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M113))</f>
+        <f>IF(AND(K113=0,L113=0)=TRUE,"",IF(AND(K113&gt;0,L113&gt;0)=TRUE,VLOOKUP(LEFT(L113,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M113))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K113" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B113,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B113,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210327</v>
       </c>
       <c r="L113" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B113,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B113,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210020</v>
       </c>
       <c r="M113" s="2" t="s">
@@ -43642,15 +43642,15 @@
         <v>3909</v>
       </c>
       <c r="J114" s="2" t="str">
-        <f>IF(AND(K114=0,L114=0)=TRUE,"",IF(AND(K114&gt;0,L114&gt;0)=TRUE,VLOOKUP(LEFT(L114,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M114))</f>
+        <f>IF(AND(K114=0,L114=0)=TRUE,"",IF(AND(K114&gt;0,L114&gt;0)=TRUE,VLOOKUP(LEFT(L114,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M114))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K114" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B114,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B114,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210374</v>
       </c>
       <c r="L114" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B114,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B114,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210015</v>
       </c>
       <c r="M114" s="2" t="s">
@@ -43894,15 +43894,15 @@
         <v>3909</v>
       </c>
       <c r="J115" s="2" t="str">
-        <f>IF(AND(K115=0,L115=0)=TRUE,"",IF(AND(K115&gt;0,L115&gt;0)=TRUE,VLOOKUP(LEFT(L115,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M115))</f>
+        <f>IF(AND(K115=0,L115=0)=TRUE,"",IF(AND(K115&gt;0,L115&gt;0)=TRUE,VLOOKUP(LEFT(L115,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M115))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K115" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B115,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B115,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211315</v>
       </c>
       <c r="L115" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B115,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B115,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210011</v>
       </c>
       <c r="M115" s="2" t="s">
@@ -44152,15 +44152,15 @@
         <v>3909</v>
       </c>
       <c r="J116" s="2" t="str">
-        <f>IF(AND(K116=0,L116=0)=TRUE,"",IF(AND(K116&gt;0,L116&gt;0)=TRUE,VLOOKUP(LEFT(L116,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M116))</f>
+        <f>IF(AND(K116=0,L116=0)=TRUE,"",IF(AND(K116&gt;0,L116&gt;0)=TRUE,VLOOKUP(LEFT(L116,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M116))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K116" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B116,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B116,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219617</v>
       </c>
       <c r="L116" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B116,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B116,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210014</v>
       </c>
       <c r="M116" s="2" t="s">
@@ -44410,15 +44410,15 @@
         <v>3909</v>
       </c>
       <c r="J117" s="2" t="str">
-        <f>IF(AND(K117=0,L117=0)=TRUE,"",IF(AND(K117&gt;0,L117&gt;0)=TRUE,VLOOKUP(LEFT(L117,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M117))</f>
+        <f>IF(AND(K117=0,L117=0)=TRUE,"",IF(AND(K117&gt;0,L117&gt;0)=TRUE,VLOOKUP(LEFT(L117,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M117))</f>
         <v>PERBANKAN DAN KEUANGAN</v>
       </c>
       <c r="K117" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B117,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B117,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219627</v>
       </c>
       <c r="L117" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B117,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B117,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5504210006</v>
       </c>
       <c r="M117" s="2" t="s">
@@ -44662,15 +44662,15 @@
         <v>3909</v>
       </c>
       <c r="J118" s="2" t="str">
-        <f>IF(AND(K118=0,L118=0)=TRUE,"",IF(AND(K118&gt;0,L118&gt;0)=TRUE,VLOOKUP(LEFT(L118,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M118))</f>
+        <f>IF(AND(K118=0,L118=0)=TRUE,"",IF(AND(K118&gt;0,L118&gt;0)=TRUE,VLOOKUP(LEFT(L118,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M118))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K118" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B118,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B118,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219638</v>
       </c>
       <c r="L118" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B118,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B118,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210032</v>
       </c>
       <c r="M118" s="2" t="s">
@@ -44920,15 +44920,15 @@
         <v>3909</v>
       </c>
       <c r="J119" s="2" t="str">
-        <f>IF(AND(K119=0,L119=0)=TRUE,"",IF(AND(K119&gt;0,L119&gt;0)=TRUE,VLOOKUP(LEFT(L119,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M119))</f>
+        <f>IF(AND(K119=0,L119=0)=TRUE,"",IF(AND(K119&gt;0,L119&gt;0)=TRUE,VLOOKUP(LEFT(L119,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M119))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K119" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B119,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B119,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219660</v>
       </c>
       <c r="L119" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B119,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B119,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210027</v>
       </c>
       <c r="M119" s="2" t="s">
@@ -45178,15 +45178,15 @@
         <v>3909</v>
       </c>
       <c r="J120" s="2" t="str">
-        <f>IF(AND(K120=0,L120=0)=TRUE,"",IF(AND(K120&gt;0,L120&gt;0)=TRUE,VLOOKUP(LEFT(L120,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M120))</f>
+        <f>IF(AND(K120=0,L120=0)=TRUE,"",IF(AND(K120&gt;0,L120&gt;0)=TRUE,VLOOKUP(LEFT(L120,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M120))</f>
         <v>PERBANKAN DAN KEUANGAN</v>
       </c>
       <c r="K120" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B120,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B120,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219746</v>
       </c>
       <c r="L120" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B120,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B120,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5504210019</v>
       </c>
       <c r="M120" s="2" t="s">
@@ -45436,15 +45436,15 @@
         <v>3909</v>
       </c>
       <c r="J121" s="2" t="str">
-        <f>IF(AND(K121=0,L121=0)=TRUE,"",IF(AND(K121&gt;0,L121&gt;0)=TRUE,VLOOKUP(LEFT(L121,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M121))</f>
+        <f>IF(AND(K121=0,L121=0)=TRUE,"",IF(AND(K121&gt;0,L121&gt;0)=TRUE,VLOOKUP(LEFT(L121,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M121))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K121" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B121,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B121,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219748</v>
       </c>
       <c r="L121" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B121,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B121,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210007</v>
       </c>
       <c r="M121" s="2" t="s">
@@ -45688,15 +45688,15 @@
         <v>3909</v>
       </c>
       <c r="J122" s="2" t="str">
-        <f>IF(AND(K122=0,L122=0)=TRUE,"",IF(AND(K122&gt;0,L122&gt;0)=TRUE,VLOOKUP(LEFT(L122,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M122))</f>
+        <f>IF(AND(K122=0,L122=0)=TRUE,"",IF(AND(K122&gt;0,L122&gt;0)=TRUE,VLOOKUP(LEFT(L122,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M122))</f>
         <v>PERBANKAN DAN KEUANGAN</v>
       </c>
       <c r="K122" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B122,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B122,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219556</v>
       </c>
       <c r="L122" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B122,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B122,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M122" s="2" t="s">
@@ -45946,15 +45946,15 @@
         <v>3909</v>
       </c>
       <c r="J123" s="2" t="str">
-        <f>IF(AND(K123=0,L123=0)=TRUE,"",IF(AND(K123&gt;0,L123&gt;0)=TRUE,VLOOKUP(LEFT(L123,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M123))</f>
+        <f>IF(AND(K123=0,L123=0)=TRUE,"",IF(AND(K123&gt;0,L123&gt;0)=TRUE,VLOOKUP(LEFT(L123,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M123))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K123" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B123,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B123,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219565</v>
       </c>
       <c r="L123" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B123,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B123,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210018</v>
       </c>
       <c r="M123" s="2" t="s">
@@ -46204,15 +46204,15 @@
         <v>3909</v>
       </c>
       <c r="J124" s="2" t="str">
-        <f>IF(AND(K124=0,L124=0)=TRUE,"",IF(AND(K124&gt;0,L124&gt;0)=TRUE,VLOOKUP(LEFT(L124,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M124))</f>
+        <f>IF(AND(K124=0,L124=0)=TRUE,"",IF(AND(K124&gt;0,L124&gt;0)=TRUE,VLOOKUP(LEFT(L124,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M124))</f>
         <v>PERBANKAN DAN KEUANGAN</v>
       </c>
       <c r="K124" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B124,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B124,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219566</v>
       </c>
       <c r="L124" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B124,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B124,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5504210008</v>
       </c>
       <c r="M124" s="2" t="s">
@@ -46462,15 +46462,15 @@
         <v>3909</v>
       </c>
       <c r="J125" s="2" t="str">
-        <f>IF(AND(K125=0,L125=0)=TRUE,"",IF(AND(K125&gt;0,L125&gt;0)=TRUE,VLOOKUP(LEFT(L125,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M125))</f>
+        <f>IF(AND(K125=0,L125=0)=TRUE,"",IF(AND(K125&gt;0,L125&gt;0)=TRUE,VLOOKUP(LEFT(L125,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M125))</f>
         <v>PERPAJAKAN</v>
       </c>
       <c r="K125" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B125,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B125,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219568</v>
       </c>
       <c r="L125" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B125,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B125,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5503210028</v>
       </c>
       <c r="M125" s="2" t="s">
@@ -46714,15 +46714,15 @@
         <v>3909</v>
       </c>
       <c r="J126" s="2" t="str">
-        <f>IF(AND(K126=0,L126=0)=TRUE,"",IF(AND(K126&gt;0,L126&gt;0)=TRUE,VLOOKUP(LEFT(L126,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M126))</f>
+        <f>IF(AND(K126=0,L126=0)=TRUE,"",IF(AND(K126&gt;0,L126&gt;0)=TRUE,VLOOKUP(LEFT(L126,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M126))</f>
         <v>PERBANKAN DAN KEUANGAN</v>
       </c>
       <c r="K126" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B126,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B126,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219591</v>
       </c>
       <c r="L126" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B126,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B126,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5504210010</v>
       </c>
       <c r="M126" s="2" t="s">
@@ -46966,15 +46966,15 @@
         <v>3909</v>
       </c>
       <c r="J127" s="2" t="str">
-        <f>IF(AND(K127=0,L127=0)=TRUE,"",IF(AND(K127&gt;0,L127&gt;0)=TRUE,VLOOKUP(LEFT(L127,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M127))</f>
+        <f>IF(AND(K127=0,L127=0)=TRUE,"",IF(AND(K127&gt;0,L127&gt;0)=TRUE,VLOOKUP(LEFT(L127,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M127))</f>
         <v>PERBANKAN DAN KEUANGAN</v>
       </c>
       <c r="K127" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B127,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B127,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219594</v>
       </c>
       <c r="L127" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B127,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B127,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5504210002</v>
       </c>
       <c r="M127" s="2" t="s">
@@ -47218,15 +47218,15 @@
         <v>3909</v>
       </c>
       <c r="J128" s="2" t="str">
-        <f>IF(AND(K128=0,L128=0)=TRUE,"",IF(AND(K128&gt;0,L128&gt;0)=TRUE,VLOOKUP(LEFT(L128,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M128))</f>
+        <f>IF(AND(K128=0,L128=0)=TRUE,"",IF(AND(K128&gt;0,L128&gt;0)=TRUE,VLOOKUP(LEFT(L128,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M128))</f>
         <v>AKUNTANSI D3</v>
       </c>
       <c r="K128" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B128,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B128,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219672</v>
       </c>
       <c r="L128" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B128,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B128,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5501210028</v>
       </c>
       <c r="M128" s="2" t="s">
@@ -47476,15 +47476,15 @@
         <v>3909</v>
       </c>
       <c r="J129" s="2" t="str">
-        <f>IF(AND(K129=0,L129=0)=TRUE,"",IF(AND(K129&gt;0,L129&gt;0)=TRUE,VLOOKUP(LEFT(L129,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M129))</f>
+        <f>IF(AND(K129=0,L129=0)=TRUE,"",IF(AND(K129&gt;0,L129&gt;0)=TRUE,VLOOKUP(LEFT(L129,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M129))</f>
         <v>PERBANKAN DAN KEUANGAN</v>
       </c>
       <c r="K129" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B129,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B129,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219696</v>
       </c>
       <c r="L129" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B129,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B129,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5504210015</v>
       </c>
       <c r="M129" s="2" t="s">
@@ -47728,15 +47728,15 @@
         <v>3909</v>
       </c>
       <c r="J130" s="2" t="str">
-        <f>IF(AND(K130=0,L130=0)=TRUE,"",IF(AND(K130&gt;0,L130&gt;0)=TRUE,VLOOKUP(LEFT(L130,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M130))</f>
+        <f>IF(AND(K130=0,L130=0)=TRUE,"",IF(AND(K130&gt;0,L130&gt;0)=TRUE,VLOOKUP(LEFT(L130,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M130))</f>
         <v/>
       </c>
       <c r="K130" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B130,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B130,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L130" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B130,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B130,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M130" s="2" t="s">
@@ -47986,15 +47986,15 @@
         <v>3909</v>
       </c>
       <c r="J131" s="2" t="str">
-        <f>IF(AND(K131=0,L131=0)=TRUE,"",IF(AND(K131&gt;0,L131&gt;0)=TRUE,VLOOKUP(LEFT(L131,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M131))</f>
+        <f>IF(AND(K131=0,L131=0)=TRUE,"",IF(AND(K131&gt;0,L131&gt;0)=TRUE,VLOOKUP(LEFT(L131,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M131))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K131" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B131,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B131,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219702</v>
       </c>
       <c r="L131" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B131,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B131,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210022</v>
       </c>
       <c r="M131" s="2" t="s">
@@ -48244,15 +48244,15 @@
         <v>3909</v>
       </c>
       <c r="J132" s="2" t="str">
-        <f>IF(AND(K132=0,L132=0)=TRUE,"",IF(AND(K132&gt;0,L132&gt;0)=TRUE,VLOOKUP(LEFT(L132,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M132))</f>
+        <f>IF(AND(K132=0,L132=0)=TRUE,"",IF(AND(K132&gt;0,L132&gt;0)=TRUE,VLOOKUP(LEFT(L132,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M132))</f>
         <v>MANAJEMEN PEMASARAN (D3)</v>
       </c>
       <c r="K132" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B132,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B132,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219707</v>
       </c>
       <c r="L132" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B132,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B132,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5502210023</v>
       </c>
       <c r="M132" s="2" t="s">
@@ -48502,16 +48502,16 @@
         <v>3910</v>
       </c>
       <c r="J133" s="2" t="str">
-        <f>IF(AND(K133=0,L133=0)=TRUE,"",IF(AND(K133&gt;0,L133&gt;0)=TRUE,VLOOKUP(LEFT(L133,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M133))</f>
+        <f>IF(AND(K133=0,L133=0)=TRUE,"",IF(AND(K133&gt;0,L133&gt;0)=TRUE,VLOOKUP(LEFT(L133,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M133))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K133" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B133,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B133,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210785</v>
       </c>
       <c r="L133" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B133,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B133,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <v>8801210076</v>
       </c>
       <c r="M133" s="2" t="s">
         <v>1977</v>
@@ -48722,7 +48722,7 @@
       </c>
       <c r="CG133" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>tidak</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="134" spans="1:85" x14ac:dyDescent="0.25">
@@ -48754,15 +48754,15 @@
         <v>3910</v>
       </c>
       <c r="J134" s="2" t="str">
-        <f>IF(AND(K134=0,L134=0)=TRUE,"",IF(AND(K134&gt;0,L134&gt;0)=TRUE,VLOOKUP(LEFT(L134,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M134))</f>
+        <f>IF(AND(K134=0,L134=0)=TRUE,"",IF(AND(K134&gt;0,L134&gt;0)=TRUE,VLOOKUP(LEFT(L134,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M134))</f>
         <v/>
       </c>
       <c r="K134" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B134,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B134,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L134" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B134,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B134,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M134" s="2" t="s">
@@ -49012,15 +49012,15 @@
         <v>3910</v>
       </c>
       <c r="J135" s="2" t="str">
-        <f>IF(AND(K135=0,L135=0)=TRUE,"",IF(AND(K135&gt;0,L135&gt;0)=TRUE,VLOOKUP(LEFT(L135,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M135))</f>
+        <f>IF(AND(K135=0,L135=0)=TRUE,"",IF(AND(K135&gt;0,L135&gt;0)=TRUE,VLOOKUP(LEFT(L135,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M135))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K135" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B135,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B135,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210850</v>
       </c>
       <c r="L135" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B135,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B135,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210009</v>
       </c>
       <c r="M135" s="2" t="s">
@@ -49270,15 +49270,15 @@
         <v>3910</v>
       </c>
       <c r="J136" s="2" t="str">
-        <f>IF(AND(K136=0,L136=0)=TRUE,"",IF(AND(K136&gt;0,L136&gt;0)=TRUE,VLOOKUP(LEFT(L136,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M136))</f>
+        <f>IF(AND(K136=0,L136=0)=TRUE,"",IF(AND(K136&gt;0,L136&gt;0)=TRUE,VLOOKUP(LEFT(L136,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M136))</f>
         <v/>
       </c>
       <c r="K136" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B136,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B136,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L136" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B136,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B136,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M136" s="2" t="s">
@@ -49522,15 +49522,15 @@
         <v>3910</v>
       </c>
       <c r="J137" s="2" t="str">
-        <f>IF(AND(K137=0,L137=0)=TRUE,"",IF(AND(K137&gt;0,L137&gt;0)=TRUE,VLOOKUP(LEFT(L137,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M137))</f>
+        <f>IF(AND(K137=0,L137=0)=TRUE,"",IF(AND(K137&gt;0,L137&gt;0)=TRUE,VLOOKUP(LEFT(L137,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M137))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K137" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B137,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B137,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210956</v>
       </c>
       <c r="L137" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B137,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B137,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210003</v>
       </c>
       <c r="M137" s="2" t="s">
@@ -49774,15 +49774,15 @@
         <v>3910</v>
       </c>
       <c r="J138" s="2" t="str">
-        <f>IF(AND(K138=0,L138=0)=TRUE,"",IF(AND(K138&gt;0,L138&gt;0)=TRUE,VLOOKUP(LEFT(L138,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M138))</f>
+        <f>IF(AND(K138=0,L138=0)=TRUE,"",IF(AND(K138&gt;0,L138&gt;0)=TRUE,VLOOKUP(LEFT(L138,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M138))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K138" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B138,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B138,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210959</v>
       </c>
       <c r="L138" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B138,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B138,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210012</v>
       </c>
       <c r="M138" s="2" t="s">
@@ -50032,15 +50032,15 @@
         <v>3910</v>
       </c>
       <c r="J139" s="2" t="str">
-        <f>IF(AND(K139=0,L139=0)=TRUE,"",IF(AND(K139&gt;0,L139&gt;0)=TRUE,VLOOKUP(LEFT(L139,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M139))</f>
+        <f>IF(AND(K139=0,L139=0)=TRUE,"",IF(AND(K139&gt;0,L139&gt;0)=TRUE,VLOOKUP(LEFT(L139,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M139))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K139" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B139,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B139,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210970</v>
       </c>
       <c r="L139" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B139,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B139,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210021</v>
       </c>
       <c r="M139" s="2" t="s">
@@ -50290,15 +50290,15 @@
         <v>3910</v>
       </c>
       <c r="J140" s="2" t="str">
-        <f>IF(AND(K140=0,L140=0)=TRUE,"",IF(AND(K140&gt;0,L140&gt;0)=TRUE,VLOOKUP(LEFT(L140,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M140))</f>
+        <f>IF(AND(K140=0,L140=0)=TRUE,"",IF(AND(K140&gt;0,L140&gt;0)=TRUE,VLOOKUP(LEFT(L140,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M140))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K140" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B140,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B140,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210996</v>
       </c>
       <c r="L140" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B140,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B140,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210018</v>
       </c>
       <c r="M140" s="2" t="s">
@@ -50548,15 +50548,15 @@
         <v>3910</v>
       </c>
       <c r="J141" s="2" t="str">
-        <f>IF(AND(K141=0,L141=0)=TRUE,"",IF(AND(K141&gt;0,L141&gt;0)=TRUE,VLOOKUP(LEFT(L141,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M141))</f>
+        <f>IF(AND(K141=0,L141=0)=TRUE,"",IF(AND(K141&gt;0,L141&gt;0)=TRUE,VLOOKUP(LEFT(L141,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M141))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K141" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B141,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B141,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211002</v>
       </c>
       <c r="L141" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B141,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B141,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210061</v>
       </c>
       <c r="M141" s="2" t="s">
@@ -50806,15 +50806,15 @@
         <v>3910</v>
       </c>
       <c r="J142" s="2" t="str">
-        <f>IF(AND(K142=0,L142=0)=TRUE,"",IF(AND(K142&gt;0,L142&gt;0)=TRUE,VLOOKUP(LEFT(L142,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M142))</f>
+        <f>IF(AND(K142=0,L142=0)=TRUE,"",IF(AND(K142&gt;0,L142&gt;0)=TRUE,VLOOKUP(LEFT(L142,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M142))</f>
         <v/>
       </c>
       <c r="K142" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B142,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B142,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L142" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B142,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B142,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M142" s="2" t="s">
@@ -51064,15 +51064,15 @@
         <v>3910</v>
       </c>
       <c r="J143" s="2" t="str">
-        <f>IF(AND(K143=0,L143=0)=TRUE,"",IF(AND(K143&gt;0,L143&gt;0)=TRUE,VLOOKUP(LEFT(L143,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M143))</f>
+        <f>IF(AND(K143=0,L143=0)=TRUE,"",IF(AND(K143&gt;0,L143&gt;0)=TRUE,VLOOKUP(LEFT(L143,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M143))</f>
         <v/>
       </c>
       <c r="K143" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B143,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B143,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L143" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B143,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B143,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M143" s="2" t="s">
@@ -51322,15 +51322,15 @@
         <v>3910</v>
       </c>
       <c r="J144" s="2" t="str">
-        <f>IF(AND(K144=0,L144=0)=TRUE,"",IF(AND(K144&gt;0,L144&gt;0)=TRUE,VLOOKUP(LEFT(L144,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M144))</f>
+        <f>IF(AND(K144=0,L144=0)=TRUE,"",IF(AND(K144&gt;0,L144&gt;0)=TRUE,VLOOKUP(LEFT(L144,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M144))</f>
         <v/>
       </c>
       <c r="K144" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B144,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B144,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L144" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B144,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B144,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M144" s="2" t="s">
@@ -51580,15 +51580,15 @@
         <v>3910</v>
       </c>
       <c r="J145" s="2" t="str">
-        <f>IF(AND(K145=0,L145=0)=TRUE,"",IF(AND(K145&gt;0,L145&gt;0)=TRUE,VLOOKUP(LEFT(L145,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M145))</f>
+        <f>IF(AND(K145=0,L145=0)=TRUE,"",IF(AND(K145&gt;0,L145&gt;0)=TRUE,VLOOKUP(LEFT(L145,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M145))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K145" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B145,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B145,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211011</v>
       </c>
       <c r="L145" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B145,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B145,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210035</v>
       </c>
       <c r="M145" s="2" t="s">
@@ -51838,15 +51838,15 @@
         <v>3910</v>
       </c>
       <c r="J146" s="2" t="str">
-        <f>IF(AND(K146=0,L146=0)=TRUE,"",IF(AND(K146&gt;0,L146&gt;0)=TRUE,VLOOKUP(LEFT(L146,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M146))</f>
+        <f>IF(AND(K146=0,L146=0)=TRUE,"",IF(AND(K146&gt;0,L146&gt;0)=TRUE,VLOOKUP(LEFT(L146,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M146))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K146" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B146,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B146,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211021</v>
       </c>
       <c r="L146" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B146,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B146,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210028</v>
       </c>
       <c r="M146" s="2" t="s">
@@ -52090,15 +52090,15 @@
         <v>3910</v>
       </c>
       <c r="J147" s="2" t="str">
-        <f>IF(AND(K147=0,L147=0)=TRUE,"",IF(AND(K147&gt;0,L147&gt;0)=TRUE,VLOOKUP(LEFT(L147,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M147))</f>
+        <f>IF(AND(K147=0,L147=0)=TRUE,"",IF(AND(K147&gt;0,L147&gt;0)=TRUE,VLOOKUP(LEFT(L147,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M147))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K147" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B147,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B147,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211023</v>
       </c>
       <c r="L147" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B147,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B147,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210055</v>
       </c>
       <c r="M147" s="2" t="s">
@@ -52348,15 +52348,15 @@
         <v>3910</v>
       </c>
       <c r="J148" s="2" t="str">
-        <f>IF(AND(K148=0,L148=0)=TRUE,"",IF(AND(K148&gt;0,L148&gt;0)=TRUE,VLOOKUP(LEFT(L148,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M148))</f>
+        <f>IF(AND(K148=0,L148=0)=TRUE,"",IF(AND(K148&gt;0,L148&gt;0)=TRUE,VLOOKUP(LEFT(L148,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M148))</f>
         <v/>
       </c>
       <c r="K148" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B148,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B148,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L148" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B148,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B148,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M148" s="2" t="s">
@@ -52600,15 +52600,15 @@
         <v>3910</v>
       </c>
       <c r="J149" s="2" t="str">
-        <f>IF(AND(K149=0,L149=0)=TRUE,"",IF(AND(K149&gt;0,L149&gt;0)=TRUE,VLOOKUP(LEFT(L149,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M149))</f>
+        <f>IF(AND(K149=0,L149=0)=TRUE,"",IF(AND(K149&gt;0,L149&gt;0)=TRUE,VLOOKUP(LEFT(L149,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M149))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K149" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B149,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B149,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211031</v>
       </c>
       <c r="L149" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B149,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B149,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M149" s="2" t="s">
@@ -52858,15 +52858,15 @@
         <v>3910</v>
       </c>
       <c r="J150" s="2" t="str">
-        <f>IF(AND(K150=0,L150=0)=TRUE,"",IF(AND(K150&gt;0,L150&gt;0)=TRUE,VLOOKUP(LEFT(L150,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M150))</f>
+        <f>IF(AND(K150=0,L150=0)=TRUE,"",IF(AND(K150&gt;0,L150&gt;0)=TRUE,VLOOKUP(LEFT(L150,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M150))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K150" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B150,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B150,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211032</v>
       </c>
       <c r="L150" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B150,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B150,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210036</v>
       </c>
       <c r="M150" s="2" t="s">
@@ -53116,15 +53116,15 @@
         <v>3910</v>
       </c>
       <c r="J151" s="2" t="str">
-        <f>IF(AND(K151=0,L151=0)=TRUE,"",IF(AND(K151&gt;0,L151&gt;0)=TRUE,VLOOKUP(LEFT(L151,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M151))</f>
+        <f>IF(AND(K151=0,L151=0)=TRUE,"",IF(AND(K151&gt;0,L151&gt;0)=TRUE,VLOOKUP(LEFT(L151,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M151))</f>
         <v/>
       </c>
       <c r="K151" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B151,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B151,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L151" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B151,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B151,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M151" s="2" t="s">
@@ -53374,15 +53374,15 @@
         <v>3910</v>
       </c>
       <c r="J152" s="2" t="str">
-        <f>IF(AND(K152=0,L152=0)=TRUE,"",IF(AND(K152&gt;0,L152&gt;0)=TRUE,VLOOKUP(LEFT(L152,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M152))</f>
+        <f>IF(AND(K152=0,L152=0)=TRUE,"",IF(AND(K152&gt;0,L152&gt;0)=TRUE,VLOOKUP(LEFT(L152,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M152))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K152" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B152,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B152,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211036</v>
       </c>
       <c r="L152" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B152,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B152,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210038</v>
       </c>
       <c r="M152" s="2" t="s">
@@ -53632,15 +53632,15 @@
         <v>3910</v>
       </c>
       <c r="J153" s="2" t="str">
-        <f>IF(AND(K153=0,L153=0)=TRUE,"",IF(AND(K153&gt;0,L153&gt;0)=TRUE,VLOOKUP(LEFT(L153,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M153))</f>
+        <f>IF(AND(K153=0,L153=0)=TRUE,"",IF(AND(K153&gt;0,L153&gt;0)=TRUE,VLOOKUP(LEFT(L153,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M153))</f>
         <v/>
       </c>
       <c r="K153" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B153,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B153,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L153" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B153,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B153,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M153" s="2" t="s">
@@ -53890,15 +53890,15 @@
         <v>3910</v>
       </c>
       <c r="J154" s="2" t="str">
-        <f>IF(AND(K154=0,L154=0)=TRUE,"",IF(AND(K154&gt;0,L154&gt;0)=TRUE,VLOOKUP(LEFT(L154,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M154))</f>
+        <f>IF(AND(K154=0,L154=0)=TRUE,"",IF(AND(K154&gt;0,L154&gt;0)=TRUE,VLOOKUP(LEFT(L154,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M154))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K154" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B154,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B154,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211044</v>
       </c>
       <c r="L154" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B154,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B154,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210024</v>
       </c>
       <c r="M154" s="2" t="s">
@@ -54142,15 +54142,15 @@
         <v>3910</v>
       </c>
       <c r="J155" s="2" t="str">
-        <f>IF(AND(K155=0,L155=0)=TRUE,"",IF(AND(K155&gt;0,L155&gt;0)=TRUE,VLOOKUP(LEFT(L155,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M155))</f>
+        <f>IF(AND(K155=0,L155=0)=TRUE,"",IF(AND(K155&gt;0,L155&gt;0)=TRUE,VLOOKUP(LEFT(L155,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M155))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K155" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B155,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B155,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211049</v>
       </c>
       <c r="L155" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B155,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B155,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210059</v>
       </c>
       <c r="M155" s="2" t="s">
@@ -54400,15 +54400,15 @@
         <v>3910</v>
       </c>
       <c r="J156" s="2" t="str">
-        <f>IF(AND(K156=0,L156=0)=TRUE,"",IF(AND(K156&gt;0,L156&gt;0)=TRUE,VLOOKUP(LEFT(L156,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M156))</f>
+        <f>IF(AND(K156=0,L156=0)=TRUE,"",IF(AND(K156&gt;0,L156&gt;0)=TRUE,VLOOKUP(LEFT(L156,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M156))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K156" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B156,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B156,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211054</v>
       </c>
       <c r="L156" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B156,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B156,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210052</v>
       </c>
       <c r="M156" s="2" t="s">
@@ -54652,15 +54652,15 @@
         <v>3910</v>
       </c>
       <c r="J157" s="2" t="str">
-        <f>IF(AND(K157=0,L157=0)=TRUE,"",IF(AND(K157&gt;0,L157&gt;0)=TRUE,VLOOKUP(LEFT(L157,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M157))</f>
+        <f>IF(AND(K157=0,L157=0)=TRUE,"",IF(AND(K157&gt;0,L157&gt;0)=TRUE,VLOOKUP(LEFT(L157,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M157))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K157" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B157,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B157,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211062</v>
       </c>
       <c r="L157" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B157,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B157,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210056</v>
       </c>
       <c r="M157" s="2" t="s">
@@ -54904,15 +54904,15 @@
         <v>3910</v>
       </c>
       <c r="J158" s="2" t="str">
-        <f>IF(AND(K158=0,L158=0)=TRUE,"",IF(AND(K158&gt;0,L158&gt;0)=TRUE,VLOOKUP(LEFT(L158,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M158))</f>
+        <f>IF(AND(K158=0,L158=0)=TRUE,"",IF(AND(K158&gt;0,L158&gt;0)=TRUE,VLOOKUP(LEFT(L158,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M158))</f>
         <v/>
       </c>
       <c r="K158" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B158,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B158,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L158" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B158,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B158,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M158" s="2" t="s">
@@ -55162,15 +55162,15 @@
         <v>3910</v>
       </c>
       <c r="J159" s="2" t="str">
-        <f>IF(AND(K159=0,L159=0)=TRUE,"",IF(AND(K159&gt;0,L159&gt;0)=TRUE,VLOOKUP(LEFT(L159,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M159))</f>
+        <f>IF(AND(K159=0,L159=0)=TRUE,"",IF(AND(K159&gt;0,L159&gt;0)=TRUE,VLOOKUP(LEFT(L159,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M159))</f>
         <v/>
       </c>
       <c r="K159" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B159,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B159,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L159" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B159,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B159,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M159" s="2" t="s">
@@ -55420,15 +55420,15 @@
         <v>3910</v>
       </c>
       <c r="J160" s="2" t="str">
-        <f>IF(AND(K160=0,L160=0)=TRUE,"",IF(AND(K160&gt;0,L160&gt;0)=TRUE,VLOOKUP(LEFT(L160,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M160))</f>
+        <f>IF(AND(K160=0,L160=0)=TRUE,"",IF(AND(K160&gt;0,L160&gt;0)=TRUE,VLOOKUP(LEFT(L160,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M160))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K160" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B160,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B160,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211075</v>
       </c>
       <c r="L160" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B160,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B160,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210047</v>
       </c>
       <c r="M160" s="2" t="s">
@@ -55678,15 +55678,15 @@
         <v>3910</v>
       </c>
       <c r="J161" s="2" t="str">
-        <f>IF(AND(K161=0,L161=0)=TRUE,"",IF(AND(K161&gt;0,L161&gt;0)=TRUE,VLOOKUP(LEFT(L161,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M161))</f>
+        <f>IF(AND(K161=0,L161=0)=TRUE,"",IF(AND(K161&gt;0,L161&gt;0)=TRUE,VLOOKUP(LEFT(L161,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M161))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K161" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B161,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B161,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211103</v>
       </c>
       <c r="L161" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B161,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B161,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210031</v>
       </c>
       <c r="M161" s="2" t="s">
@@ -55936,15 +55936,15 @@
         <v>3910</v>
       </c>
       <c r="J162" s="2" t="str">
-        <f>IF(AND(K162=0,L162=0)=TRUE,"",IF(AND(K162&gt;0,L162&gt;0)=TRUE,VLOOKUP(LEFT(L162,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M162))</f>
+        <f>IF(AND(K162=0,L162=0)=TRUE,"",IF(AND(K162&gt;0,L162&gt;0)=TRUE,VLOOKUP(LEFT(L162,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M162))</f>
         <v/>
       </c>
       <c r="K162" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B162,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B162,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L162" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B162,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B162,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M162" s="2" t="s">
@@ -56194,15 +56194,15 @@
         <v>3910</v>
       </c>
       <c r="J163" s="2" t="str">
-        <f>IF(AND(K163=0,L163=0)=TRUE,"",IF(AND(K163&gt;0,L163&gt;0)=TRUE,VLOOKUP(LEFT(L163,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M163))</f>
+        <f>IF(AND(K163=0,L163=0)=TRUE,"",IF(AND(K163&gt;0,L163&gt;0)=TRUE,VLOOKUP(LEFT(L163,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M163))</f>
         <v/>
       </c>
       <c r="K163" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B163,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B163,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L163" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B163,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B163,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M163" s="2" t="s">
@@ -56452,15 +56452,15 @@
         <v>3910</v>
       </c>
       <c r="J164" s="2" t="str">
-        <f>IF(AND(K164=0,L164=0)=TRUE,"",IF(AND(K164&gt;0,L164&gt;0)=TRUE,VLOOKUP(LEFT(L164,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M164))</f>
+        <f>IF(AND(K164=0,L164=0)=TRUE,"",IF(AND(K164&gt;0,L164&gt;0)=TRUE,VLOOKUP(LEFT(L164,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M164))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K164" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B164,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B164,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211134</v>
       </c>
       <c r="L164" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B164,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B164,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210039</v>
       </c>
       <c r="M164" s="2" t="s">
@@ -56710,15 +56710,15 @@
         <v>3910</v>
       </c>
       <c r="J165" s="2" t="str">
-        <f>IF(AND(K165=0,L165=0)=TRUE,"",IF(AND(K165&gt;0,L165&gt;0)=TRUE,VLOOKUP(LEFT(L165,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M165))</f>
+        <f>IF(AND(K165=0,L165=0)=TRUE,"",IF(AND(K165&gt;0,L165&gt;0)=TRUE,VLOOKUP(LEFT(L165,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M165))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K165" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B165,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B165,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211136</v>
       </c>
       <c r="L165" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B165,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B165,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210040</v>
       </c>
       <c r="M165" s="2" t="s">
@@ -56968,15 +56968,15 @@
         <v>3910</v>
       </c>
       <c r="J166" s="2" t="str">
-        <f>IF(AND(K166=0,L166=0)=TRUE,"",IF(AND(K166&gt;0,L166&gt;0)=TRUE,VLOOKUP(LEFT(L166,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M166))</f>
+        <f>IF(AND(K166=0,L166=0)=TRUE,"",IF(AND(K166&gt;0,L166&gt;0)=TRUE,VLOOKUP(LEFT(L166,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M166))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K166" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B166,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B166,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211158</v>
       </c>
       <c r="L166" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B166,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B166,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210022</v>
       </c>
       <c r="M166" s="2" t="s">
@@ -57220,15 +57220,15 @@
         <v>3910</v>
       </c>
       <c r="J167" s="2" t="str">
-        <f>IF(AND(K167=0,L167=0)=TRUE,"",IF(AND(K167&gt;0,L167&gt;0)=TRUE,VLOOKUP(LEFT(L167,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M167))</f>
+        <f>IF(AND(K167=0,L167=0)=TRUE,"",IF(AND(K167&gt;0,L167&gt;0)=TRUE,VLOOKUP(LEFT(L167,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M167))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K167" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B167,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B167,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211159</v>
       </c>
       <c r="L167" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B167,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B167,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210019</v>
       </c>
       <c r="M167" s="2" t="s">
@@ -57472,15 +57472,15 @@
         <v>3910</v>
       </c>
       <c r="J168" s="2" t="str">
-        <f>IF(AND(K168=0,L168=0)=TRUE,"",IF(AND(K168&gt;0,L168&gt;0)=TRUE,VLOOKUP(LEFT(L168,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M168))</f>
+        <f>IF(AND(K168=0,L168=0)=TRUE,"",IF(AND(K168&gt;0,L168&gt;0)=TRUE,VLOOKUP(LEFT(L168,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M168))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K168" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B168,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B168,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211162</v>
       </c>
       <c r="L168" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B168,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B168,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210004</v>
       </c>
       <c r="M168" s="2" t="s">
@@ -57724,15 +57724,15 @@
         <v>3910</v>
       </c>
       <c r="J169" s="2" t="str">
-        <f>IF(AND(K169=0,L169=0)=TRUE,"",IF(AND(K169&gt;0,L169&gt;0)=TRUE,VLOOKUP(LEFT(L169,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M169))</f>
+        <f>IF(AND(K169=0,L169=0)=TRUE,"",IF(AND(K169&gt;0,L169&gt;0)=TRUE,VLOOKUP(LEFT(L169,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M169))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K169" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B169,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B169,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211165</v>
       </c>
       <c r="L169" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B169,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B169,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210005</v>
       </c>
       <c r="M169" s="2" t="s">
@@ -57982,15 +57982,15 @@
         <v>3910</v>
       </c>
       <c r="J170" s="2" t="str">
-        <f>IF(AND(K170=0,L170=0)=TRUE,"",IF(AND(K170&gt;0,L170&gt;0)=TRUE,VLOOKUP(LEFT(L170,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M170))</f>
+        <f>IF(AND(K170=0,L170=0)=TRUE,"",IF(AND(K170&gt;0,L170&gt;0)=TRUE,VLOOKUP(LEFT(L170,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M170))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K170" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B170,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B170,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211167</v>
       </c>
       <c r="L170" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B170,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B170,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210001</v>
       </c>
       <c r="M170" s="2" t="s">
@@ -58240,15 +58240,15 @@
         <v>3910</v>
       </c>
       <c r="J171" s="2" t="str">
-        <f>IF(AND(K171=0,L171=0)=TRUE,"",IF(AND(K171&gt;0,L171&gt;0)=TRUE,VLOOKUP(LEFT(L171,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M171))</f>
+        <f>IF(AND(K171=0,L171=0)=TRUE,"",IF(AND(K171&gt;0,L171&gt;0)=TRUE,VLOOKUP(LEFT(L171,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M171))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K171" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B171,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B171,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211174</v>
       </c>
       <c r="L171" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B171,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B171,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210070</v>
       </c>
       <c r="M171" s="2" t="s">
@@ -58498,15 +58498,15 @@
         <v>3910</v>
       </c>
       <c r="J172" s="2" t="str">
-        <f>IF(AND(K172=0,L172=0)=TRUE,"",IF(AND(K172&gt;0,L172&gt;0)=TRUE,VLOOKUP(LEFT(L172,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M172))</f>
+        <f>IF(AND(K172=0,L172=0)=TRUE,"",IF(AND(K172&gt;0,L172&gt;0)=TRUE,VLOOKUP(LEFT(L172,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M172))</f>
         <v/>
       </c>
       <c r="K172" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B172,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B172,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L172" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B172,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B172,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M172" s="2" t="s">
@@ -58750,15 +58750,15 @@
         <v>3910</v>
       </c>
       <c r="J173" s="2" t="str">
-        <f>IF(AND(K173=0,L173=0)=TRUE,"",IF(AND(K173&gt;0,L173&gt;0)=TRUE,VLOOKUP(LEFT(L173,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M173))</f>
+        <f>IF(AND(K173=0,L173=0)=TRUE,"",IF(AND(K173&gt;0,L173&gt;0)=TRUE,VLOOKUP(LEFT(L173,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M173))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K173" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B173,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B173,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211189</v>
       </c>
       <c r="L173" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B173,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B173,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210032</v>
       </c>
       <c r="M173" s="2" t="s">
@@ -59002,15 +59002,15 @@
         <v>3910</v>
       </c>
       <c r="J174" s="2" t="str">
-        <f>IF(AND(K174=0,L174=0)=TRUE,"",IF(AND(K174&gt;0,L174&gt;0)=TRUE,VLOOKUP(LEFT(L174,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M174))</f>
+        <f>IF(AND(K174=0,L174=0)=TRUE,"",IF(AND(K174&gt;0,L174&gt;0)=TRUE,VLOOKUP(LEFT(L174,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M174))</f>
         <v/>
       </c>
       <c r="K174" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B174,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B174,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L174" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B174,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B174,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M174" s="2" t="s">
@@ -59254,15 +59254,15 @@
         <v>3910</v>
       </c>
       <c r="J175" s="2" t="str">
-        <f>IF(AND(K175=0,L175=0)=TRUE,"",IF(AND(K175&gt;0,L175&gt;0)=TRUE,VLOOKUP(LEFT(L175,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M175))</f>
+        <f>IF(AND(K175=0,L175=0)=TRUE,"",IF(AND(K175&gt;0,L175&gt;0)=TRUE,VLOOKUP(LEFT(L175,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M175))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K175" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B175,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B175,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211210</v>
       </c>
       <c r="L175" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B175,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B175,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210008</v>
       </c>
       <c r="M175" s="2" t="s">
@@ -59512,15 +59512,15 @@
         <v>3910</v>
       </c>
       <c r="J176" s="2" t="str">
-        <f>IF(AND(K176=0,L176=0)=TRUE,"",IF(AND(K176&gt;0,L176&gt;0)=TRUE,VLOOKUP(LEFT(L176,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M176))</f>
+        <f>IF(AND(K176=0,L176=0)=TRUE,"",IF(AND(K176&gt;0,L176&gt;0)=TRUE,VLOOKUP(LEFT(L176,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M176))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K176" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B176,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B176,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211212</v>
       </c>
       <c r="L176" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B176,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B176,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210023</v>
       </c>
       <c r="M176" s="2" t="s">
@@ -59764,15 +59764,15 @@
         <v>3910</v>
       </c>
       <c r="J177" s="2" t="str">
-        <f>IF(AND(K177=0,L177=0)=TRUE,"",IF(AND(K177&gt;0,L177&gt;0)=TRUE,VLOOKUP(LEFT(L177,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M177))</f>
+        <f>IF(AND(K177=0,L177=0)=TRUE,"",IF(AND(K177&gt;0,L177&gt;0)=TRUE,VLOOKUP(LEFT(L177,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M177))</f>
         <v/>
       </c>
       <c r="K177" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B177,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B177,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L177" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B177,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B177,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M177" s="2" t="s">
@@ -60022,15 +60022,15 @@
         <v>3910</v>
       </c>
       <c r="J178" s="2" t="str">
-        <f>IF(AND(K178=0,L178=0)=TRUE,"",IF(AND(K178&gt;0,L178&gt;0)=TRUE,VLOOKUP(LEFT(L178,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M178))</f>
+        <f>IF(AND(K178=0,L178=0)=TRUE,"",IF(AND(K178&gt;0,L178&gt;0)=TRUE,VLOOKUP(LEFT(L178,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M178))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K178" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B178,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B178,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211223</v>
       </c>
       <c r="L178" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B178,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B178,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M178" s="2" t="s">
@@ -60274,15 +60274,15 @@
         <v>3910</v>
       </c>
       <c r="J179" s="2" t="str">
-        <f>IF(AND(K179=0,L179=0)=TRUE,"",IF(AND(K179&gt;0,L179&gt;0)=TRUE,VLOOKUP(LEFT(L179,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M179))</f>
+        <f>IF(AND(K179=0,L179=0)=TRUE,"",IF(AND(K179&gt;0,L179&gt;0)=TRUE,VLOOKUP(LEFT(L179,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M179))</f>
         <v/>
       </c>
       <c r="K179" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B179,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B179,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L179" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B179,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B179,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M179" s="2" t="s">
@@ -60532,15 +60532,15 @@
         <v>3910</v>
       </c>
       <c r="J180" s="2" t="str">
-        <f>IF(AND(K180=0,L180=0)=TRUE,"",IF(AND(K180&gt;0,L180&gt;0)=TRUE,VLOOKUP(LEFT(L180,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M180))</f>
+        <f>IF(AND(K180=0,L180=0)=TRUE,"",IF(AND(K180&gt;0,L180&gt;0)=TRUE,VLOOKUP(LEFT(L180,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M180))</f>
         <v/>
       </c>
       <c r="K180" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B180,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B180,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L180" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B180,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B180,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M180" s="2" t="s">
@@ -60784,15 +60784,15 @@
         <v>3910</v>
       </c>
       <c r="J181" s="2" t="str">
-        <f>IF(AND(K181=0,L181=0)=TRUE,"",IF(AND(K181&gt;0,L181&gt;0)=TRUE,VLOOKUP(LEFT(L181,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M181))</f>
+        <f>IF(AND(K181=0,L181=0)=TRUE,"",IF(AND(K181&gt;0,L181&gt;0)=TRUE,VLOOKUP(LEFT(L181,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M181))</f>
         <v/>
       </c>
       <c r="K181" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B181,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B181,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L181" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B181,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B181,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M181" s="2" t="s">
@@ -61042,15 +61042,15 @@
         <v>3910</v>
       </c>
       <c r="J182" s="2" t="str">
-        <f>IF(AND(K182=0,L182=0)=TRUE,"",IF(AND(K182&gt;0,L182&gt;0)=TRUE,VLOOKUP(LEFT(L182,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M182))</f>
+        <f>IF(AND(K182=0,L182=0)=TRUE,"",IF(AND(K182&gt;0,L182&gt;0)=TRUE,VLOOKUP(LEFT(L182,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M182))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K182" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B182,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B182,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211242</v>
       </c>
       <c r="L182" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B182,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B182,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210071</v>
       </c>
       <c r="M182" s="2" t="s">
@@ -61300,15 +61300,15 @@
         <v>3910</v>
       </c>
       <c r="J183" s="2" t="str">
-        <f>IF(AND(K183=0,L183=0)=TRUE,"",IF(AND(K183&gt;0,L183&gt;0)=TRUE,VLOOKUP(LEFT(L183,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M183))</f>
+        <f>IF(AND(K183=0,L183=0)=TRUE,"",IF(AND(K183&gt;0,L183&gt;0)=TRUE,VLOOKUP(LEFT(L183,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M183))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K183" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B183,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B183,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211244</v>
       </c>
       <c r="L183" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B183,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B183,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210058</v>
       </c>
       <c r="M183" s="2" t="s">
@@ -61558,15 +61558,15 @@
         <v>3910</v>
       </c>
       <c r="J184" s="2" t="str">
-        <f>IF(AND(K184=0,L184=0)=TRUE,"",IF(AND(K184&gt;0,L184&gt;0)=TRUE,VLOOKUP(LEFT(L184,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M184))</f>
+        <f>IF(AND(K184=0,L184=0)=TRUE,"",IF(AND(K184&gt;0,L184&gt;0)=TRUE,VLOOKUP(LEFT(L184,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M184))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K184" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B184,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B184,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211251</v>
       </c>
       <c r="L184" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B184,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B184,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210006</v>
       </c>
       <c r="M184" s="2" t="s">
@@ -61810,15 +61810,15 @@
         <v>3910</v>
       </c>
       <c r="J185" s="2" t="str">
-        <f>IF(AND(K185=0,L185=0)=TRUE,"",IF(AND(K185&gt;0,L185&gt;0)=TRUE,VLOOKUP(LEFT(L185,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M185))</f>
+        <f>IF(AND(K185=0,L185=0)=TRUE,"",IF(AND(K185&gt;0,L185&gt;0)=TRUE,VLOOKUP(LEFT(L185,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M185))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K185" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B185,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B185,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211256</v>
       </c>
       <c r="L185" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B185,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B185,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210075</v>
       </c>
       <c r="M185" s="2" t="s">
@@ -62068,15 +62068,15 @@
         <v>3910</v>
       </c>
       <c r="J186" s="2" t="str">
-        <f>IF(AND(K186=0,L186=0)=TRUE,"",IF(AND(K186&gt;0,L186&gt;0)=TRUE,VLOOKUP(LEFT(L186,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M186))</f>
+        <f>IF(AND(K186=0,L186=0)=TRUE,"",IF(AND(K186&gt;0,L186&gt;0)=TRUE,VLOOKUP(LEFT(L186,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M186))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K186" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B186,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B186,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211272</v>
       </c>
       <c r="L186" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B186,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B186,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210025</v>
       </c>
       <c r="M186" s="2" t="s">
@@ -62326,15 +62326,15 @@
         <v>3910</v>
       </c>
       <c r="J187" s="2" t="str">
-        <f>IF(AND(K187=0,L187=0)=TRUE,"",IF(AND(K187&gt;0,L187&gt;0)=TRUE,VLOOKUP(LEFT(L187,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M187))</f>
+        <f>IF(AND(K187=0,L187=0)=TRUE,"",IF(AND(K187&gt;0,L187&gt;0)=TRUE,VLOOKUP(LEFT(L187,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M187))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K187" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B187,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B187,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211274</v>
       </c>
       <c r="L187" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B187,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B187,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210051</v>
       </c>
       <c r="M187" s="2" t="s">
@@ -62584,15 +62584,15 @@
         <v>3910</v>
       </c>
       <c r="J188" s="2" t="str">
-        <f>IF(AND(K188=0,L188=0)=TRUE,"",IF(AND(K188&gt;0,L188&gt;0)=TRUE,VLOOKUP(LEFT(L188,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M188))</f>
+        <f>IF(AND(K188=0,L188=0)=TRUE,"",IF(AND(K188&gt;0,L188&gt;0)=TRUE,VLOOKUP(LEFT(L188,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M188))</f>
         <v/>
       </c>
       <c r="K188" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B188,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B188,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L188" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B188,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B188,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M188" s="2" t="s">
@@ -62842,15 +62842,15 @@
         <v>3910</v>
       </c>
       <c r="J189" s="2" t="str">
-        <f>IF(AND(K189=0,L189=0)=TRUE,"",IF(AND(K189&gt;0,L189&gt;0)=TRUE,VLOOKUP(LEFT(L189,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M189))</f>
+        <f>IF(AND(K189=0,L189=0)=TRUE,"",IF(AND(K189&gt;0,L189&gt;0)=TRUE,VLOOKUP(LEFT(L189,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M189))</f>
         <v/>
       </c>
       <c r="K189" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B189,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B189,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L189" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B189,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B189,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M189" s="2" t="s">
@@ -63100,15 +63100,15 @@
         <v>3910</v>
       </c>
       <c r="J190" s="2" t="str">
-        <f>IF(AND(K190=0,L190=0)=TRUE,"",IF(AND(K190&gt;0,L190&gt;0)=TRUE,VLOOKUP(LEFT(L190,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M190))</f>
+        <f>IF(AND(K190=0,L190=0)=TRUE,"",IF(AND(K190&gt;0,L190&gt;0)=TRUE,VLOOKUP(LEFT(L190,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M190))</f>
         <v/>
       </c>
       <c r="K190" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B190,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B190,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L190" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B190,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B190,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M190" s="2" t="s">
@@ -63358,15 +63358,15 @@
         <v>3910</v>
       </c>
       <c r="J191" s="2" t="str">
-        <f>IF(AND(K191=0,L191=0)=TRUE,"",IF(AND(K191&gt;0,L191&gt;0)=TRUE,VLOOKUP(LEFT(L191,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M191))</f>
+        <f>IF(AND(K191=0,L191=0)=TRUE,"",IF(AND(K191&gt;0,L191&gt;0)=TRUE,VLOOKUP(LEFT(L191,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M191))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K191" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B191,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B191,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211286</v>
       </c>
       <c r="L191" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B191,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B191,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210063</v>
       </c>
       <c r="M191" s="2" t="s">
@@ -63610,15 +63610,15 @@
         <v>3910</v>
       </c>
       <c r="J192" s="2" t="str">
-        <f>IF(AND(K192=0,L192=0)=TRUE,"",IF(AND(K192&gt;0,L192&gt;0)=TRUE,VLOOKUP(LEFT(L192,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M192))</f>
+        <f>IF(AND(K192=0,L192=0)=TRUE,"",IF(AND(K192&gt;0,L192&gt;0)=TRUE,VLOOKUP(LEFT(L192,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M192))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K192" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B192,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B192,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211287</v>
       </c>
       <c r="L192" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B192,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B192,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210045</v>
       </c>
       <c r="M192" s="2" t="s">
@@ -63862,15 +63862,15 @@
         <v>3910</v>
       </c>
       <c r="J193" s="2" t="str">
-        <f>IF(AND(K193=0,L193=0)=TRUE,"",IF(AND(K193&gt;0,L193&gt;0)=TRUE,VLOOKUP(LEFT(L193,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M193))</f>
+        <f>IF(AND(K193=0,L193=0)=TRUE,"",IF(AND(K193&gt;0,L193&gt;0)=TRUE,VLOOKUP(LEFT(L193,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M193))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K193" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B193,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B193,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211288</v>
       </c>
       <c r="L193" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B193,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B193,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210033</v>
       </c>
       <c r="M193" s="2" t="s">
@@ -64120,15 +64120,15 @@
         <v>3910</v>
       </c>
       <c r="J194" s="2" t="str">
-        <f>IF(AND(K194=0,L194=0)=TRUE,"",IF(AND(K194&gt;0,L194&gt;0)=TRUE,VLOOKUP(LEFT(L194,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M194))</f>
+        <f>IF(AND(K194=0,L194=0)=TRUE,"",IF(AND(K194&gt;0,L194&gt;0)=TRUE,VLOOKUP(LEFT(L194,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M194))</f>
         <v/>
       </c>
       <c r="K194" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B194,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B194,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L194" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B194,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B194,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M194" s="2" t="s">
@@ -64378,15 +64378,15 @@
         <v>3910</v>
       </c>
       <c r="J195" s="2" t="str">
-        <f>IF(AND(K195=0,L195=0)=TRUE,"",IF(AND(K195&gt;0,L195&gt;0)=TRUE,VLOOKUP(LEFT(L195,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M195))</f>
+        <f>IF(AND(K195=0,L195=0)=TRUE,"",IF(AND(K195&gt;0,L195&gt;0)=TRUE,VLOOKUP(LEFT(L195,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M195))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K195" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B195,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B195,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211294</v>
       </c>
       <c r="L195" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B195,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B195,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210042</v>
       </c>
       <c r="M195" s="2" t="s">
@@ -64630,15 +64630,15 @@
         <v>3910</v>
       </c>
       <c r="J196" s="2" t="str">
-        <f>IF(AND(K196=0,L196=0)=TRUE,"",IF(AND(K196&gt;0,L196&gt;0)=TRUE,VLOOKUP(LEFT(L196,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M196))</f>
+        <f>IF(AND(K196=0,L196=0)=TRUE,"",IF(AND(K196&gt;0,L196&gt;0)=TRUE,VLOOKUP(LEFT(L196,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M196))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K196" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B196,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B196,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211297</v>
       </c>
       <c r="L196" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B196,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B196,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210054</v>
       </c>
       <c r="M196" s="2" t="s">
@@ -64888,15 +64888,15 @@
         <v>3910</v>
       </c>
       <c r="J197" s="2" t="str">
-        <f>IF(AND(K197=0,L197=0)=TRUE,"",IF(AND(K197&gt;0,L197&gt;0)=TRUE,VLOOKUP(LEFT(L197,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M197))</f>
+        <f>IF(AND(K197=0,L197=0)=TRUE,"",IF(AND(K197&gt;0,L197&gt;0)=TRUE,VLOOKUP(LEFT(L197,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M197))</f>
         <v/>
       </c>
       <c r="K197" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B197,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B197,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L197" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B197,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B197,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M197" s="2" t="s">
@@ -65146,15 +65146,15 @@
         <v>3910</v>
       </c>
       <c r="J198" s="2" t="str">
-        <f>IF(AND(K198=0,L198=0)=TRUE,"",IF(AND(K198&gt;0,L198&gt;0)=TRUE,VLOOKUP(LEFT(L198,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M198))</f>
+        <f>IF(AND(K198=0,L198=0)=TRUE,"",IF(AND(K198&gt;0,L198&gt;0)=TRUE,VLOOKUP(LEFT(L198,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M198))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K198" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B198,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B198,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210794</v>
       </c>
       <c r="L198" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B198,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B198,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210034</v>
       </c>
       <c r="M198" s="2" t="s">
@@ -65398,15 +65398,15 @@
         <v>3910</v>
       </c>
       <c r="J199" s="2" t="str">
-        <f>IF(AND(K199=0,L199=0)=TRUE,"",IF(AND(K199&gt;0,L199&gt;0)=TRUE,VLOOKUP(LEFT(L199,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M199))</f>
+        <f>IF(AND(K199=0,L199=0)=TRUE,"",IF(AND(K199&gt;0,L199&gt;0)=TRUE,VLOOKUP(LEFT(L199,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M199))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K199" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B199,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B199,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210811</v>
       </c>
       <c r="L199" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B199,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B199,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210015</v>
       </c>
       <c r="M199" s="2" t="s">
@@ -65656,15 +65656,15 @@
         <v>3910</v>
       </c>
       <c r="J200" s="2" t="str">
-        <f>IF(AND(K200=0,L200=0)=TRUE,"",IF(AND(K200&gt;0,L200&gt;0)=TRUE,VLOOKUP(LEFT(L200,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M200))</f>
+        <f>IF(AND(K200=0,L200=0)=TRUE,"",IF(AND(K200&gt;0,L200&gt;0)=TRUE,VLOOKUP(LEFT(L200,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M200))</f>
         <v/>
       </c>
       <c r="K200" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B200,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B200,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L200" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B200,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B200,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M200" s="2" t="s">
@@ -65914,15 +65914,15 @@
         <v>3910</v>
       </c>
       <c r="J201" s="2" t="str">
-        <f>IF(AND(K201=0,L201=0)=TRUE,"",IF(AND(K201&gt;0,L201&gt;0)=TRUE,VLOOKUP(LEFT(L201,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M201))</f>
+        <f>IF(AND(K201=0,L201=0)=TRUE,"",IF(AND(K201&gt;0,L201&gt;0)=TRUE,VLOOKUP(LEFT(L201,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M201))</f>
         <v/>
       </c>
       <c r="K201" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B201,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B201,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L201" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B201,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B201,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M201" s="2" t="s">
@@ -66172,15 +66172,15 @@
         <v>3910</v>
       </c>
       <c r="J202" s="2" t="str">
-        <f>IF(AND(K202=0,L202=0)=TRUE,"",IF(AND(K202&gt;0,L202&gt;0)=TRUE,VLOOKUP(LEFT(L202,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M202))</f>
+        <f>IF(AND(K202=0,L202=0)=TRUE,"",IF(AND(K202&gt;0,L202&gt;0)=TRUE,VLOOKUP(LEFT(L202,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M202))</f>
         <v/>
       </c>
       <c r="K202" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B202,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B202,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L202" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B202,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B202,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M202" s="2" t="s">
@@ -66424,15 +66424,15 @@
         <v>3910</v>
       </c>
       <c r="J203" s="2" t="str">
-        <f>IF(AND(K203=0,L203=0)=TRUE,"",IF(AND(K203&gt;0,L203&gt;0)=TRUE,VLOOKUP(LEFT(L203,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M203))</f>
+        <f>IF(AND(K203=0,L203=0)=TRUE,"",IF(AND(K203&gt;0,L203&gt;0)=TRUE,VLOOKUP(LEFT(L203,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M203))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K203" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B203,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B203,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210835</v>
       </c>
       <c r="L203" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B203,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B203,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210060</v>
       </c>
       <c r="M203" s="2" t="s">
@@ -66682,15 +66682,15 @@
         <v>3910</v>
       </c>
       <c r="J204" s="2" t="str">
-        <f>IF(AND(K204=0,L204=0)=TRUE,"",IF(AND(K204&gt;0,L204&gt;0)=TRUE,VLOOKUP(LEFT(L204,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M204))</f>
+        <f>IF(AND(K204=0,L204=0)=TRUE,"",IF(AND(K204&gt;0,L204&gt;0)=TRUE,VLOOKUP(LEFT(L204,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M204))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K204" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B204,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B204,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210837</v>
       </c>
       <c r="L204" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B204,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B204,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210029</v>
       </c>
       <c r="M204" s="2" t="s">
@@ -66940,15 +66940,15 @@
         <v>3910</v>
       </c>
       <c r="J205" s="2" t="str">
-        <f>IF(AND(K205=0,L205=0)=TRUE,"",IF(AND(K205&gt;0,L205&gt;0)=TRUE,VLOOKUP(LEFT(L205,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M205))</f>
+        <f>IF(AND(K205=0,L205=0)=TRUE,"",IF(AND(K205&gt;0,L205&gt;0)=TRUE,VLOOKUP(LEFT(L205,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M205))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K205" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B205,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B205,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210843</v>
       </c>
       <c r="L205" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B205,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B205,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210020</v>
       </c>
       <c r="M205" s="2" t="s">
@@ -67198,15 +67198,15 @@
         <v>3910</v>
       </c>
       <c r="J206" s="2" t="str">
-        <f>IF(AND(K206=0,L206=0)=TRUE,"",IF(AND(K206&gt;0,L206&gt;0)=TRUE,VLOOKUP(LEFT(L206,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M206))</f>
+        <f>IF(AND(K206=0,L206=0)=TRUE,"",IF(AND(K206&gt;0,L206&gt;0)=TRUE,VLOOKUP(LEFT(L206,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M206))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K206" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B206,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B206,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210877</v>
       </c>
       <c r="L206" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B206,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B206,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210017</v>
       </c>
       <c r="M206" s="2" t="s">
@@ -67456,15 +67456,15 @@
         <v>3910</v>
       </c>
       <c r="J207" s="2" t="str">
-        <f>IF(AND(K207=0,L207=0)=TRUE,"",IF(AND(K207&gt;0,L207&gt;0)=TRUE,VLOOKUP(LEFT(L207,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M207))</f>
+        <f>IF(AND(K207=0,L207=0)=TRUE,"",IF(AND(K207&gt;0,L207&gt;0)=TRUE,VLOOKUP(LEFT(L207,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M207))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K207" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B207,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B207,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210891</v>
       </c>
       <c r="L207" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B207,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B207,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210072</v>
       </c>
       <c r="M207" s="2" t="s">
@@ -67714,15 +67714,15 @@
         <v>3910</v>
       </c>
       <c r="J208" s="2" t="str">
-        <f>IF(AND(K208=0,L208=0)=TRUE,"",IF(AND(K208&gt;0,L208&gt;0)=TRUE,VLOOKUP(LEFT(L208,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M208))</f>
+        <f>IF(AND(K208=0,L208=0)=TRUE,"",IF(AND(K208&gt;0,L208&gt;0)=TRUE,VLOOKUP(LEFT(L208,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M208))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K208" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B208,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B208,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210900</v>
       </c>
       <c r="L208" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B208,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B208,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210044</v>
       </c>
       <c r="M208" s="2" t="s">
@@ -67966,15 +67966,15 @@
         <v>3910</v>
       </c>
       <c r="J209" s="2" t="str">
-        <f>IF(AND(K209=0,L209=0)=TRUE,"",IF(AND(K209&gt;0,L209&gt;0)=TRUE,VLOOKUP(LEFT(L209,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M209))</f>
+        <f>IF(AND(K209=0,L209=0)=TRUE,"",IF(AND(K209&gt;0,L209&gt;0)=TRUE,VLOOKUP(LEFT(L209,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M209))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K209" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B209,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B209,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210905</v>
       </c>
       <c r="L209" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B209,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B209,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210026</v>
       </c>
       <c r="M209" s="2" t="s">
@@ -68218,15 +68218,15 @@
         <v>3910</v>
       </c>
       <c r="J210" s="2" t="str">
-        <f>IF(AND(K210=0,L210=0)=TRUE,"",IF(AND(K210&gt;0,L210&gt;0)=TRUE,VLOOKUP(LEFT(L210,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M210))</f>
+        <f>IF(AND(K210=0,L210=0)=TRUE,"",IF(AND(K210&gt;0,L210&gt;0)=TRUE,VLOOKUP(LEFT(L210,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M210))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K210" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B210,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B210,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210918</v>
       </c>
       <c r="L210" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B210,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B210,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210064</v>
       </c>
       <c r="M210" s="2" t="s">
@@ -68476,15 +68476,15 @@
         <v>3910</v>
       </c>
       <c r="J211" s="2" t="str">
-        <f>IF(AND(K211=0,L211=0)=TRUE,"",IF(AND(K211&gt;0,L211&gt;0)=TRUE,VLOOKUP(LEFT(L211,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M211))</f>
+        <f>IF(AND(K211=0,L211=0)=TRUE,"",IF(AND(K211&gt;0,L211&gt;0)=TRUE,VLOOKUP(LEFT(L211,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M211))</f>
         <v/>
       </c>
       <c r="K211" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B211,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B211,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L211" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B211,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B211,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M211" s="2" t="s">
@@ -68728,15 +68728,15 @@
         <v>3910</v>
       </c>
       <c r="J212" s="2" t="str">
-        <f>IF(AND(K212=0,L212=0)=TRUE,"",IF(AND(K212&gt;0,L212&gt;0)=TRUE,VLOOKUP(LEFT(L212,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M212))</f>
+        <f>IF(AND(K212=0,L212=0)=TRUE,"",IF(AND(K212&gt;0,L212&gt;0)=TRUE,VLOOKUP(LEFT(L212,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M212))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K212" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B212,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B212,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210948</v>
       </c>
       <c r="L212" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B212,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B212,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210011</v>
       </c>
       <c r="M212" s="2" t="s">
@@ -68986,15 +68986,15 @@
         <v>3910</v>
       </c>
       <c r="J213" s="2" t="str">
-        <f>IF(AND(K213=0,L213=0)=TRUE,"",IF(AND(K213&gt;0,L213&gt;0)=TRUE,VLOOKUP(LEFT(L213,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M213))</f>
+        <f>IF(AND(K213=0,L213=0)=TRUE,"",IF(AND(K213&gt;0,L213&gt;0)=TRUE,VLOOKUP(LEFT(L213,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M213))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K213" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B213,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B213,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210964</v>
       </c>
       <c r="L213" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B213,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B213,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210065</v>
       </c>
       <c r="M213" s="2" t="s">
@@ -69244,15 +69244,15 @@
         <v>3910</v>
       </c>
       <c r="J214" s="2" t="str">
-        <f>IF(AND(K214=0,L214=0)=TRUE,"",IF(AND(K214&gt;0,L214&gt;0)=TRUE,VLOOKUP(LEFT(L214,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M214))</f>
+        <f>IF(AND(K214=0,L214=0)=TRUE,"",IF(AND(K214&gt;0,L214&gt;0)=TRUE,VLOOKUP(LEFT(L214,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M214))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K214" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B214,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B214,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210986</v>
       </c>
       <c r="L214" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B214,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B214,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210027</v>
       </c>
       <c r="M214" s="2" t="s">
@@ -69502,15 +69502,15 @@
         <v>3910</v>
       </c>
       <c r="J215" s="2" t="str">
-        <f>IF(AND(K215=0,L215=0)=TRUE,"",IF(AND(K215&gt;0,L215&gt;0)=TRUE,VLOOKUP(LEFT(L215,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M215))</f>
+        <f>IF(AND(K215=0,L215=0)=TRUE,"",IF(AND(K215&gt;0,L215&gt;0)=TRUE,VLOOKUP(LEFT(L215,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M215))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K215" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B215,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B215,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21210989</v>
       </c>
       <c r="L215" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B215,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B215,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210007</v>
       </c>
       <c r="M215" s="2" t="s">
@@ -69760,15 +69760,15 @@
         <v>3910</v>
       </c>
       <c r="J216" s="2" t="str">
-        <f>IF(AND(K216=0,L216=0)=TRUE,"",IF(AND(K216&gt;0,L216&gt;0)=TRUE,VLOOKUP(LEFT(L216,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M216))</f>
+        <f>IF(AND(K216=0,L216=0)=TRUE,"",IF(AND(K216&gt;0,L216&gt;0)=TRUE,VLOOKUP(LEFT(L216,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M216))</f>
         <v/>
       </c>
       <c r="K216" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B216,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B216,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L216" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B216,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B216,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M216" s="2" t="s">
@@ -70018,15 +70018,15 @@
         <v>3910</v>
       </c>
       <c r="J217" s="2" t="str">
-        <f>IF(AND(K217=0,L217=0)=TRUE,"",IF(AND(K217&gt;0,L217&gt;0)=TRUE,VLOOKUP(LEFT(L217,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M217))</f>
+        <f>IF(AND(K217=0,L217=0)=TRUE,"",IF(AND(K217&gt;0,L217&gt;0)=TRUE,VLOOKUP(LEFT(L217,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M217))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K217" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B217,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B217,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211001</v>
       </c>
       <c r="L217" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B217,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B217,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210010</v>
       </c>
       <c r="M217" s="2" t="s">
@@ -70270,15 +70270,15 @@
         <v>3910</v>
       </c>
       <c r="J218" s="2" t="str">
-        <f>IF(AND(K218=0,L218=0)=TRUE,"",IF(AND(K218&gt;0,L218&gt;0)=TRUE,VLOOKUP(LEFT(L218,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M218))</f>
+        <f>IF(AND(K218=0,L218=0)=TRUE,"",IF(AND(K218&gt;0,L218&gt;0)=TRUE,VLOOKUP(LEFT(L218,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M218))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K218" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B218,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B218,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211034</v>
       </c>
       <c r="L218" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B218,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B218,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210037</v>
       </c>
       <c r="M218" s="2" t="s">
@@ -70522,15 +70522,15 @@
         <v>3910</v>
       </c>
       <c r="J219" s="2" t="str">
-        <f>IF(AND(K219=0,L219=0)=TRUE,"",IF(AND(K219&gt;0,L219&gt;0)=TRUE,VLOOKUP(LEFT(L219,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M219))</f>
+        <f>IF(AND(K219=0,L219=0)=TRUE,"",IF(AND(K219&gt;0,L219&gt;0)=TRUE,VLOOKUP(LEFT(L219,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M219))</f>
         <v/>
       </c>
       <c r="K219" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B219,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B219,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L219" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B219,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B219,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M219" s="2" t="s">
@@ -70780,15 +70780,15 @@
         <v>3910</v>
       </c>
       <c r="J220" s="2" t="str">
-        <f>IF(AND(K220=0,L220=0)=TRUE,"",IF(AND(K220&gt;0,L220&gt;0)=TRUE,VLOOKUP(LEFT(L220,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M220))</f>
+        <f>IF(AND(K220=0,L220=0)=TRUE,"",IF(AND(K220&gt;0,L220&gt;0)=TRUE,VLOOKUP(LEFT(L220,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M220))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K220" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B220,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B220,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211046</v>
       </c>
       <c r="L220" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B220,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B220,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210062</v>
       </c>
       <c r="M220" s="2" t="s">
@@ -71032,15 +71032,15 @@
         <v>3910</v>
       </c>
       <c r="J221" s="2" t="str">
-        <f>IF(AND(K221=0,L221=0)=TRUE,"",IF(AND(K221&gt;0,L221&gt;0)=TRUE,VLOOKUP(LEFT(L221,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M221))</f>
+        <f>IF(AND(K221=0,L221=0)=TRUE,"",IF(AND(K221&gt;0,L221&gt;0)=TRUE,VLOOKUP(LEFT(L221,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M221))</f>
         <v/>
       </c>
       <c r="K221" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B221,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B221,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L221" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B221,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B221,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M221" s="2" t="s">
@@ -71290,15 +71290,15 @@
         <v>3910</v>
       </c>
       <c r="J222" s="2" t="str">
-        <f>IF(AND(K222=0,L222=0)=TRUE,"",IF(AND(K222&gt;0,L222&gt;0)=TRUE,VLOOKUP(LEFT(L222,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M222))</f>
+        <f>IF(AND(K222=0,L222=0)=TRUE,"",IF(AND(K222&gt;0,L222&gt;0)=TRUE,VLOOKUP(LEFT(L222,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M222))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K222" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B222,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B222,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211079</v>
       </c>
       <c r="L222" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B222,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B222,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210013</v>
       </c>
       <c r="M222" s="2" t="s">
@@ -71548,15 +71548,15 @@
         <v>3910</v>
       </c>
       <c r="J223" s="2" t="str">
-        <f>IF(AND(K223=0,L223=0)=TRUE,"",IF(AND(K223&gt;0,L223&gt;0)=TRUE,VLOOKUP(LEFT(L223,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M223))</f>
+        <f>IF(AND(K223=0,L223=0)=TRUE,"",IF(AND(K223&gt;0,L223&gt;0)=TRUE,VLOOKUP(LEFT(L223,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M223))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K223" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B223,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B223,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211096</v>
       </c>
       <c r="L223" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B223,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B223,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210053</v>
       </c>
       <c r="M223" s="2" t="s">
@@ -71806,15 +71806,15 @@
         <v>3910</v>
       </c>
       <c r="J224" s="2" t="str">
-        <f>IF(AND(K224=0,L224=0)=TRUE,"",IF(AND(K224&gt;0,L224&gt;0)=TRUE,VLOOKUP(LEFT(L224,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M224))</f>
+        <f>IF(AND(K224=0,L224=0)=TRUE,"",IF(AND(K224&gt;0,L224&gt;0)=TRUE,VLOOKUP(LEFT(L224,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M224))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K224" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B224,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B224,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211098</v>
       </c>
       <c r="L224" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B224,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B224,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210048</v>
       </c>
       <c r="M224" s="2" t="s">
@@ -72064,15 +72064,15 @@
         <v>3910</v>
       </c>
       <c r="J225" s="2" t="str">
-        <f>IF(AND(K225=0,L225=0)=TRUE,"",IF(AND(K225&gt;0,L225&gt;0)=TRUE,VLOOKUP(LEFT(L225,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M225))</f>
+        <f>IF(AND(K225=0,L225=0)=TRUE,"",IF(AND(K225&gt;0,L225&gt;0)=TRUE,VLOOKUP(LEFT(L225,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M225))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K225" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B225,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B225,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211104</v>
       </c>
       <c r="L225" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B225,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B225,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210069</v>
       </c>
       <c r="M225" s="2" t="s">
@@ -72322,15 +72322,15 @@
         <v>3910</v>
       </c>
       <c r="J226" s="2" t="str">
-        <f>IF(AND(K226=0,L226=0)=TRUE,"",IF(AND(K226&gt;0,L226&gt;0)=TRUE,VLOOKUP(LEFT(L226,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M226))</f>
+        <f>IF(AND(K226=0,L226=0)=TRUE,"",IF(AND(K226&gt;0,L226&gt;0)=TRUE,VLOOKUP(LEFT(L226,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M226))</f>
         <v/>
       </c>
       <c r="K226" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B226,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B226,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L226" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B226,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B226,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M226" s="2" t="s">
@@ -72574,15 +72574,15 @@
         <v>3910</v>
       </c>
       <c r="J227" s="2" t="str">
-        <f>IF(AND(K227=0,L227=0)=TRUE,"",IF(AND(K227&gt;0,L227&gt;0)=TRUE,VLOOKUP(LEFT(L227,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M227))</f>
+        <f>IF(AND(K227=0,L227=0)=TRUE,"",IF(AND(K227&gt;0,L227&gt;0)=TRUE,VLOOKUP(LEFT(L227,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M227))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K227" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B227,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B227,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211118</v>
       </c>
       <c r="L227" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B227,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B227,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210057</v>
       </c>
       <c r="M227" s="2" t="s">
@@ -72826,15 +72826,15 @@
         <v>3910</v>
       </c>
       <c r="J228" s="2" t="str">
-        <f>IF(AND(K228=0,L228=0)=TRUE,"",IF(AND(K228&gt;0,L228&gt;0)=TRUE,VLOOKUP(LEFT(L228,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M228))</f>
+        <f>IF(AND(K228=0,L228=0)=TRUE,"",IF(AND(K228&gt;0,L228&gt;0)=TRUE,VLOOKUP(LEFT(L228,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M228))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K228" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B228,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B228,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211124</v>
       </c>
       <c r="L228" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B228,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B228,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210014</v>
       </c>
       <c r="M228" s="2" t="s">
@@ -73078,15 +73078,15 @@
         <v>3910</v>
       </c>
       <c r="J229" s="2" t="str">
-        <f>IF(AND(K229=0,L229=0)=TRUE,"",IF(AND(K229&gt;0,L229&gt;0)=TRUE,VLOOKUP(LEFT(L229,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M229))</f>
+        <f>IF(AND(K229=0,L229=0)=TRUE,"",IF(AND(K229&gt;0,L229&gt;0)=TRUE,VLOOKUP(LEFT(L229,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M229))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K229" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B229,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B229,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211135</v>
       </c>
       <c r="L229" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B229,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B229,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210068</v>
       </c>
       <c r="M229" s="2" t="s">
@@ -73330,15 +73330,15 @@
         <v>3910</v>
       </c>
       <c r="J230" s="2" t="str">
-        <f>IF(AND(K230=0,L230=0)=TRUE,"",IF(AND(K230&gt;0,L230&gt;0)=TRUE,VLOOKUP(LEFT(L230,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M230))</f>
+        <f>IF(AND(K230=0,L230=0)=TRUE,"",IF(AND(K230&gt;0,L230&gt;0)=TRUE,VLOOKUP(LEFT(L230,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M230))</f>
         <v/>
       </c>
       <c r="K230" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B230,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B230,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L230" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B230,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B230,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M230" s="2" t="s">
@@ -73588,15 +73588,15 @@
         <v>3910</v>
       </c>
       <c r="J231" s="2" t="str">
-        <f>IF(AND(K231=0,L231=0)=TRUE,"",IF(AND(K231&gt;0,L231&gt;0)=TRUE,VLOOKUP(LEFT(L231,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M231))</f>
+        <f>IF(AND(K231=0,L231=0)=TRUE,"",IF(AND(K231&gt;0,L231&gt;0)=TRUE,VLOOKUP(LEFT(L231,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M231))</f>
         <v/>
       </c>
       <c r="K231" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B231,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B231,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L231" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B231,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B231,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M231" s="2" t="s">
@@ -73846,15 +73846,15 @@
         <v>3910</v>
       </c>
       <c r="J232" s="2" t="str">
-        <f>IF(AND(K232=0,L232=0)=TRUE,"",IF(AND(K232&gt;0,L232&gt;0)=TRUE,VLOOKUP(LEFT(L232,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M232))</f>
+        <f>IF(AND(K232=0,L232=0)=TRUE,"",IF(AND(K232&gt;0,L232&gt;0)=TRUE,VLOOKUP(LEFT(L232,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M232))</f>
         <v/>
       </c>
       <c r="K232" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B232,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B232,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L232" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B232,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B232,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M232" s="2" t="s">
@@ -74104,15 +74104,15 @@
         <v>3910</v>
       </c>
       <c r="J233" s="2" t="str">
-        <f>IF(AND(K233=0,L233=0)=TRUE,"",IF(AND(K233&gt;0,L233&gt;0)=TRUE,VLOOKUP(LEFT(L233,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M233))</f>
+        <f>IF(AND(K233=0,L233=0)=TRUE,"",IF(AND(K233&gt;0,L233&gt;0)=TRUE,VLOOKUP(LEFT(L233,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M233))</f>
         <v/>
       </c>
       <c r="K233" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B233,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B233,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L233" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B233,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B233,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M233" s="2" t="s">
@@ -74362,15 +74362,15 @@
         <v>3910</v>
       </c>
       <c r="J234" s="2" t="str">
-        <f>IF(AND(K234=0,L234=0)=TRUE,"",IF(AND(K234&gt;0,L234&gt;0)=TRUE,VLOOKUP(LEFT(L234,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M234))</f>
+        <f>IF(AND(K234=0,L234=0)=TRUE,"",IF(AND(K234&gt;0,L234&gt;0)=TRUE,VLOOKUP(LEFT(L234,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M234))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K234" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B234,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B234,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211186</v>
       </c>
       <c r="L234" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B234,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B234,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210050</v>
       </c>
       <c r="M234" s="2" t="s">
@@ -74620,15 +74620,15 @@
         <v>3910</v>
       </c>
       <c r="J235" s="2" t="str">
-        <f>IF(AND(K235=0,L235=0)=TRUE,"",IF(AND(K235&gt;0,L235&gt;0)=TRUE,VLOOKUP(LEFT(L235,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M235))</f>
+        <f>IF(AND(K235=0,L235=0)=TRUE,"",IF(AND(K235&gt;0,L235&gt;0)=TRUE,VLOOKUP(LEFT(L235,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M235))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K235" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B235,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B235,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211216</v>
       </c>
       <c r="L235" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B235,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B235,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210066</v>
       </c>
       <c r="M235" s="2" t="s">
@@ -74878,15 +74878,15 @@
         <v>3910</v>
       </c>
       <c r="J236" s="2" t="str">
-        <f>IF(AND(K236=0,L236=0)=TRUE,"",IF(AND(K236&gt;0,L236&gt;0)=TRUE,VLOOKUP(LEFT(L236,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M236))</f>
+        <f>IF(AND(K236=0,L236=0)=TRUE,"",IF(AND(K236&gt;0,L236&gt;0)=TRUE,VLOOKUP(LEFT(L236,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M236))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K236" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B236,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B236,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211220</v>
       </c>
       <c r="L236" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B236,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B236,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210049</v>
       </c>
       <c r="M236" s="2" t="s">
@@ -75136,15 +75136,15 @@
         <v>3910</v>
       </c>
       <c r="J237" s="2" t="str">
-        <f>IF(AND(K237=0,L237=0)=TRUE,"",IF(AND(K237&gt;0,L237&gt;0)=TRUE,VLOOKUP(LEFT(L237,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M237))</f>
+        <f>IF(AND(K237=0,L237=0)=TRUE,"",IF(AND(K237&gt;0,L237&gt;0)=TRUE,VLOOKUP(LEFT(L237,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M237))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K237" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B237,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B237,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211237</v>
       </c>
       <c r="L237" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B237,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B237,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210030</v>
       </c>
       <c r="M237" s="2" t="s">
@@ -75394,15 +75394,15 @@
         <v>3910</v>
       </c>
       <c r="J238" s="2" t="str">
-        <f>IF(AND(K238=0,L238=0)=TRUE,"",IF(AND(K238&gt;0,L238&gt;0)=TRUE,VLOOKUP(LEFT(L238,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M238))</f>
+        <f>IF(AND(K238=0,L238=0)=TRUE,"",IF(AND(K238&gt;0,L238&gt;0)=TRUE,VLOOKUP(LEFT(L238,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M238))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K238" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B238,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B238,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211247</v>
       </c>
       <c r="L238" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B238,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B238,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210046</v>
       </c>
       <c r="M238" s="2" t="s">
@@ -75652,15 +75652,15 @@
         <v>3910</v>
       </c>
       <c r="J239" s="2" t="str">
-        <f>IF(AND(K239=0,L239=0)=TRUE,"",IF(AND(K239&gt;0,L239&gt;0)=TRUE,VLOOKUP(LEFT(L239,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M239))</f>
+        <f>IF(AND(K239=0,L239=0)=TRUE,"",IF(AND(K239&gt;0,L239&gt;0)=TRUE,VLOOKUP(LEFT(L239,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M239))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K239" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B239,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B239,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211264</v>
       </c>
       <c r="L239" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B239,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B239,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M239" s="2" t="s">
@@ -75904,15 +75904,15 @@
         <v>3910</v>
       </c>
       <c r="J240" s="2" t="str">
-        <f>IF(AND(K240=0,L240=0)=TRUE,"",IF(AND(K240&gt;0,L240&gt;0)=TRUE,VLOOKUP(LEFT(L240,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M240))</f>
+        <f>IF(AND(K240=0,L240=0)=TRUE,"",IF(AND(K240&gt;0,L240&gt;0)=TRUE,VLOOKUP(LEFT(L240,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M240))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K240" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B240,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B240,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211269</v>
       </c>
       <c r="L240" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B240,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B240,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210074</v>
       </c>
       <c r="M240" s="2" t="s">
@@ -76162,15 +76162,15 @@
         <v>3910</v>
       </c>
       <c r="J241" s="2" t="str">
-        <f>IF(AND(K241=0,L241=0)=TRUE,"",IF(AND(K241&gt;0,L241&gt;0)=TRUE,VLOOKUP(LEFT(L241,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M241))</f>
+        <f>IF(AND(K241=0,L241=0)=TRUE,"",IF(AND(K241&gt;0,L241&gt;0)=TRUE,VLOOKUP(LEFT(L241,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M241))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K241" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B241,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B241,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211290</v>
       </c>
       <c r="L241" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B241,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B241,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210041</v>
       </c>
       <c r="M241" s="2" t="s">
@@ -76420,15 +76420,15 @@
         <v>3910</v>
       </c>
       <c r="J242" s="2" t="str">
-        <f>IF(AND(K242=0,L242=0)=TRUE,"",IF(AND(K242&gt;0,L242&gt;0)=TRUE,VLOOKUP(LEFT(L242,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M242))</f>
+        <f>IF(AND(K242=0,L242=0)=TRUE,"",IF(AND(K242&gt;0,L242&gt;0)=TRUE,VLOOKUP(LEFT(L242,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M242))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K242" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B242,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B242,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21211292</v>
       </c>
       <c r="L242" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B242,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B242,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M242" s="2" t="s">
@@ -76672,15 +76672,15 @@
         <v>3910</v>
       </c>
       <c r="J243" s="2" t="str">
-        <f>IF(AND(K243=0,L243=0)=TRUE,"",IF(AND(K243&gt;0,L243&gt;0)=TRUE,VLOOKUP(LEFT(L243,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M243))</f>
+        <f>IF(AND(K243=0,L243=0)=TRUE,"",IF(AND(K243&gt;0,L243&gt;0)=TRUE,VLOOKUP(LEFT(L243,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M243))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K243" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B243,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B243,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219759</v>
       </c>
       <c r="L243" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B243,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B243,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210043</v>
       </c>
       <c r="M243" s="2" t="s">
@@ -76924,15 +76924,15 @@
         <v>3910</v>
       </c>
       <c r="J244" s="2" t="str">
-        <f>IF(AND(K244=0,L244=0)=TRUE,"",IF(AND(K244&gt;0,L244&gt;0)=TRUE,VLOOKUP(LEFT(L244,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M244))</f>
+        <f>IF(AND(K244=0,L244=0)=TRUE,"",IF(AND(K244&gt;0,L244&gt;0)=TRUE,VLOOKUP(LEFT(L244,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M244))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K244" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B244,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B244,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219784</v>
       </c>
       <c r="L244" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B244,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B244,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M244" s="2" t="s">
@@ -77182,15 +77182,15 @@
         <v>3910</v>
       </c>
       <c r="J245" s="2" t="str">
-        <f>IF(AND(K245=0,L245=0)=TRUE,"",IF(AND(K245&gt;0,L245&gt;0)=TRUE,VLOOKUP(LEFT(L245,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M245))</f>
+        <f>IF(AND(K245=0,L245=0)=TRUE,"",IF(AND(K245&gt;0,L245&gt;0)=TRUE,VLOOKUP(LEFT(L245,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M245))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K245" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B245,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B245,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219808</v>
       </c>
       <c r="L245" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B245,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B245,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210067</v>
       </c>
       <c r="M245" s="2" t="s">
@@ -77440,15 +77440,15 @@
         <v>3910</v>
       </c>
       <c r="J246" s="2" t="str">
-        <f>IF(AND(K246=0,L246=0)=TRUE,"",IF(AND(K246&gt;0,L246&gt;0)=TRUE,VLOOKUP(LEFT(L246,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M246))</f>
+        <f>IF(AND(K246=0,L246=0)=TRUE,"",IF(AND(K246&gt;0,L246&gt;0)=TRUE,VLOOKUP(LEFT(L246,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M246))</f>
         <v/>
       </c>
       <c r="K246" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B246,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B246,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L246" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B246,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B246,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M246" s="2" t="s">
@@ -77692,15 +77692,15 @@
         <v>3910</v>
       </c>
       <c r="J247" s="2" t="str">
-        <f>IF(AND(K247=0,L247=0)=TRUE,"",IF(AND(K247&gt;0,L247&gt;0)=TRUE,VLOOKUP(LEFT(L247,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M247))</f>
+        <f>IF(AND(K247=0,L247=0)=TRUE,"",IF(AND(K247&gt;0,L247&gt;0)=TRUE,VLOOKUP(LEFT(L247,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M247))</f>
         <v/>
       </c>
       <c r="K247" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B247,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B247,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L247" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B247,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B247,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M247" s="2" t="s">
@@ -77944,15 +77944,15 @@
         <v>3910</v>
       </c>
       <c r="J248" s="2" t="str">
-        <f>IF(AND(K248=0,L248=0)=TRUE,"",IF(AND(K248&gt;0,L248&gt;0)=TRUE,VLOOKUP(LEFT(L248,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M248))</f>
+        <f>IF(AND(K248=0,L248=0)=TRUE,"",IF(AND(K248&gt;0,L248&gt;0)=TRUE,VLOOKUP(LEFT(L248,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M248))</f>
         <v/>
       </c>
       <c r="K248" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B248,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B248,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L248" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B248,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B248,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M248" s="2" t="s">
@@ -78202,15 +78202,15 @@
         <v>3910</v>
       </c>
       <c r="J249" s="2" t="str">
-        <f>IF(AND(K249=0,L249=0)=TRUE,"",IF(AND(K249&gt;0,L249&gt;0)=TRUE,VLOOKUP(LEFT(L249,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M249))</f>
+        <f>IF(AND(K249=0,L249=0)=TRUE,"",IF(AND(K249&gt;0,L249&gt;0)=TRUE,VLOOKUP(LEFT(L249,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M249))</f>
         <v/>
       </c>
       <c r="K249" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B249,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B249,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L249" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B249,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B249,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M249" s="2" t="s">
@@ -78460,15 +78460,15 @@
         <v>3910</v>
       </c>
       <c r="J250" s="2" t="str">
-        <f>IF(AND(K250=0,L250=0)=TRUE,"",IF(AND(K250&gt;0,L250&gt;0)=TRUE,VLOOKUP(LEFT(L250,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M250))</f>
+        <f>IF(AND(K250=0,L250=0)=TRUE,"",IF(AND(K250&gt;0,L250&gt;0)=TRUE,VLOOKUP(LEFT(L250,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M250))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K250" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B250,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B250,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219908</v>
       </c>
       <c r="L250" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B250,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B250,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210073</v>
       </c>
       <c r="M250" s="2" t="s">
@@ -78712,15 +78712,15 @@
         <v>3910</v>
       </c>
       <c r="J251" s="2" t="str">
-        <f>IF(AND(K251=0,L251=0)=TRUE,"",IF(AND(K251&gt;0,L251&gt;0)=TRUE,VLOOKUP(LEFT(L251,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M251))</f>
+        <f>IF(AND(K251=0,L251=0)=TRUE,"",IF(AND(K251&gt;0,L251&gt;0)=TRUE,VLOOKUP(LEFT(L251,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M251))</f>
         <v/>
       </c>
       <c r="K251" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B251,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B251,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L251" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B251,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B251,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M251" s="2" t="s">
@@ -78970,15 +78970,15 @@
         <v>3910</v>
       </c>
       <c r="J252" s="2" t="str">
-        <f>IF(AND(K252=0,L252=0)=TRUE,"",IF(AND(K252&gt;0,L252&gt;0)=TRUE,VLOOKUP(LEFT(L252,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M252))</f>
+        <f>IF(AND(K252=0,L252=0)=TRUE,"",IF(AND(K252&gt;0,L252&gt;0)=TRUE,VLOOKUP(LEFT(L252,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M252))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K252" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B252,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B252,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219935</v>
       </c>
       <c r="L252" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B252,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B252,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210016</v>
       </c>
       <c r="M252" s="2" t="s">
@@ -79228,15 +79228,15 @@
         <v>3910</v>
       </c>
       <c r="J253" s="2" t="str">
-        <f>IF(AND(K253=0,L253=0)=TRUE,"",IF(AND(K253&gt;0,L253&gt;0)=TRUE,VLOOKUP(LEFT(L253,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M253))</f>
+        <f>IF(AND(K253=0,L253=0)=TRUE,"",IF(AND(K253&gt;0,L253&gt;0)=TRUE,VLOOKUP(LEFT(L253,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M253))</f>
         <v>KEPERAWATAN D3</v>
       </c>
       <c r="K253" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B253,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B253,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21219945</v>
       </c>
       <c r="L253" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B253,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B253,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>8801210002</v>
       </c>
       <c r="M253" s="2" t="s">
@@ -79486,15 +79486,15 @@
         <v>3909</v>
       </c>
       <c r="J254" s="2" t="str">
-        <f>IF(AND(K254=0,L254=0)=TRUE,"",IF(AND(K254&gt;0,L254&gt;0)=TRUE,VLOOKUP(LEFT(L254,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M254))</f>
+        <f>IF(AND(K254=0,L254=0)=TRUE,"",IF(AND(K254&gt;0,L254&gt;0)=TRUE,VLOOKUP(LEFT(L254,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M254))</f>
         <v>AKUNTANSI</v>
       </c>
       <c r="K254" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B254,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B254,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21310163</v>
       </c>
       <c r="L254" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B254,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B254,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5552210163</v>
       </c>
       <c r="M254" s="2" t="s">
@@ -79744,15 +79744,15 @@
         <v>3909</v>
       </c>
       <c r="J255" s="2" t="str">
-        <f>IF(AND(K255=0,L255=0)=TRUE,"",IF(AND(K255&gt;0,L255&gt;0)=TRUE,VLOOKUP(LEFT(L255,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M255))</f>
+        <f>IF(AND(K255=0,L255=0)=TRUE,"",IF(AND(K255&gt;0,L255&gt;0)=TRUE,VLOOKUP(LEFT(L255,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M255))</f>
         <v/>
       </c>
       <c r="K255" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B255,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B255,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L255" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B255,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B255,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M255" s="2" t="s">
@@ -80002,15 +80002,15 @@
         <v>3909</v>
       </c>
       <c r="J256" s="2" t="str">
-        <f>IF(AND(K256=0,L256=0)=TRUE,"",IF(AND(K256&gt;0,L256&gt;0)=TRUE,VLOOKUP(LEFT(L256,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M256))</f>
+        <f>IF(AND(K256=0,L256=0)=TRUE,"",IF(AND(K256&gt;0,L256&gt;0)=TRUE,VLOOKUP(LEFT(L256,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M256))</f>
         <v/>
       </c>
       <c r="K256" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B256,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B256,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L256" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B256,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B256,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M256" s="2" t="s">
@@ -80254,15 +80254,15 @@
         <v>3909</v>
       </c>
       <c r="J257" s="2" t="str">
-        <f>IF(AND(K257=0,L257=0)=TRUE,"",IF(AND(K257&gt;0,L257&gt;0)=TRUE,VLOOKUP(LEFT(L257,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M257))</f>
+        <f>IF(AND(K257=0,L257=0)=TRUE,"",IF(AND(K257&gt;0,L257&gt;0)=TRUE,VLOOKUP(LEFT(L257,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M257))</f>
         <v>MANAJEMEN</v>
       </c>
       <c r="K257" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B257,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B257,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21310332</v>
       </c>
       <c r="L257" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B257,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B257,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5551210191</v>
       </c>
       <c r="M257" s="2" t="s">
@@ -80512,15 +80512,15 @@
         <v>3909</v>
       </c>
       <c r="J258" s="2" t="str">
-        <f>IF(AND(K258=0,L258=0)=TRUE,"",IF(AND(K258&gt;0,L258&gt;0)=TRUE,VLOOKUP(LEFT(L258,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M258))</f>
+        <f>IF(AND(K258=0,L258=0)=TRUE,"",IF(AND(K258&gt;0,L258&gt;0)=TRUE,VLOOKUP(LEFT(L258,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M258))</f>
         <v>AKUNTANSI</v>
       </c>
       <c r="K258" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B258,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B258,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21310363</v>
       </c>
       <c r="L258" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B258,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B258,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5552210166</v>
       </c>
       <c r="M258" s="2" t="s">
@@ -80770,15 +80770,15 @@
         <v>3909</v>
       </c>
       <c r="J259" s="2" t="str">
-        <f>IF(AND(K259=0,L259=0)=TRUE,"",IF(AND(K259&gt;0,L259&gt;0)=TRUE,VLOOKUP(LEFT(L259,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M259))</f>
+        <f>IF(AND(K259=0,L259=0)=TRUE,"",IF(AND(K259&gt;0,L259&gt;0)=TRUE,VLOOKUP(LEFT(L259,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M259))</f>
         <v>MANAJEMEN</v>
       </c>
       <c r="K259" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B259,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B259,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21310458</v>
       </c>
       <c r="L259" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B259,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B259,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5551210189</v>
       </c>
       <c r="M259" s="2" t="s">
@@ -81022,15 +81022,15 @@
         <v>3909</v>
       </c>
       <c r="J260" s="2" t="str">
-        <f>IF(AND(K260=0,L260=0)=TRUE,"",IF(AND(K260&gt;0,L260&gt;0)=TRUE,VLOOKUP(LEFT(L260,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M260))</f>
+        <f>IF(AND(K260=0,L260=0)=TRUE,"",IF(AND(K260&gt;0,L260&gt;0)=TRUE,VLOOKUP(LEFT(L260,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M260))</f>
         <v>MANAJEMEN</v>
       </c>
       <c r="K260" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B260,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B260,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21310496</v>
       </c>
       <c r="L260" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B260,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B260,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5551210187</v>
       </c>
       <c r="M260" s="2" t="s">
@@ -81280,15 +81280,15 @@
         <v>3909</v>
       </c>
       <c r="J261" s="2" t="str">
-        <f>IF(AND(K261=0,L261=0)=TRUE,"",IF(AND(K261&gt;0,L261&gt;0)=TRUE,VLOOKUP(LEFT(L261,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M261))</f>
+        <f>IF(AND(K261=0,L261=0)=TRUE,"",IF(AND(K261&gt;0,L261&gt;0)=TRUE,VLOOKUP(LEFT(L261,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M261))</f>
         <v>MANAJEMEN</v>
       </c>
       <c r="K261" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B261,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B261,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21310511</v>
       </c>
       <c r="L261" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B261,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B261,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5551210192</v>
       </c>
       <c r="M261" s="2" t="s">
@@ -81538,15 +81538,15 @@
         <v>3909</v>
       </c>
       <c r="J262" s="2" t="str">
-        <f>IF(AND(K262=0,L262=0)=TRUE,"",IF(AND(K262&gt;0,L262&gt;0)=TRUE,VLOOKUP(LEFT(L262,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M262))</f>
+        <f>IF(AND(K262=0,L262=0)=TRUE,"",IF(AND(K262&gt;0,L262&gt;0)=TRUE,VLOOKUP(LEFT(L262,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M262))</f>
         <v>MANAJEMEN</v>
       </c>
       <c r="K262" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B262,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B262,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21310562</v>
       </c>
       <c r="L262" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B262,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B262,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5551210194</v>
       </c>
       <c r="M262" s="2" t="s">
@@ -81796,15 +81796,15 @@
         <v>3909</v>
       </c>
       <c r="J263" s="2" t="str">
-        <f>IF(AND(K263=0,L263=0)=TRUE,"",IF(AND(K263&gt;0,L263&gt;0)=TRUE,VLOOKUP(LEFT(L263,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M263))</f>
+        <f>IF(AND(K263=0,L263=0)=TRUE,"",IF(AND(K263&gt;0,L263&gt;0)=TRUE,VLOOKUP(LEFT(L263,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M263))</f>
         <v>AKUNTANSI</v>
       </c>
       <c r="K263" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B263,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B263,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21310593</v>
       </c>
       <c r="L263" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B263,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B263,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5552210161</v>
       </c>
       <c r="M263" s="2" t="s">
@@ -82048,15 +82048,15 @@
         <v>3909</v>
       </c>
       <c r="J264" s="2" t="str">
-        <f>IF(AND(K264=0,L264=0)=TRUE,"",IF(AND(K264&gt;0,L264&gt;0)=TRUE,VLOOKUP(LEFT(L264,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M264))</f>
+        <f>IF(AND(K264=0,L264=0)=TRUE,"",IF(AND(K264&gt;0,L264&gt;0)=TRUE,VLOOKUP(LEFT(L264,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M264))</f>
         <v>AKUNTANSI</v>
       </c>
       <c r="K264" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B264,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B264,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21317632</v>
       </c>
       <c r="L264" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B264,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B264,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5552210164</v>
       </c>
       <c r="M264" s="2" t="s">
@@ -82306,15 +82306,15 @@
         <v>3909</v>
       </c>
       <c r="J265" s="2" t="str">
-        <f>IF(AND(K265=0,L265=0)=TRUE,"",IF(AND(K265&gt;0,L265&gt;0)=TRUE,VLOOKUP(LEFT(L265,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M265))</f>
+        <f>IF(AND(K265=0,L265=0)=TRUE,"",IF(AND(K265&gt;0,L265&gt;0)=TRUE,VLOOKUP(LEFT(L265,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M265))</f>
         <v>MANAJEMEN</v>
       </c>
       <c r="K265" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B265,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B265,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21317730</v>
       </c>
       <c r="L265" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B265,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B265,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5551210188</v>
       </c>
       <c r="M265" s="2" t="s">
@@ -82564,15 +82564,15 @@
         <v>3909</v>
       </c>
       <c r="J266" s="2" t="str">
-        <f>IF(AND(K266=0,L266=0)=TRUE,"",IF(AND(K266&gt;0,L266&gt;0)=TRUE,VLOOKUP(LEFT(L266,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M266))</f>
+        <f>IF(AND(K266=0,L266=0)=TRUE,"",IF(AND(K266&gt;0,L266&gt;0)=TRUE,VLOOKUP(LEFT(L266,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M266))</f>
         <v>MANAJEMEN</v>
       </c>
       <c r="K266" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B266,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B266,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21317789</v>
       </c>
       <c r="L266" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B266,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B266,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5551210186</v>
       </c>
       <c r="M266" s="2" t="s">
@@ -82822,15 +82822,15 @@
         <v>3909</v>
       </c>
       <c r="J267" s="2" t="str">
-        <f>IF(AND(K267=0,L267=0)=TRUE,"",IF(AND(K267&gt;0,L267&gt;0)=TRUE,VLOOKUP(LEFT(L267,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M267))</f>
+        <f>IF(AND(K267=0,L267=0)=TRUE,"",IF(AND(K267&gt;0,L267&gt;0)=TRUE,VLOOKUP(LEFT(L267,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M267))</f>
         <v>AKUNTANSI</v>
       </c>
       <c r="K267" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B267,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B267,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21317857</v>
       </c>
       <c r="L267" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B267,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B267,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5552210165</v>
       </c>
       <c r="M267" s="2" t="s">
@@ -83080,15 +83080,15 @@
         <v>3909</v>
       </c>
       <c r="J268" s="2" t="str">
-        <f>IF(AND(K268=0,L268=0)=TRUE,"",IF(AND(K268&gt;0,L268&gt;0)=TRUE,VLOOKUP(LEFT(L268,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M268))</f>
+        <f>IF(AND(K268=0,L268=0)=TRUE,"",IF(AND(K268&gt;0,L268&gt;0)=TRUE,VLOOKUP(LEFT(L268,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M268))</f>
         <v>MANAJEMEN</v>
       </c>
       <c r="K268" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B268,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B268,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21317981</v>
       </c>
       <c r="L268" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B268,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B268,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5551210183</v>
       </c>
       <c r="M268" s="2" t="s">
@@ -83338,15 +83338,15 @@
         <v>3909</v>
       </c>
       <c r="J269" s="2" t="str">
-        <f>IF(AND(K269=0,L269=0)=TRUE,"",IF(AND(K269&gt;0,L269&gt;0)=TRUE,VLOOKUP(LEFT(L269,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M269))</f>
+        <f>IF(AND(K269=0,L269=0)=TRUE,"",IF(AND(K269&gt;0,L269&gt;0)=TRUE,VLOOKUP(LEFT(L269,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M269))</f>
         <v>AKUNTANSI</v>
       </c>
       <c r="K269" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B269,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B269,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21318037</v>
       </c>
       <c r="L269" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B269,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B269,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5552210162</v>
       </c>
       <c r="M269" s="2" t="s">
@@ -83596,15 +83596,15 @@
         <v>3909</v>
       </c>
       <c r="J270" s="2" t="str">
-        <f>IF(AND(K270=0,L270=0)=TRUE,"",IF(AND(K270&gt;0,L270&gt;0)=TRUE,VLOOKUP(LEFT(L270,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M270))</f>
+        <f>IF(AND(K270=0,L270=0)=TRUE,"",IF(AND(K270&gt;0,L270&gt;0)=TRUE,VLOOKUP(LEFT(L270,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M270))</f>
         <v>MANAJEMEN</v>
       </c>
       <c r="K270" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B270,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B270,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21318099</v>
       </c>
       <c r="L270" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B270,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B270,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5551210185</v>
       </c>
       <c r="M270" s="2" t="s">
@@ -83854,15 +83854,15 @@
         <v>3909</v>
       </c>
       <c r="J271" s="2" t="str">
-        <f>IF(AND(K271=0,L271=0)=TRUE,"",IF(AND(K271&gt;0,L271&gt;0)=TRUE,VLOOKUP(LEFT(L271,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M271))</f>
+        <f>IF(AND(K271=0,L271=0)=TRUE,"",IF(AND(K271&gt;0,L271&gt;0)=TRUE,VLOOKUP(LEFT(L271,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M271))</f>
         <v>MANAJEMEN</v>
       </c>
       <c r="K271" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B271,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B271,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21318123</v>
       </c>
       <c r="L271" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B271,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B271,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5551210193</v>
       </c>
       <c r="M271" s="2" t="s">
@@ -84112,15 +84112,15 @@
         <v>3909</v>
       </c>
       <c r="J272" s="2" t="str">
-        <f>IF(AND(K272=0,L272=0)=TRUE,"",IF(AND(K272&gt;0,L272&gt;0)=TRUE,VLOOKUP(LEFT(L272,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M272))</f>
+        <f>IF(AND(K272=0,L272=0)=TRUE,"",IF(AND(K272&gt;0,L272&gt;0)=TRUE,VLOOKUP(LEFT(L272,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M272))</f>
         <v/>
       </c>
       <c r="K272" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B272,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B272,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L272" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B272,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B272,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M272" s="2" t="s">
@@ -84370,15 +84370,15 @@
         <v>3909</v>
       </c>
       <c r="J273" s="2" t="str">
-        <f>IF(AND(K273=0,L273=0)=TRUE,"",IF(AND(K273&gt;0,L273&gt;0)=TRUE,VLOOKUP(LEFT(L273,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M273))</f>
+        <f>IF(AND(K273=0,L273=0)=TRUE,"",IF(AND(K273&gt;0,L273&gt;0)=TRUE,VLOOKUP(LEFT(L273,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M273))</f>
         <v>MANAJEMEN</v>
       </c>
       <c r="K273" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B273,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B273,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21318245</v>
       </c>
       <c r="L273" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B273,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B273,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5551210184</v>
       </c>
       <c r="M273" s="2" t="s">
@@ -84628,15 +84628,15 @@
         <v>3909</v>
       </c>
       <c r="J274" s="2" t="str">
-        <f>IF(AND(K274=0,L274=0)=TRUE,"",IF(AND(K274&gt;0,L274&gt;0)=TRUE,VLOOKUP(LEFT(L274,4)*1,[2]PRODI_2019!$D$2:$E$70,2,FALSE),M274))</f>
+        <f>IF(AND(K274=0,L274=0)=TRUE,"",IF(AND(K274&gt;0,L274&gt;0)=TRUE,VLOOKUP(LEFT(L274,4)*1,[1]PRODI_2019!$D$2:$E$70,2,FALSE),M274))</f>
         <v>MANAJEMEN</v>
       </c>
       <c r="K274" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B274,[1]Data!$J$2:$K$224,1,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B274,[2]Data!$J$2:$K$224,1,FALSE),0)</f>
         <v>21310563</v>
       </c>
       <c r="L274" s="2">
-        <f>_xlfn.IFNA(VLOOKUP(B274,[1]Data!$J$2:$K$224,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B274,[2]Data!$J$2:$K$224,2,FALSE),0)</f>
         <v>5551210190</v>
       </c>
       <c r="M274" s="2" t="s">
